--- a/boxsite/idea.xlsx
+++ b/boxsite/idea.xlsx
@@ -4,32 +4,33 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22968" windowHeight="10164" tabRatio="818"/>
+    <workbookView windowWidth="20370" windowHeight="8985" tabRatio="818" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="找方向" sheetId="1" r:id="rId1"/>
-    <sheet name="找项目" sheetId="2" r:id="rId2"/>
-    <sheet name="互联网营销" sheetId="3" r:id="rId3"/>
-    <sheet name="备用点子" sheetId="4" r:id="rId4"/>
-    <sheet name="干活" sheetId="5" r:id="rId5"/>
-    <sheet name="奇点_IOT" sheetId="6" r:id="rId6"/>
-    <sheet name="奇点_人工智能" sheetId="7" r:id="rId7"/>
-    <sheet name="奇点_大数据" sheetId="8" r:id="rId8"/>
-    <sheet name="新点子" sheetId="9" r:id="rId9"/>
-    <sheet name="点子_微信营销" sheetId="10" r:id="rId10"/>
-    <sheet name="点子_手机电商" sheetId="11" r:id="rId11"/>
-    <sheet name="在线教育" sheetId="12" r:id="rId12"/>
-    <sheet name="o2o" sheetId="13" r:id="rId13"/>
-    <sheet name="医疗健康" sheetId="14" r:id="rId14"/>
-    <sheet name="网站聚合" sheetId="15" r:id="rId15"/>
-    <sheet name="旅游" sheetId="16" r:id="rId16"/>
+    <sheet name="搞钱" sheetId="2" r:id="rId2"/>
+    <sheet name="找项目" sheetId="3" r:id="rId3"/>
+    <sheet name="互联网营销" sheetId="4" r:id="rId4"/>
+    <sheet name="备用点子" sheetId="5" r:id="rId5"/>
+    <sheet name="干活" sheetId="6" r:id="rId6"/>
+    <sheet name="奇点_IOT" sheetId="7" r:id="rId7"/>
+    <sheet name="奇点_人工智能" sheetId="8" r:id="rId8"/>
+    <sheet name="奇点_大数据" sheetId="9" r:id="rId9"/>
+    <sheet name="新点子" sheetId="10" r:id="rId10"/>
+    <sheet name="点子_微信营销" sheetId="11" r:id="rId11"/>
+    <sheet name="点子_手机电商" sheetId="12" r:id="rId12"/>
+    <sheet name="在线教育" sheetId="13" r:id="rId13"/>
+    <sheet name="o2o" sheetId="14" r:id="rId14"/>
+    <sheet name="医疗健康" sheetId="15" r:id="rId15"/>
+    <sheet name="网站聚合" sheetId="16" r:id="rId16"/>
+    <sheet name="旅游" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723">
   <si>
     <t>需求</t>
   </si>
@@ -373,6 +374,87 @@
     <t>医疗健康</t>
   </si>
   <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>付费应用</t>
+  </si>
+  <si>
+    <t>为内容付费</t>
+  </si>
+  <si>
+    <t>考试，考题</t>
+  </si>
+  <si>
+    <t>精选付费会员</t>
+  </si>
+  <si>
+    <t>考试</t>
+  </si>
+  <si>
+    <t>内地考试</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>炒股/理财</t>
+  </si>
+  <si>
+    <t>外国人考中国驾照</t>
+  </si>
+  <si>
+    <t>翻译试题</t>
+  </si>
+  <si>
+    <t>一元付费应用</t>
+  </si>
+  <si>
+    <t>做国外</t>
+  </si>
+  <si>
+    <t>国外到国内</t>
+  </si>
+  <si>
+    <t>旅游酒店</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国外市场 </t>
+  </si>
+  <si>
+    <t>一美元应用</t>
+  </si>
+  <si>
+    <t>澳洲</t>
+  </si>
+  <si>
+    <t>购物</t>
+  </si>
+  <si>
+    <t>某种特定人群</t>
+  </si>
+  <si>
+    <t>看不见的</t>
+  </si>
+  <si>
+    <t>新闻阅读</t>
+  </si>
+  <si>
+    <t>文字转语音</t>
+  </si>
+  <si>
+    <t>盲人购物</t>
+  </si>
+  <si>
+    <t>收集和整理文章</t>
+  </si>
+  <si>
+    <t>了解痛点</t>
+  </si>
+  <si>
     <t>创业网站</t>
   </si>
   <si>
@@ -707,9 +789,6 @@
   </si>
   <si>
     <t>微信群联盟</t>
-  </si>
-  <si>
-    <t>工具</t>
   </si>
   <si>
     <t>漂流瓶</t>
@@ -811,9 +890,6 @@
   </si>
   <si>
     <t>痛点基本被已有的旅游网站解决</t>
-  </si>
-  <si>
-    <t>建材装修宝典</t>
   </si>
   <si>
     <t>第一个月</t>
@@ -2165,10 +2241,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2803,16 +2879,16 @@
   <sheetPr/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="27.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="27.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2995,7 +3071,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:11">
+    <row r="16" ht="16.5" spans="1:11">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -3009,7 +3085,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" ht="14.25" spans="2:11">
       <c r="B17" s="33" t="s">
         <v>47</v>
       </c>
@@ -3020,7 +3096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="2:11">
+    <row r="18" ht="16.5" spans="2:11">
       <c r="B18" s="32" t="s">
         <v>50</v>
       </c>
@@ -3302,16 +3378,155 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A2:J44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="8" max="8" width="49.1333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33">
+        <v>2015</v>
+      </c>
+      <c r="D33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G33" t="s">
+        <v>303</v>
+      </c>
+      <c r="H33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10">
+      <c r="H37" t="s">
+        <v>283</v>
+      </c>
+      <c r="J37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="8:10">
+      <c r="H40" t="s">
+        <v>307</v>
+      </c>
+      <c r="J40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" spans="10:10">
+      <c r="J44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B33" sqref="B33:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" style="11"/>
-    <col min="4" max="4" width="27.8796296296296" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.8833333333333" style="11" customWidth="1"/>
     <col min="5" max="10" width="9" style="11"/>
     <col min="11" max="11" width="21.5" style="11" customWidth="1"/>
     <col min="12" max="16384" width="9" style="11"/>
@@ -3319,46 +3534,46 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="6:7">
       <c r="F3" s="11" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:15">
       <c r="A4" s="11" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="5:16">
@@ -3366,18 +3581,18 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="E6" s="11">
         <v>1.2</v>
@@ -3385,115 +3600,115 @@
     </row>
     <row r="7" s="11" customFormat="1" spans="7:7">
       <c r="G7" s="11" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="4:12">
       <c r="D8" s="11" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="E8" s="12">
         <v>0.002</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="7:8">
       <c r="G9" s="11" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" spans="8:17">
       <c r="H10" s="11" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="4:4">
       <c r="D11" s="11" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" s="11" customFormat="1" ht="22.2" spans="4:14">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" s="11" customFormat="1" ht="22.5" spans="4:14">
       <c r="D13" s="11" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" s="11" customFormat="1" ht="22.2" spans="1:14">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="1" ht="22.5" spans="1:14">
       <c r="A14" s="13">
         <v>0.9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="7:14">
       <c r="G15" s="11" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="5:16">
       <c r="E16" s="11" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="16:16">
       <c r="P17" s="11" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" s="11" customFormat="1" spans="1:16">
       <c r="A18" s="11" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:16">
       <c r="A19" s="11" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>93</v>
@@ -3501,13 +3716,13 @@
     </row>
     <row r="20" s="11" customFormat="1" spans="1:13">
       <c r="A20" s="11" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="13:13">
@@ -3517,56 +3732,56 @@
     </row>
     <row r="22" s="11" customFormat="1" spans="9:9">
       <c r="I22" s="11" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="5:9">
       <c r="E23" s="11" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="9:9">
       <c r="I24" s="11" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="3:3">
       <c r="C27" s="11" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="4:12">
       <c r="D28" s="11" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="4:8">
       <c r="D29" s="11" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="2:19">
@@ -3575,16 +3790,16 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="M33" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="N33" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="O33" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="P33" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -3596,17 +3811,17 @@
       <c r="D34"/>
       <c r="E34"/>
       <c r="I34" s="11" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -3620,20 +3835,20 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="J35" s="11" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="S35" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -3648,7 +3863,7 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="13:19">
@@ -3662,7 +3877,7 @@
     </row>
     <row r="38" spans="13:19">
       <c r="M38" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -3680,16 +3895,16 @@
       <c r="R39"/>
       <c r="S39"/>
     </row>
-    <row r="41" ht="17.4" spans="2:13">
+    <row r="41" ht="18.75" spans="2:13">
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="J41"/>
       <c r="K41" s="16" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -3697,7 +3912,7 @@
     <row r="42" spans="2:13">
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -3706,16 +3921,16 @@
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" ht="34.8" spans="2:13">
+    <row r="43" ht="37.5" spans="2:13">
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="J43"/>
       <c r="K43" s="16" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -3723,7 +3938,7 @@
     <row r="44" spans="2:13">
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -3732,16 +3947,16 @@
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" ht="34.8" spans="2:13">
+    <row r="45" ht="37.5" spans="2:13">
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="J45"/>
       <c r="K45" s="16" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
@@ -3751,7 +3966,7 @@
     <row r="46" spans="2:13">
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -3760,20 +3975,20 @@
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" ht="34.8" spans="2:13">
+    <row r="47" ht="37.5" spans="2:13">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="J47"/>
       <c r="K47" s="16" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="L47" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -3781,13 +3996,13 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="10:13">
@@ -3798,160 +4013,160 @@
     </row>
     <row r="50" spans="10:13">
       <c r="J50" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="K50" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="10:13">
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52" spans="10:13">
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53" spans="10:13">
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="L53" t="s">
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="10:13">
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="56" ht="17.4" spans="1:1">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="56" ht="17.25" spans="1:1">
       <c r="A56" s="14" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="59" ht="14.4" spans="1:6">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="59" ht="13.5" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="B59" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="C59" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="D59" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="60" ht="14.4" spans="1:6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60" ht="13.5" spans="1:6">
       <c r="A60" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="B60" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="C60" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="D60" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="E60" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="F60" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="61" ht="14.4" spans="1:6">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="61" ht="13.5" spans="1:6">
       <c r="A61" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="F61" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="62" ht="14.4" spans="1:6">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="62" ht="13.5" spans="1:6">
       <c r="A62" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="B62" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="C62" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="F62"/>
     </row>
-    <row r="63" ht="14.4" spans="1:6">
+    <row r="63" ht="13.5" spans="1:6">
       <c r="A63" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="B63" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="F63"/>
     </row>
-    <row r="64" ht="14.4" spans="1:6">
+    <row r="64" ht="13.5" spans="1:6">
       <c r="A64" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="B64" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64"/>
     </row>
-    <row r="65" ht="14.4" spans="1:6">
+    <row r="65" ht="13.5" spans="1:6">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -3959,243 +4174,21 @@
       <c r="E65"/>
       <c r="F65"/>
     </row>
-    <row r="67" ht="17.4" spans="1:1">
+    <row r="67" ht="17.25" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="69" ht="400.2" spans="1:2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="69" ht="293.25" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A2:N29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="14:14">
-      <c r="N2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>267</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C4" t="s">
-        <v>402</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="5" spans="3:14">
-      <c r="C5" t="s">
-        <v>404</v>
-      </c>
-      <c r="D5" t="s">
-        <v>405</v>
-      </c>
-      <c r="J5" t="s">
-        <v>406</v>
-      </c>
-      <c r="K5" t="s">
-        <v>407</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10">
-      <c r="D6" t="s">
-        <v>409</v>
-      </c>
-      <c r="J6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10">
-      <c r="D7" t="s">
-        <v>411</v>
-      </c>
-      <c r="J7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10">
-      <c r="C8" t="s">
-        <v>413</v>
-      </c>
-      <c r="D8" t="s">
-        <v>414</v>
-      </c>
-      <c r="J8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C10" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" t="s">
-        <v>419</v>
-      </c>
-      <c r="D11" t="s">
-        <v>420</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="C12" t="s">
-        <v>422</v>
-      </c>
-      <c r="D12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" t="s">
-        <v>425</v>
-      </c>
-      <c r="J15" t="s">
-        <v>426</v>
-      </c>
-      <c r="K15" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="16" spans="11:11">
-      <c r="K16" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" t="s">
-        <v>429</v>
-      </c>
-      <c r="D17" t="s">
-        <v>430</v>
-      </c>
-      <c r="K17" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="18" spans="11:11">
-      <c r="K18" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
-        <v>433</v>
-      </c>
-      <c r="C19" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
-        <v>417</v>
-      </c>
-      <c r="C21" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12">
-      <c r="C22" t="s">
-        <v>437</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="24" spans="7:8">
-      <c r="G24" t="s">
-        <v>440</v>
-      </c>
-      <c r="H24" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="25" spans="7:8">
-      <c r="G25" t="s">
-        <v>442</v>
-      </c>
-      <c r="H25" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="29" ht="15.6" spans="1:4">
-      <c r="A29" t="s">
-        <v>340</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="D29" t="s">
-        <v>444</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4207,32 +4200,216 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A3:E7"/>
+  <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="5:5">
-      <c r="E3" s="8" t="s">
+    <row r="2" spans="14:14">
+      <c r="N2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>292</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" t="s">
+        <v>427</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14">
+      <c r="C5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" t="s">
+        <v>430</v>
+      </c>
+      <c r="J5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K5" t="s">
+        <v>432</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10">
+      <c r="D6" t="s">
+        <v>434</v>
+      </c>
+      <c r="J6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10">
+      <c r="D7" t="s">
+        <v>436</v>
+      </c>
+      <c r="J7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D8" t="s">
+        <v>439</v>
+      </c>
+      <c r="J8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D11" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="E11" s="8" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
+      <c r="D12" t="s">
         <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" t="s">
+        <v>450</v>
+      </c>
+      <c r="J15" t="s">
+        <v>451</v>
+      </c>
+      <c r="K15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="11:11">
+      <c r="K16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" t="s">
+        <v>454</v>
+      </c>
+      <c r="D17" t="s">
+        <v>455</v>
+      </c>
+      <c r="K17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11">
+      <c r="K18" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>458</v>
+      </c>
+      <c r="C19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" t="s">
+        <v>462</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8">
+      <c r="G24" t="s">
+        <v>465</v>
+      </c>
+      <c r="H24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8">
+      <c r="G25" t="s">
+        <v>467</v>
+      </c>
+      <c r="H25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" spans="1:4">
+      <c r="A29" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D29" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -4245,19 +4422,57 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A3:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="3" spans="5:5">
+      <c r="E3" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:N166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="30.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="30.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="2:2">
+    <row r="1" ht="14.25" spans="2:2">
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="2:2">
@@ -4299,7 +4514,7 @@
     <row r="70" spans="2:2">
       <c r="B70" s="1"/>
     </row>
-    <row r="100" ht="17.4" spans="14:14">
+    <row r="100" ht="17.25" spans="14:14">
       <c r="N100" s="6"/>
     </row>
     <row r="113" spans="9:9">
@@ -4317,684 +4532,12 @@
     <row r="139" spans="2:2">
       <c r="B139" s="1"/>
     </row>
-    <row r="164" spans="3:4">
+    <row r="164" ht="14.25" spans="3:4">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
     </row>
     <row r="166" spans="7:7">
       <c r="G166" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:N84"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2" spans="9:9">
-      <c r="I2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" t="s">
-        <v>453</v>
-      </c>
-      <c r="I4" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C6" t="s">
-        <v>455</v>
-      </c>
-      <c r="J6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>459</v>
-      </c>
-      <c r="B9" t="s">
-        <v>460</v>
-      </c>
-      <c r="I9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="10" spans="9:10">
-      <c r="I10" t="s">
-        <v>462</v>
-      </c>
-      <c r="J10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="11" spans="9:11">
-      <c r="I11" t="s">
-        <v>463</v>
-      </c>
-      <c r="J11" t="s">
-        <v>464</v>
-      </c>
-      <c r="K11" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>466</v>
-      </c>
-      <c r="B13" t="s">
-        <v>467</v>
-      </c>
-      <c r="C13" t="s">
-        <v>468</v>
-      </c>
-      <c r="I13" t="s">
-        <v>469</v>
-      </c>
-      <c r="J13" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="14" spans="9:9">
-      <c r="I14" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" t="s">
-        <v>472</v>
-      </c>
-      <c r="C15" t="s">
-        <v>473</v>
-      </c>
-      <c r="I15" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" t="s">
-        <v>478</v>
-      </c>
-      <c r="D20" t="s">
-        <v>479</v>
-      </c>
-      <c r="E20" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>483</v>
-      </c>
-      <c r="B25" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" t="s">
-        <v>486</v>
-      </c>
-      <c r="C27" t="s">
-        <v>487</v>
-      </c>
-      <c r="D27" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" t="s">
-        <v>489</v>
-      </c>
-      <c r="C28" t="s">
-        <v>490</v>
-      </c>
-      <c r="D28" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" t="s">
-        <v>492</v>
-      </c>
-      <c r="D29" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" t="s">
-        <v>494</v>
-      </c>
-      <c r="D30" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" t="s">
-        <v>496</v>
-      </c>
-      <c r="C31" t="s">
-        <v>497</v>
-      </c>
-      <c r="D31" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
-      <c r="C32" t="s">
-        <v>499</v>
-      </c>
-      <c r="D32" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" t="s">
-        <v>501</v>
-      </c>
-      <c r="E33" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="s">
-        <v>505</v>
-      </c>
-      <c r="B46" t="s">
-        <v>506</v>
-      </c>
-      <c r="C46" t="s">
-        <v>494</v>
-      </c>
-      <c r="D46" t="s">
-        <v>507</v>
-      </c>
-      <c r="E46" t="s">
-        <v>508</v>
-      </c>
-      <c r="F46" t="s">
-        <v>509</v>
-      </c>
-      <c r="G46" t="s">
-        <v>510</v>
-      </c>
-      <c r="H46" t="s">
-        <v>511</v>
-      </c>
-      <c r="J46" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" t="s">
-        <v>513</v>
-      </c>
-      <c r="F47" t="s">
-        <v>514</v>
-      </c>
-      <c r="K47" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" t="s">
-        <v>516</v>
-      </c>
-      <c r="C48" t="s">
-        <v>517</v>
-      </c>
-      <c r="G48" t="s">
-        <v>503</v>
-      </c>
-      <c r="K48" t="s">
-        <v>518</v>
-      </c>
-      <c r="L48" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11">
-      <c r="C49" t="s">
-        <v>520</v>
-      </c>
-      <c r="G49" t="s">
-        <v>521</v>
-      </c>
-      <c r="K49" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12">
-      <c r="B50" t="s">
-        <v>523</v>
-      </c>
-      <c r="G50" t="s">
-        <v>524</v>
-      </c>
-      <c r="K50" t="s">
-        <v>525</v>
-      </c>
-      <c r="L50" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" t="s">
-        <v>527</v>
-      </c>
-      <c r="G51" t="s">
-        <v>528</v>
-      </c>
-      <c r="K51" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="52" spans="7:11">
-      <c r="G52" t="s">
-        <v>530</v>
-      </c>
-      <c r="K52" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13">
-      <c r="C53" t="s">
-        <v>532</v>
-      </c>
-      <c r="G53" t="s">
-        <v>533</v>
-      </c>
-      <c r="K53" t="s">
-        <v>534</v>
-      </c>
-      <c r="L53" t="s">
-        <v>535</v>
-      </c>
-      <c r="M53" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="54" spans="7:11">
-      <c r="G54" t="s">
-        <v>537</v>
-      </c>
-      <c r="K54" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11">
-      <c r="C55" t="s">
-        <v>539</v>
-      </c>
-      <c r="D55" t="s">
-        <v>540</v>
-      </c>
-      <c r="G55" t="s">
-        <v>541</v>
-      </c>
-      <c r="K55" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="56" spans="3:11">
-      <c r="C56" t="s">
-        <v>543</v>
-      </c>
-      <c r="G56" t="s">
-        <v>544</v>
-      </c>
-      <c r="K56" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="57" spans="3:11">
-      <c r="C57" t="s">
-        <v>546</v>
-      </c>
-      <c r="G57" t="s">
-        <v>547</v>
-      </c>
-      <c r="K57" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" t="s">
-        <v>549</v>
-      </c>
-      <c r="C58" t="s">
-        <v>550</v>
-      </c>
-      <c r="G58" t="s">
-        <v>551</v>
-      </c>
-      <c r="K58" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14">
-      <c r="B59" t="s">
-        <v>553</v>
-      </c>
-      <c r="C59" t="s">
-        <v>554</v>
-      </c>
-      <c r="G59" t="s">
-        <v>555</v>
-      </c>
-      <c r="K59" t="s">
-        <v>556</v>
-      </c>
-      <c r="L59" t="s">
-        <v>557</v>
-      </c>
-      <c r="M59" t="s">
-        <v>558</v>
-      </c>
-      <c r="N59" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14">
-      <c r="B60" t="s">
-        <v>560</v>
-      </c>
-      <c r="G60" t="s">
-        <v>561</v>
-      </c>
-      <c r="L60" t="s">
-        <v>562</v>
-      </c>
-      <c r="M60" t="s">
-        <v>563</v>
-      </c>
-      <c r="N60" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12">
-      <c r="B61" t="s">
-        <v>565</v>
-      </c>
-      <c r="G61" t="s">
-        <v>566</v>
-      </c>
-      <c r="K61" t="s">
-        <v>567</v>
-      </c>
-      <c r="L61" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>569</v>
-      </c>
-      <c r="B62" t="s">
-        <v>570</v>
-      </c>
-      <c r="C62" t="s">
-        <v>571</v>
-      </c>
-      <c r="D62" t="s">
-        <v>363</v>
-      </c>
-      <c r="E62" t="s">
-        <v>572</v>
-      </c>
-      <c r="F62" t="s">
-        <v>573</v>
-      </c>
-      <c r="G62" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11">
-      <c r="C63" t="s">
-        <v>575</v>
-      </c>
-      <c r="D63" t="s">
-        <v>576</v>
-      </c>
-      <c r="G63" t="s">
-        <v>577</v>
-      </c>
-      <c r="K63" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
-        <v>579</v>
-      </c>
-      <c r="B64" t="s">
-        <v>580</v>
-      </c>
-      <c r="C64" t="s">
-        <v>581</v>
-      </c>
-      <c r="G64" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14">
-      <c r="B65" t="s">
-        <v>583</v>
-      </c>
-      <c r="C65" t="s">
-        <v>584</v>
-      </c>
-      <c r="G65" t="s">
-        <v>585</v>
-      </c>
-      <c r="K65" t="s">
-        <v>586</v>
-      </c>
-      <c r="L65" t="s">
-        <v>587</v>
-      </c>
-      <c r="M65" t="s">
-        <v>588</v>
-      </c>
-      <c r="N65" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="B66" t="s">
-        <v>590</v>
-      </c>
-      <c r="C66" t="s">
-        <v>591</v>
-      </c>
-      <c r="K66" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" t="s">
-        <v>593</v>
-      </c>
-      <c r="C67" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11">
-      <c r="B68" t="s">
-        <v>595</v>
-      </c>
-      <c r="K68" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11">
-      <c r="B69" t="s">
-        <v>597</v>
-      </c>
-      <c r="K69" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="70" spans="3:11">
-      <c r="C70" t="s">
-        <v>599</v>
-      </c>
-      <c r="K70" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" t="s">
-        <v>602</v>
-      </c>
-      <c r="C72" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" t="s">
-        <v>604</v>
-      </c>
-      <c r="C73" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="B76" t="s">
-        <v>608</v>
-      </c>
-      <c r="C76" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2"/>
-      <c r="C77" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3">
-      <c r="C79" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84" t="s">
-        <v>614</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5006,367 +4549,666 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="2" spans="9:9">
+      <c r="I2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>478</v>
+      </c>
+      <c r="I4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" t="s">
+        <v>480</v>
+      </c>
+      <c r="J6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B9" t="s">
+        <v>485</v>
+      </c>
+      <c r="I9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="9:10">
+      <c r="I10" t="s">
+        <v>487</v>
+      </c>
+      <c r="J10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="9:11">
+      <c r="I11" t="s">
+        <v>488</v>
+      </c>
+      <c r="J11" t="s">
+        <v>489</v>
+      </c>
+      <c r="K11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>491</v>
+      </c>
+      <c r="B13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C13" t="s">
+        <v>493</v>
+      </c>
+      <c r="I13" t="s">
+        <v>494</v>
+      </c>
+      <c r="J13" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="14" spans="9:9">
+      <c r="I14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" t="s">
+        <v>497</v>
+      </c>
+      <c r="C15" t="s">
+        <v>498</v>
+      </c>
+      <c r="I15" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" t="s">
+        <v>503</v>
+      </c>
+      <c r="D20" t="s">
+        <v>504</v>
+      </c>
+      <c r="E20" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>508</v>
+      </c>
+      <c r="B25" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>511</v>
+      </c>
+      <c r="C27" t="s">
+        <v>512</v>
+      </c>
+      <c r="D27" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>514</v>
+      </c>
+      <c r="C28" t="s">
+        <v>515</v>
+      </c>
+      <c r="D28" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
+        <v>517</v>
+      </c>
+      <c r="D29" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>519</v>
+      </c>
+      <c r="D30" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>521</v>
+      </c>
+      <c r="C31" t="s">
+        <v>522</v>
+      </c>
+      <c r="D31" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
+        <v>524</v>
+      </c>
+      <c r="D32" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" t="s">
+        <v>526</v>
+      </c>
+      <c r="E33" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>530</v>
+      </c>
+      <c r="B46" t="s">
+        <v>531</v>
+      </c>
+      <c r="C46" t="s">
+        <v>519</v>
+      </c>
+      <c r="D46" t="s">
+        <v>532</v>
+      </c>
+      <c r="E46" t="s">
+        <v>533</v>
+      </c>
+      <c r="F46" t="s">
+        <v>534</v>
+      </c>
+      <c r="G46" t="s">
+        <v>535</v>
+      </c>
+      <c r="H46" t="s">
+        <v>536</v>
+      </c>
+      <c r="J46" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" t="s">
+        <v>538</v>
+      </c>
+      <c r="F47" t="s">
+        <v>539</v>
+      </c>
+      <c r="K47" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>541</v>
+      </c>
+      <c r="C48" t="s">
+        <v>542</v>
+      </c>
+      <c r="G48" t="s">
+        <v>528</v>
+      </c>
+      <c r="K48" t="s">
+        <v>543</v>
+      </c>
+      <c r="L48" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11">
+      <c r="C49" t="s">
+        <v>545</v>
+      </c>
+      <c r="G49" t="s">
+        <v>546</v>
+      </c>
+      <c r="K49" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" t="s">
+        <v>548</v>
+      </c>
+      <c r="G50" t="s">
+        <v>549</v>
+      </c>
+      <c r="K50" t="s">
+        <v>550</v>
+      </c>
+      <c r="L50" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" t="s">
+        <v>552</v>
+      </c>
+      <c r="G51" t="s">
+        <v>553</v>
+      </c>
+      <c r="K51" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="52" spans="7:11">
+      <c r="G52" t="s">
+        <v>555</v>
+      </c>
+      <c r="K52" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13">
+      <c r="C53" t="s">
+        <v>557</v>
+      </c>
+      <c r="G53" t="s">
+        <v>558</v>
+      </c>
+      <c r="K53" t="s">
+        <v>559</v>
+      </c>
+      <c r="L53" t="s">
+        <v>560</v>
+      </c>
+      <c r="M53" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="54" spans="7:11">
+      <c r="G54" t="s">
+        <v>562</v>
+      </c>
+      <c r="K54" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11">
+      <c r="C55" t="s">
+        <v>564</v>
+      </c>
+      <c r="D55" t="s">
+        <v>565</v>
+      </c>
+      <c r="G55" t="s">
+        <v>566</v>
+      </c>
+      <c r="K55" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11">
+      <c r="C56" t="s">
+        <v>568</v>
+      </c>
+      <c r="G56" t="s">
+        <v>569</v>
+      </c>
+      <c r="K56" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11">
+      <c r="C57" t="s">
+        <v>571</v>
+      </c>
+      <c r="G57" t="s">
+        <v>572</v>
+      </c>
+      <c r="K57" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" t="s">
+        <v>574</v>
+      </c>
+      <c r="C58" t="s">
+        <v>575</v>
+      </c>
+      <c r="G58" t="s">
+        <v>576</v>
+      </c>
+      <c r="K58" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" t="s">
+        <v>578</v>
+      </c>
+      <c r="C59" t="s">
+        <v>579</v>
+      </c>
+      <c r="G59" t="s">
+        <v>580</v>
+      </c>
+      <c r="K59" t="s">
+        <v>581</v>
+      </c>
+      <c r="L59" t="s">
+        <v>582</v>
+      </c>
+      <c r="M59" t="s">
+        <v>583</v>
+      </c>
+      <c r="N59" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" t="s">
+        <v>585</v>
+      </c>
+      <c r="G60" t="s">
+        <v>586</v>
+      </c>
+      <c r="L60" t="s">
+        <v>587</v>
+      </c>
+      <c r="M60" t="s">
+        <v>588</v>
+      </c>
+      <c r="N60" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" t="s">
+        <v>590</v>
+      </c>
+      <c r="G61" t="s">
+        <v>591</v>
+      </c>
+      <c r="K61" t="s">
+        <v>592</v>
+      </c>
+      <c r="L61" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>594</v>
+      </c>
+      <c r="B62" t="s">
+        <v>595</v>
+      </c>
+      <c r="C62" t="s">
+        <v>596</v>
+      </c>
+      <c r="D62" t="s">
+        <v>388</v>
+      </c>
+      <c r="E62" t="s">
+        <v>597</v>
+      </c>
+      <c r="F62" t="s">
+        <v>598</v>
+      </c>
+      <c r="G62" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11">
+      <c r="C63" t="s">
+        <v>600</v>
+      </c>
+      <c r="D63" t="s">
+        <v>601</v>
+      </c>
+      <c r="G63" t="s">
+        <v>602</v>
+      </c>
+      <c r="K63" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>604</v>
+      </c>
+      <c r="B64" t="s">
+        <v>605</v>
+      </c>
+      <c r="C64" t="s">
+        <v>606</v>
+      </c>
+      <c r="G64" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" t="s">
+        <v>608</v>
+      </c>
+      <c r="C65" t="s">
+        <v>609</v>
+      </c>
+      <c r="G65" t="s">
+        <v>610</v>
+      </c>
+      <c r="K65" t="s">
+        <v>611</v>
+      </c>
+      <c r="L65" t="s">
+        <v>612</v>
+      </c>
+      <c r="M65" t="s">
+        <v>613</v>
+      </c>
+      <c r="N65" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" t="s">
         <v>615</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C66" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="K66" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C67" t="s">
         <v>619</v>
       </c>
-      <c r="B4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
+      <c r="K68" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="69" spans="2:11">
+      <c r="B69" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="K69" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="9" spans="16:19">
-      <c r="P9" t="s">
+    <row r="70" spans="3:11">
+      <c r="C70" t="s">
         <v>624</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="K70" t="s">
         <v>625</v>
       </c>
-      <c r="R9" t="s">
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" t="s">
         <v>626</v>
       </c>
-      <c r="S9" t="s">
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="10" spans="11:19">
-      <c r="K10" t="s">
+      <c r="C72" t="s">
         <v>628</v>
       </c>
-      <c r="L10" t="s">
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
         <v>629</v>
       </c>
-      <c r="M10" t="s">
+      <c r="C73" t="s">
         <v>630</v>
       </c>
-      <c r="P10" t="s">
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
         <v>631</v>
       </c>
-      <c r="Q10" t="s">
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
         <v>632</v>
       </c>
-      <c r="S10" t="s">
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" t="s">
+      <c r="C76" t="s">
         <v>634</v>
       </c>
-      <c r="L11" t="s">
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2"/>
+      <c r="C77" t="s">
         <v>635</v>
       </c>
-      <c r="M11" t="s">
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="12" spans="12:14">
-      <c r="L12" t="s">
-        <v>618</v>
-      </c>
-      <c r="M12" t="s">
+    <row r="80" spans="3:3">
+      <c r="C80" t="s">
         <v>637</v>
       </c>
-      <c r="N12" t="s">
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="13" spans="13:15">
-      <c r="M13" t="s">
+    <row r="84" spans="3:3">
+      <c r="C84" t="s">
         <v>639</v>
-      </c>
-      <c r="N13" t="s">
-        <v>640</v>
-      </c>
-      <c r="O13" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="14" spans="15:15">
-      <c r="O14" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>643</v>
-      </c>
-      <c r="B15" t="s">
-        <v>644</v>
-      </c>
-      <c r="L15" t="s">
-        <v>645</v>
-      </c>
-      <c r="N15" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>647</v>
-      </c>
-      <c r="B16" t="s">
-        <v>647</v>
-      </c>
-      <c r="C16" t="s">
-        <v>648</v>
-      </c>
-      <c r="N16" t="s">
-        <v>649</v>
-      </c>
-      <c r="P16" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>652</v>
-      </c>
-      <c r="K18" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" t="s">
-        <v>654</v>
-      </c>
-      <c r="P21" t="s">
-        <v>655</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="28" spans="6:6">
-      <c r="F28" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7">
-      <c r="F29" t="s">
-        <v>661</v>
-      </c>
-      <c r="G29" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="30" spans="6:6">
-      <c r="F30" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="31" spans="6:6">
-      <c r="F31" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="36" spans="7:9">
-      <c r="G36" t="s">
-        <v>665</v>
-      </c>
-      <c r="I36" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="38" spans="7:7">
-      <c r="G38" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="39" spans="7:7">
-      <c r="G39" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="40" spans="10:10">
-      <c r="J40" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="41" spans="7:9">
-      <c r="G41" t="s">
-        <v>670</v>
-      </c>
-      <c r="H41" t="s">
-        <v>671</v>
-      </c>
-      <c r="I41" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="42" spans="9:9">
-      <c r="I42" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="43" spans="9:9">
-      <c r="I43" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="44" spans="8:9">
-      <c r="H44" t="s">
-        <v>675</v>
-      </c>
-      <c r="I44" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="45" spans="9:9">
-      <c r="I45" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="46" spans="9:9">
-      <c r="I46" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="47" spans="7:7">
-      <c r="G47" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="48" spans="7:8">
-      <c r="G48" t="s">
-        <v>680</v>
-      </c>
-      <c r="H48" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="49" spans="8:8">
-      <c r="H49" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>683</v>
-      </c>
-      <c r="B50" t="s">
-        <v>684</v>
-      </c>
-      <c r="G50" t="s">
-        <v>685</v>
-      </c>
-      <c r="H50" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>688</v>
-      </c>
-      <c r="B53" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="54" spans="6:6">
-      <c r="F54" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="56" spans="6:8">
-      <c r="F56" t="s">
-        <v>691</v>
-      </c>
-      <c r="G56" t="s">
-        <v>692</v>
-      </c>
-      <c r="H56" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="57" spans="7:7">
-      <c r="G57" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="C61" t="s">
-        <v>617</v>
-      </c>
-      <c r="D61" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4">
-      <c r="D62" t="s">
-        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -5379,22 +5221,395 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:S62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>644</v>
+      </c>
+      <c r="B4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="9" spans="16:19">
+      <c r="P9" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>650</v>
+      </c>
+      <c r="R9" t="s">
+        <v>651</v>
+      </c>
+      <c r="S9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="10" spans="11:19">
+      <c r="K10" t="s">
+        <v>653</v>
+      </c>
+      <c r="L10" t="s">
+        <v>654</v>
+      </c>
+      <c r="M10" t="s">
+        <v>655</v>
+      </c>
+      <c r="P10" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>657</v>
+      </c>
+      <c r="S10" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" t="s">
+        <v>659</v>
+      </c>
+      <c r="L11" t="s">
+        <v>660</v>
+      </c>
+      <c r="M11" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="12" spans="12:14">
+      <c r="L12" t="s">
+        <v>643</v>
+      </c>
+      <c r="M12" t="s">
+        <v>662</v>
+      </c>
+      <c r="N12" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="13" spans="13:15">
+      <c r="M13" t="s">
+        <v>664</v>
+      </c>
+      <c r="N13" t="s">
+        <v>665</v>
+      </c>
+      <c r="O13" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="14" spans="15:15">
+      <c r="O14" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B15" t="s">
+        <v>669</v>
+      </c>
+      <c r="L15" t="s">
+        <v>670</v>
+      </c>
+      <c r="N15" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>672</v>
+      </c>
+      <c r="B16" t="s">
+        <v>672</v>
+      </c>
+      <c r="C16" t="s">
+        <v>673</v>
+      </c>
+      <c r="N16" t="s">
+        <v>674</v>
+      </c>
+      <c r="P16" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>677</v>
+      </c>
+      <c r="K18" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>679</v>
+      </c>
+      <c r="P21" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7">
+      <c r="F29" t="s">
+        <v>686</v>
+      </c>
+      <c r="G29" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9">
+      <c r="G36" t="s">
+        <v>690</v>
+      </c>
+      <c r="I36" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="40" spans="10:10">
+      <c r="J40" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9">
+      <c r="G41" t="s">
+        <v>695</v>
+      </c>
+      <c r="H41" t="s">
+        <v>696</v>
+      </c>
+      <c r="I41" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9">
+      <c r="I43" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9">
+      <c r="H44" t="s">
+        <v>700</v>
+      </c>
+      <c r="I44" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7">
+      <c r="G47" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8">
+      <c r="G48" t="s">
+        <v>705</v>
+      </c>
+      <c r="H48" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>708</v>
+      </c>
+      <c r="B50" t="s">
+        <v>709</v>
+      </c>
+      <c r="G50" t="s">
+        <v>710</v>
+      </c>
+      <c r="H50" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>713</v>
+      </c>
+      <c r="B53" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8">
+      <c r="F56" t="s">
+        <v>716</v>
+      </c>
+      <c r="G56" t="s">
+        <v>717</v>
+      </c>
+      <c r="H56" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="57" spans="7:7">
+      <c r="G57" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" t="s">
+        <v>642</v>
+      </c>
+      <c r="D61" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" t="s">
+        <v>721</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>697</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -5407,495 +5622,124 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O63"/>
+  <dimension ref="A2:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52:H56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="23.3796296296296" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="2" spans="4:4">
+      <c r="D2" t="s">
         <v>114</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>115</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="5" spans="4:5">
+      <c r="D5" t="s">
         <v>116</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E5" t="s">
         <v>117</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="6" spans="5:10">
+      <c r="E6" t="s">
         <v>118</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="2:9">
-      <c r="B2" t="s">
+      <c r="J6" t="s">
         <v>120</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="9" spans="9:9">
+      <c r="I9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
-      <c r="B4" t="s">
+    <row r="11" spans="6:12">
+      <c r="F11" t="s">
         <v>123</v>
       </c>
-      <c r="M4" t="s">
+      <c r="G11" t="s">
         <v>124</v>
       </c>
-      <c r="N4" t="s">
+      <c r="L11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
+      <c r="C15" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="D15" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" t="s">
+      <c r="F15" t="s">
         <v>129</v>
       </c>
-      <c r="C7" t="s">
+      <c r="I15" t="s">
         <v>130</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J15" t="s">
         <v>131</v>
       </c>
-      <c r="J7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10">
-      <c r="C8" t="s">
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
         <v>132</v>
       </c>
-      <c r="J8" t="s">
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
-      <c r="C9" t="s">
+    <row r="18" spans="8:12">
+      <c r="H18" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" t="s">
+      <c r="I18" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="12" spans="7:11">
-      <c r="G12" t="s">
+      <c r="J18" t="s">
         <v>136</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+    <row r="20" spans="5:5">
+      <c r="E20" t="s">
         <v>138</v>
       </c>
-      <c r="H13" t="s">
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="8:8">
-      <c r="H14" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="8:8">
-      <c r="H15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17" t="s">
-        <v>147</v>
-      </c>
-      <c r="J17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" t="s">
-        <v>149</v>
-      </c>
-      <c r="J18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" t="s">
-        <v>151</v>
-      </c>
-      <c r="J19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="10:10">
-      <c r="J20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="10:10">
-      <c r="J21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" ht="15.6" spans="12:15">
-      <c r="L24" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" ht="15.6" spans="8:15">
-      <c r="H25" t="s">
-        <v>160</v>
-      </c>
-      <c r="I25" t="s">
-        <v>161</v>
-      </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" ht="15.6" spans="12:14">
-      <c r="L26" s="11"/>
-      <c r="M26" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="N26" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" ht="15.6" spans="1:14">
-      <c r="A27" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" t="s">
-        <v>166</v>
-      </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" t="s">
-        <v>169</v>
-      </c>
-      <c r="M28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>173</v>
-      </c>
-      <c r="J32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" ht="34.8" spans="11:15">
-      <c r="K33" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-    </row>
-    <row r="34" ht="34.8" spans="11:15">
-      <c r="K34" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-    </row>
-    <row r="35" ht="34.8" spans="11:15">
-      <c r="K35" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-    </row>
-    <row r="36" ht="52.2" spans="11:15">
-      <c r="K36" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-    </row>
-    <row r="37" ht="121.8" spans="11:15">
-      <c r="K37" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="L37" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-    </row>
-    <row r="38" ht="17.4" spans="4:11">
-      <c r="D38" t="s">
-        <v>181</v>
-      </c>
-      <c r="K38" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="4:11">
-      <c r="D39" t="s">
-        <v>183</v>
-      </c>
-      <c r="J39" t="s">
-        <v>184</v>
-      </c>
-      <c r="K39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="4:11">
-      <c r="D40" t="s">
-        <v>186</v>
-      </c>
-      <c r="E40" t="s">
-        <v>187</v>
-      </c>
-      <c r="K40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="5:11">
-      <c r="E41" t="s">
-        <v>189</v>
-      </c>
-      <c r="K41" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="5:11">
-      <c r="E42" t="s">
-        <v>191</v>
-      </c>
-      <c r="K42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="5:5">
-      <c r="E43" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6">
-      <c r="E44" t="s">
-        <v>194</v>
-      </c>
-      <c r="F44" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5">
-      <c r="D45" t="s">
-        <v>196</v>
-      </c>
-      <c r="E45" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="11:11">
-      <c r="K46" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="47" ht="34.8" spans="8:11">
-      <c r="H47" t="s">
-        <v>199</v>
-      </c>
-      <c r="K47" s="31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" ht="46.2" spans="11:11">
-      <c r="K48" s="31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" ht="58.2" spans="11:11">
-      <c r="K49" s="31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" ht="28.8" spans="1:4">
-      <c r="A50" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-    </row>
-    <row r="51" ht="57.6" spans="1:4">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-    </row>
-    <row r="54" ht="43.2" spans="1:4">
-      <c r="A54" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>208</v>
-      </c>
-      <c r="B62" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5908,157 +5752,495 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A4:N40"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52:H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="23.3833333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:11">
-      <c r="A4" s="20" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M4" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="7:11">
+      <c r="G12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8">
+      <c r="H14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8">
+      <c r="H15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="12:15">
+      <c r="L24" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="8:15">
+      <c r="H25" t="s">
+        <v>187</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="12:14">
+      <c r="L26" s="11"/>
+      <c r="M26" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:14">
+      <c r="A27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" t="s">
+        <v>196</v>
+      </c>
+      <c r="M28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>200</v>
+      </c>
+      <c r="J32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" ht="36" spans="11:15">
+      <c r="K33" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+    </row>
+    <row r="34" ht="36" spans="11:15">
+      <c r="K34" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+    </row>
+    <row r="35" ht="36" spans="11:15">
+      <c r="K35" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+    </row>
+    <row r="36" ht="36" spans="11:15">
+      <c r="K36" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+    </row>
+    <row r="37" ht="120.75" spans="11:15">
+      <c r="K37" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="L37" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+    </row>
+    <row r="38" ht="17.25" spans="4:11">
+      <c r="D38" t="s">
+        <v>208</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11">
+      <c r="D39" t="s">
+        <v>210</v>
+      </c>
+      <c r="J39" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K39" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="11:11">
-      <c r="K6" s="20" t="s">
+    <row r="40" spans="4:11">
+      <c r="D40" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="20" t="s">
+      <c r="E40" t="s">
         <v>214</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="K40" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="20" t="s">
+    <row r="41" spans="5:11">
+      <c r="E41" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="20" t="s">
+      <c r="K41" t="s">
         <v>217</v>
       </c>
-      <c r="K9" t="s">
+    </row>
+    <row r="42" spans="5:11">
+      <c r="E42" t="s">
         <v>218</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="K42" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="7:11">
-      <c r="G13" s="20" t="s">
+    <row r="43" spans="5:5">
+      <c r="E43" t="s">
         <v>220</v>
       </c>
-      <c r="K13" s="24" t="s">
+    </row>
+    <row r="44" spans="5:6">
+      <c r="E44" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="14" spans="7:7">
-      <c r="G14" s="20" t="s">
+      <c r="F44" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="7:7">
-      <c r="G15" s="20" t="s">
+    <row r="45" spans="4:5">
+      <c r="D45" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="17" ht="16.8" spans="3:3">
-      <c r="C17" s="21" t="s">
+      <c r="E45" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="18" ht="17.4" spans="3:12">
-      <c r="C18" s="14" t="s">
+    <row r="46" spans="11:11">
+      <c r="K46" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="L18" t="s">
+    </row>
+    <row r="47" ht="36.75" spans="8:11">
+      <c r="H47" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="19" ht="16.8" spans="3:13">
-      <c r="C19" s="21" t="s">
+      <c r="K47" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="H19" s="22" t="s">
+    </row>
+    <row r="48" ht="48.75" spans="11:11">
+      <c r="K48" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="M19" s="22" t="s">
+    </row>
+    <row r="49" ht="61.5" spans="11:11">
+      <c r="K49" s="31" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="23" t="s">
+    <row r="50" ht="27" spans="1:4">
+      <c r="A50" s="28" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="21" ht="16.8" spans="3:3">
-      <c r="C21" s="21" t="s">
+      <c r="B50" s="28" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="23" spans="14:14">
-      <c r="N23" t="s">
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+    </row>
+    <row r="51" ht="54" spans="1:4">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="24" spans="14:14">
-      <c r="N24" t="s">
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+    </row>
+    <row r="54" ht="40.5" spans="1:4">
+      <c r="A54" s="28" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="25" ht="16.8" spans="7:7">
-      <c r="G25" s="22" t="s">
+      <c r="B54" s="28" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="26" ht="16.8" spans="7:7">
-      <c r="G26" s="22" t="s">
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="24" t="s">
+      <c r="B62" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="10:10">
-      <c r="J31" t="s">
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10">
-      <c r="C32" t="s">
-        <v>238</v>
-      </c>
-      <c r="D32" t="s">
-        <v>239</v>
-      </c>
-      <c r="J32" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="39" ht="17.4" spans="3:3">
-      <c r="C39" s="25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="40" ht="17.4" spans="3:3">
-      <c r="C40" s="25" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -6071,67 +6253,157 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B4:C16"/>
+  <dimension ref="A4:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
-  <cols>
-    <col min="2" max="2" width="32.1111111111111" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="11:11">
+      <c r="K6" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="C4" t="s">
+      <c r="K9" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
+      <c r="L9" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="13" spans="7:11">
+      <c r="G13" s="20" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" t="s">
+      <c r="K13" s="24" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
+    <row r="14" spans="7:7">
+      <c r="G14" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15" s="20" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
+    <row r="17" ht="15.75" spans="3:3">
+      <c r="C17" s="21" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
+    <row r="18" ht="17.25" spans="3:12">
+      <c r="C18" s="14" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" t="s">
+      <c r="L18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="3:13">
+      <c r="C19" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C14" t="s">
+      <c r="H19" s="22" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
+      <c r="M19" s="22" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="3:3">
+      <c r="C21" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="14:14">
+      <c r="N23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="14:14">
+      <c r="N24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="7:7">
+      <c r="G25" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="7:7">
+      <c r="G26" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="10:10">
+      <c r="J31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32" t="s">
+        <v>265</v>
+      </c>
+      <c r="J32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" ht="18" spans="3:3">
+      <c r="C39" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" spans="3:3">
+      <c r="C40" s="25" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -6144,102 +6416,62 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A5:E18"/>
+  <dimension ref="B4:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="H2:N8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="32.1083333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="4:4">
-      <c r="D5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5">
-      <c r="D7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4">
-      <c r="D10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D11" t="s">
-        <v>258</v>
-      </c>
-      <c r="E11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5">
-      <c r="D12" t="s">
-        <v>263</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5">
-      <c r="D13" t="s">
-        <v>264</v>
-      </c>
-      <c r="E13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5">
-      <c r="D16" t="s">
-        <v>258</v>
-      </c>
-      <c r="E16">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" t="s">
-        <v>263</v>
-      </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -6252,14 +6484,105 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A5:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="N8" sqref="H2:N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="5" spans="4:4">
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" t="s">
+        <v>283</v>
+      </c>
+      <c r="E16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" t="s">
+        <v>289</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -6272,10 +6595,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6286,23 +6609,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
-  <cols>
-    <col min="1" max="1" width="62.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" ht="69.6" spans="1:1">
-      <c r="A3" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -6312,133 +6626,20 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:J44"/>
+  <dimension ref="A3"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="8" max="8" width="49.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="8:8">
-      <c r="H31" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="8:8">
-      <c r="H32" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33">
-        <v>2015</v>
-      </c>
-      <c r="D33" t="s">
-        <v>277</v>
-      </c>
-      <c r="G33" t="s">
-        <v>278</v>
-      </c>
-      <c r="H33" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8">
-      <c r="H34" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="8:10">
-      <c r="H37" t="s">
-        <v>258</v>
-      </c>
-      <c r="J37" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="40" spans="8:10">
-      <c r="H40" t="s">
-        <v>282</v>
-      </c>
-      <c r="J40" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="8:8">
-      <c r="H41" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="44" spans="10:10">
-      <c r="J44" t="s">
-        <v>285</v>
+    <row r="3" ht="72" spans="1:1">
+      <c r="A3" s="19" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/boxsite/idea.xlsx
+++ b/boxsite/idea.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726">
   <si>
     <t>需求</t>
   </si>
@@ -386,6 +386,9 @@
     <t>考试，考题</t>
   </si>
   <si>
+    <t>会付费的类别</t>
+  </si>
+  <si>
     <t>精选付费会员</t>
   </si>
   <si>
@@ -395,12 +398,12 @@
     <t>内地考试</t>
   </si>
   <si>
+    <t>炒股/理财</t>
+  </si>
+  <si>
     <t>工具</t>
   </si>
   <si>
-    <t>炒股/理财</t>
-  </si>
-  <si>
     <t>外国人考中国驾照</t>
   </si>
   <si>
@@ -452,7 +455,13 @@
     <t>收集和整理文章</t>
   </si>
   <si>
+    <t>研究appstore</t>
+  </si>
+  <si>
     <t>了解痛点</t>
+  </si>
+  <si>
+    <t>国内应用搬到国外???</t>
   </si>
   <si>
     <t>创业网站</t>
@@ -2241,10 +2250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3391,30 +3400,30 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -3439,12 +3448,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -3454,12 +3463,12 @@
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -3467,44 +3476,44 @@
         <v>2015</v>
       </c>
       <c r="D33" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G33" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H33" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="8:10">
       <c r="H37" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J37" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J40" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3534,46 +3543,46 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="6:7">
       <c r="F3" s="11" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:15">
       <c r="A4" s="11" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="5:16">
@@ -3581,18 +3590,18 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E6" s="11">
         <v>1.2</v>
@@ -3600,58 +3609,58 @@
     </row>
     <row r="7" s="11" customFormat="1" spans="7:7">
       <c r="G7" s="11" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="4:12">
       <c r="D8" s="11" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E8" s="12">
         <v>0.002</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="7:8">
       <c r="G9" s="11" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" spans="8:17">
       <c r="H10" s="11" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="4:4">
       <c r="D11" s="11" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" s="11" customFormat="1" ht="22.5" spans="4:14">
       <c r="D13" s="11" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="22.5" spans="1:14">
@@ -3659,56 +3668,56 @@
         <v>0.9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="7:14">
       <c r="G15" s="11" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="5:16">
       <c r="E16" s="11" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="16:16">
       <c r="P17" s="11" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" s="11" customFormat="1" spans="1:16">
       <c r="A18" s="11" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:16">
       <c r="A19" s="11" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>93</v>
@@ -3716,13 +3725,13 @@
     </row>
     <row r="20" s="11" customFormat="1" spans="1:13">
       <c r="A20" s="11" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="13:13">
@@ -3732,56 +3741,56 @@
     </row>
     <row r="22" s="11" customFormat="1" spans="9:9">
       <c r="I22" s="11" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="5:9">
       <c r="E23" s="11" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="9:9">
       <c r="I24" s="11" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="3:3">
       <c r="C27" s="11" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="4:12">
       <c r="D28" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="4:8">
       <c r="D29" s="11" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="2:19">
@@ -3790,16 +3799,16 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="M33" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="N33" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="O33" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P33" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -3811,17 +3820,17 @@
       <c r="D34"/>
       <c r="E34"/>
       <c r="I34" s="11" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -3835,20 +3844,20 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="J35" s="11" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="S35" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -3863,7 +3872,7 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="13:19">
@@ -3877,7 +3886,7 @@
     </row>
     <row r="38" spans="13:19">
       <c r="M38" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -3898,13 +3907,13 @@
     <row r="41" ht="18.75" spans="2:13">
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="J41"/>
       <c r="K41" s="16" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -3912,7 +3921,7 @@
     <row r="42" spans="2:13">
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -3924,13 +3933,13 @@
     <row r="43" ht="37.5" spans="2:13">
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="J43"/>
       <c r="K43" s="16" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -3938,7 +3947,7 @@
     <row r="44" spans="2:13">
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -3950,13 +3959,13 @@
     <row r="45" ht="37.5" spans="2:13">
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="J45"/>
       <c r="K45" s="16" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
@@ -3966,7 +3975,7 @@
     <row r="46" spans="2:13">
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -3982,13 +3991,13 @@
       <c r="E47"/>
       <c r="J47"/>
       <c r="K47" s="16" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L47" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M47" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -3996,13 +4005,13 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="10:13">
@@ -4013,153 +4022,153 @@
     </row>
     <row r="50" spans="10:13">
       <c r="J50" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K50" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51" spans="10:13">
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="10:13">
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="10:13">
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L53" t="s">
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="10:13">
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="1:1">
       <c r="A56" s="14" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" ht="13.5" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B59" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C59" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D59" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="60" ht="13.5" spans="1:6">
       <c r="A60" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B60" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C60" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D60" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E60" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F60" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" ht="13.5" spans="1:6">
       <c r="A61" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F61" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" ht="13.5" spans="1:6">
       <c r="A62" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B62" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C62" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F62"/>
     </row>
     <row r="63" ht="13.5" spans="1:6">
       <c r="A63" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B63" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F63"/>
     </row>
     <row r="64" ht="13.5" spans="1:6">
       <c r="A64" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B64" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -4176,15 +4185,15 @@
     </row>
     <row r="67" ht="17.25" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69" ht="293.25" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="2:2">
@@ -4213,107 +4222,107 @@
   <sheetData>
     <row r="2" spans="14:14">
       <c r="N2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D5" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="J5" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="K5" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="4:10">
       <c r="D6" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="J6" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="J7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D8" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="J8" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C10" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D11" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D12" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -4321,95 +4330,95 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="J15" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K15" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D17" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K17" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C19" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="8" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C21" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="H24" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H25" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:4">
       <c r="A29" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D29" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -4432,22 +4441,22 @@
   <sheetData>
     <row r="3" spans="5:5">
       <c r="E3" s="8" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -4562,653 +4571,653 @@
         <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B3" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="I4" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C6" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="J6" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B9" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="I9" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="9:10">
       <c r="I10" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J10" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="9:11">
       <c r="I11" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="J11" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K11" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B13" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C13" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="I13" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="J13" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C15" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="I15" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D20" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E20" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B25" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C27" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D27" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C28" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D28" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D29" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D30" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C31" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D31" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D32" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E33" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B46" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C46" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D46" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E46" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F46" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G46" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H46" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J46" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F47" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K47" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C48" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G48" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="K48" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="L48" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G49" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="K49" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="G50" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="K50" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="L50" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G51" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="K51" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="52" spans="7:11">
       <c r="G52" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="K52" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="53" spans="3:13">
       <c r="C53" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G53" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="K53" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="L53" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M53" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="54" spans="7:11">
       <c r="G54" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="K54" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="55" spans="3:11">
       <c r="C55" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D55" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="G55" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K55" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="56" spans="3:11">
       <c r="C56" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G56" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="K56" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="3:11">
       <c r="C57" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G57" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K57" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C58" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="G58" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="K58" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="59" spans="2:14">
       <c r="B59" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C59" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="G59" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="K59" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="L59" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="M59" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="N59" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="G60" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="L60" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="M60" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="N60" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="61" spans="2:12">
       <c r="B61" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="G61" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="K61" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="L61" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B62" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C62" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D62" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E62" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="F62" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="G62" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="63" spans="3:11">
       <c r="C63" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D63" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="G63" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="K63" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B64" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C64" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="G64" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="65" spans="2:14">
       <c r="B65" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C65" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="G65" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="K65" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="L65" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="M65" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="N65" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C66" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="K66" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C67" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="K68" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="K69" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="70" spans="3:11">
       <c r="C70" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K70" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C72" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C73" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C76" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2"/>
       <c r="C77" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -5234,354 +5243,354 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B1" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B4" t="s">
         <v>644</v>
-      </c>
-      <c r="B4" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="9" spans="16:19">
       <c r="P9" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="Q9" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="R9" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="S9" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="11:19">
       <c r="K10" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="L10" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="M10" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="P10" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="Q10" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="S10" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="L11" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="M11" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12" spans="12:14">
       <c r="L12" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="M12" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="N12" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="13:15">
       <c r="M13" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="N13" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="O13" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B15" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="L15" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="N15" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B16" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C16" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="N16" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="P16" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="K18" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="P21" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="Q21" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="G29" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="36" spans="7:9">
       <c r="G36" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="I36" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="41" spans="7:9">
       <c r="G41" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="H41" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="I41" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="I44" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="48" spans="7:8">
       <c r="G48" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="H48" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B50" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="G50" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="H50" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="B53" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="G56" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="H56" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D61" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -5604,12 +5613,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -5622,10 +5631,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:L24"/>
+  <dimension ref="A2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5640,64 +5649,67 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="4:5">
+    <row r="5" spans="4:8">
       <c r="D5" t="s">
         <v>116</v>
       </c>
       <c r="E5" t="s">
         <v>117</v>
       </c>
+      <c r="H5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="6" spans="5:10">
       <c r="E6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="9:9">
+      <c r="I7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="9:9">
-      <c r="I9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="6:12">
       <c r="F11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="4:6">
@@ -5705,41 +5717,51 @@
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="8:12">
       <c r="H18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5766,254 +5788,254 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="7:11">
       <c r="G12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="8:8">
       <c r="H14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="8:8">
       <c r="H15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="10:10">
       <c r="J20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="10:10">
       <c r="J21" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="12:15">
       <c r="L24" s="11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="8:15">
       <c r="H25" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="12:14">
       <c r="L26" s="11"/>
       <c r="M26" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:14">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M28" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J32" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" ht="36" spans="11:15">
       <c r="K33" s="29" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
@@ -6022,7 +6044,7 @@
     </row>
     <row r="34" ht="36" spans="11:15">
       <c r="K34" s="29" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
@@ -6031,7 +6053,7 @@
     </row>
     <row r="35" ht="36" spans="11:15">
       <c r="K35" s="29" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L35" s="28"/>
       <c r="M35" s="28"/>
@@ -6040,7 +6062,7 @@
     </row>
     <row r="36" ht="36" spans="11:15">
       <c r="K36" s="29" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
@@ -6049,10 +6071,10 @@
     </row>
     <row r="37" ht="120.75" spans="11:15">
       <c r="K37" s="29" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L37" s="30" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
@@ -6060,100 +6082,100 @@
     </row>
     <row r="38" ht="17.25" spans="4:11">
       <c r="D38" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="4:11">
       <c r="D39" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J39" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K39" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="4:11">
       <c r="D40" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E40" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K40" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="5:11">
       <c r="E41" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K41" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="5:11">
       <c r="E42" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K42" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="5:6">
       <c r="E44" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F44" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="4:5">
       <c r="D45" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E45" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="11:11">
       <c r="K46" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" ht="36.75" spans="8:11">
       <c r="H47" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K47" s="31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" ht="48.75" spans="11:11">
       <c r="K48" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" ht="61.5" spans="11:11">
       <c r="K49" s="31" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" ht="27" spans="1:4">
       <c r="A50" s="28" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
@@ -6161,7 +6183,7 @@
     <row r="51" ht="54" spans="1:4">
       <c r="A51" s="28"/>
       <c r="B51" s="28" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
@@ -6180,10 +6202,10 @@
     </row>
     <row r="54" ht="40.5" spans="1:4">
       <c r="A54" s="28" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
@@ -6232,15 +6254,15 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B62" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6263,147 +6285,147 @@
   <sheetData>
     <row r="4" spans="1:11">
       <c r="A4" s="20" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="11:11">
       <c r="K6" s="20" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="20" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="20" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="7:11">
       <c r="G13" s="20" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" s="20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" s="20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="3:3">
       <c r="C17" s="21" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="3:12">
       <c r="C18" s="14" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="3:13">
       <c r="C19" s="21" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="23" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="3:3">
       <c r="C21" s="21" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="7:7">
       <c r="G25" s="22" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="7:7">
       <c r="G26" s="22" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="24" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D32" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J32" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" ht="18" spans="3:3">
       <c r="C39" s="25" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="3:3">
       <c r="C40" s="25" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -6429,49 +6451,49 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C14" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -6494,15 +6516,15 @@
   <sheetData>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E6">
         <v>70</v>
@@ -6510,7 +6532,7 @@
     </row>
     <row r="7" spans="4:5">
       <c r="D7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -6518,20 +6540,20 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D11" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E11">
         <v>70</v>
@@ -6539,7 +6561,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -6547,7 +6569,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -6555,12 +6577,12 @@
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="4:5">
       <c r="D16" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E16">
         <v>70</v>
@@ -6568,7 +6590,7 @@
     </row>
     <row r="17" spans="4:5">
       <c r="D17" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -6576,7 +6598,7 @@
     </row>
     <row r="18" spans="4:5">
       <c r="D18" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -6639,7 +6661,7 @@
   <sheetData>
     <row r="3" ht="72" spans="1:1">
       <c r="A3" s="19" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/boxsite/idea.xlsx
+++ b/boxsite/idea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985" tabRatio="818" activeTab="1"/>
+    <workbookView windowWidth="19800" windowHeight="7950" tabRatio="818"/>
   </bookViews>
   <sheets>
     <sheet name="找方向" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728">
   <si>
     <t>需求</t>
   </si>
@@ -353,7 +353,13 @@
     <t>车护宝</t>
   </si>
   <si>
+    <t>内容就是媒介</t>
+  </si>
+  <si>
     <t>众筹</t>
+  </si>
+  <si>
+    <t>品牌</t>
   </si>
   <si>
     <t>理财记账</t>
@@ -2250,10 +2256,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2888,8 +2894,8 @@
   <sheetPr/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3335,7 +3341,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3345,36 +3351,42 @@
       <c r="E45" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="46" spans="2:2">
+      <c r="G45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="G46" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3389,7 +3401,7 @@
   <sheetPr/>
   <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -3400,30 +3412,30 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -3448,12 +3460,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -3463,12 +3475,12 @@
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -3476,44 +3488,44 @@
         <v>2015</v>
       </c>
       <c r="D33" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G33" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H33" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="8:10">
       <c r="H37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J37" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J40" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3528,7 +3540,7 @@
   <sheetPr/>
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B33" sqref="B33:E36"/>
     </sheetView>
   </sheetViews>
@@ -3543,46 +3555,46 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="6:7">
       <c r="F3" s="11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:15">
       <c r="A4" s="11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="5:16">
@@ -3590,18 +3602,18 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E6" s="11">
         <v>1.2</v>
@@ -3609,58 +3621,58 @@
     </row>
     <row r="7" s="11" customFormat="1" spans="7:7">
       <c r="G7" s="11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="4:12">
       <c r="D8" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E8" s="12">
         <v>0.002</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="7:8">
       <c r="G9" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" spans="8:17">
       <c r="H10" s="11" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="4:4">
       <c r="D11" s="11" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" s="11" customFormat="1" ht="22.5" spans="4:14">
       <c r="D13" s="11" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="22.5" spans="1:14">
@@ -3668,56 +3680,56 @@
         <v>0.9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="7:14">
       <c r="G15" s="11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="5:16">
       <c r="E16" s="11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="16:16">
       <c r="P17" s="11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" s="11" customFormat="1" spans="1:16">
       <c r="A18" s="11" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:16">
       <c r="A19" s="11" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>93</v>
@@ -3725,13 +3737,13 @@
     </row>
     <row r="20" s="11" customFormat="1" spans="1:13">
       <c r="A20" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="13:13">
@@ -3741,56 +3753,56 @@
     </row>
     <row r="22" s="11" customFormat="1" spans="9:9">
       <c r="I22" s="11" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="5:9">
       <c r="E23" s="11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="9:9">
       <c r="I24" s="11" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="3:3">
       <c r="C27" s="11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="4:12">
       <c r="D28" s="11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="4:8">
       <c r="D29" s="11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="2:19">
@@ -3799,16 +3811,16 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="M33" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N33" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O33" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P33" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -3820,17 +3832,17 @@
       <c r="D34"/>
       <c r="E34"/>
       <c r="I34" s="11" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -3844,20 +3856,20 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="J35" s="11" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="S35" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -3872,7 +3884,7 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="13:19">
@@ -3886,7 +3898,7 @@
     </row>
     <row r="38" spans="13:19">
       <c r="M38" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -3907,13 +3919,13 @@
     <row r="41" ht="18.75" spans="2:13">
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="J41"/>
       <c r="K41" s="16" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -3921,7 +3933,7 @@
     <row r="42" spans="2:13">
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -3933,13 +3945,13 @@
     <row r="43" ht="37.5" spans="2:13">
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="J43"/>
       <c r="K43" s="16" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -3947,7 +3959,7 @@
     <row r="44" spans="2:13">
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -3959,13 +3971,13 @@
     <row r="45" ht="37.5" spans="2:13">
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="J45"/>
       <c r="K45" s="16" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
@@ -3975,7 +3987,7 @@
     <row r="46" spans="2:13">
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -3991,13 +4003,13 @@
       <c r="E47"/>
       <c r="J47"/>
       <c r="K47" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L47" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M47" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -4005,13 +4017,13 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="10:13">
@@ -4022,153 +4034,153 @@
     </row>
     <row r="50" spans="10:13">
       <c r="J50" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K50" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="10:13">
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="10:13">
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="10:13">
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L53" t="s">
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="10:13">
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="1:1">
       <c r="A56" s="14" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" ht="13.5" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B59" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C59" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D59" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" ht="13.5" spans="1:6">
       <c r="A60" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B60" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C60" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D60" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E60" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F60" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="61" ht="13.5" spans="1:6">
       <c r="A61" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F61" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" ht="13.5" spans="1:6">
       <c r="A62" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B62" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C62" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F62"/>
     </row>
     <row r="63" ht="13.5" spans="1:6">
       <c r="A63" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B63" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F63"/>
     </row>
     <row r="64" ht="13.5" spans="1:6">
       <c r="A64" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B64" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -4185,15 +4197,15 @@
     </row>
     <row r="67" ht="17.25" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69" ht="293.25" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="71" spans="2:2">
@@ -4222,107 +4234,107 @@
   <sheetData>
     <row r="2" spans="14:14">
       <c r="N2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J5" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K5" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="4:10">
       <c r="D6" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J6" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C10" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D11" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D12" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -4330,95 +4342,95 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J15" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K15" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D17" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K17" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C19" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="8" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C21" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H24" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H25" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:4">
       <c r="A29" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D29" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -4441,22 +4453,22 @@
   <sheetData>
     <row r="3" spans="5:5">
       <c r="E3" s="8" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -4571,653 +4583,653 @@
         <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="I4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C6" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J6" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I9" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="9:10">
       <c r="I10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="9:11">
       <c r="I11" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J11" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K11" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B13" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C13" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I13" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J13" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C15" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I15" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D20" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E20" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B25" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C27" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D27" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C28" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D28" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D29" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D30" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C31" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D31" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D32" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E33" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B46" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C46" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D46" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E46" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F46" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G46" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H46" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J46" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F47" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K47" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C48" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G48" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="K48" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L48" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G49" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K49" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G50" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K50" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L50" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G51" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K51" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="52" spans="7:11">
       <c r="G52" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K52" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="53" spans="3:13">
       <c r="C53" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K53" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L53" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M53" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="54" spans="7:11">
       <c r="G54" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K54" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="55" spans="3:11">
       <c r="C55" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D55" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G55" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K55" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="56" spans="3:11">
       <c r="C56" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G56" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="K56" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="57" spans="3:11">
       <c r="C57" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G57" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K57" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C58" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G58" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K58" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="59" spans="2:14">
       <c r="B59" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C59" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G59" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K59" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L59" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="M59" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="N59" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G60" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="L60" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="M60" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="N60" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61" spans="2:12">
       <c r="B61" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G61" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K61" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L61" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B62" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C62" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D62" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E62" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F62" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G62" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="63" spans="3:11">
       <c r="C63" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D63" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G63" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K63" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B64" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C64" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G64" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="65" spans="2:14">
       <c r="B65" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C65" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G65" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="K65" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="L65" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="M65" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="N65" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C66" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K66" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C67" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K68" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K69" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="70" spans="3:11">
       <c r="C70" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K70" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C72" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C73" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C76" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2"/>
       <c r="C77" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -5243,354 +5255,354 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B4" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="16:19">
       <c r="P9" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="Q9" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="R9" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="S9" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="11:19">
       <c r="K10" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="L10" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="M10" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="P10" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="Q10" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="S10" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="L11" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="M11" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="12:14">
       <c r="L12" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="M12" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="N12" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="13:15">
       <c r="M13" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="N13" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="O13" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B15" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="L15" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N15" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B16" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C16" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="N16" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="P16" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K18" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="P21" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="Q21" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G29" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="36" spans="7:9">
       <c r="G36" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="I36" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="41" spans="7:9">
       <c r="G41" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H41" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="I41" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="I44" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="48" spans="7:8">
       <c r="G48" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H48" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B50" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="G50" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H50" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B53" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="G56" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H56" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D61" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -5613,12 +5625,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>
@@ -5633,7 +5645,7 @@
   <sheetPr/>
   <dimension ref="A2:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -5641,75 +5653,75 @@
   <sheetData>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="4:8">
       <c r="D5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="5:10">
       <c r="E6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="9:9">
       <c r="I7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="6:12">
       <c r="F11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="4:6">
@@ -5717,51 +5729,51 @@
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="8:12">
       <c r="H18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5776,7 +5788,7 @@
   <sheetPr/>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="H52" sqref="H52:H56"/>
     </sheetView>
   </sheetViews>
@@ -5788,254 +5800,254 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="7:11">
       <c r="G12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="8:8">
       <c r="H14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="8:8">
       <c r="H15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="10:10">
       <c r="J20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="10:10">
       <c r="J21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="12:15">
       <c r="L24" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="8:15">
       <c r="H25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="12:14">
       <c r="L26" s="11"/>
       <c r="M26" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:14">
       <c r="A27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" ht="36" spans="11:15">
       <c r="K33" s="29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
@@ -6044,7 +6056,7 @@
     </row>
     <row r="34" ht="36" spans="11:15">
       <c r="K34" s="29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
@@ -6053,7 +6065,7 @@
     </row>
     <row r="35" ht="36" spans="11:15">
       <c r="K35" s="29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L35" s="28"/>
       <c r="M35" s="28"/>
@@ -6062,7 +6074,7 @@
     </row>
     <row r="36" ht="36" spans="11:15">
       <c r="K36" s="29" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
@@ -6071,10 +6083,10 @@
     </row>
     <row r="37" ht="120.75" spans="11:15">
       <c r="K37" s="29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L37" s="30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
@@ -6082,100 +6094,100 @@
     </row>
     <row r="38" ht="17.25" spans="4:11">
       <c r="D38" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="4:11">
       <c r="D39" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J39" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K39" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="4:11">
       <c r="D40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="5:11">
       <c r="E41" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K41" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="5:11">
       <c r="E42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K42" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="5:6">
       <c r="E44" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F44" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="4:5">
       <c r="D45" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="11:11">
       <c r="K46" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" ht="36.75" spans="8:11">
       <c r="H47" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K47" s="31" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" ht="48.75" spans="11:11">
       <c r="K48" s="31" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" ht="61.5" spans="11:11">
       <c r="K49" s="31" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" ht="27" spans="1:4">
       <c r="A50" s="28" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
@@ -6183,7 +6195,7 @@
     <row r="51" ht="54" spans="1:4">
       <c r="A51" s="28"/>
       <c r="B51" s="28" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
@@ -6202,10 +6214,10 @@
     </row>
     <row r="54" ht="40.5" spans="1:4">
       <c r="A54" s="28" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
@@ -6254,15 +6266,15 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B62" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -6285,147 +6297,147 @@
   <sheetData>
     <row r="4" spans="1:11">
       <c r="A4" s="20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="11:11">
       <c r="K6" s="20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="7:11">
       <c r="G13" s="20" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" s="20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" s="20" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="3:3">
       <c r="C17" s="21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="3:12">
       <c r="C18" s="14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="3:13">
       <c r="C19" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="23" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="3:3">
       <c r="C21" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="7:7">
       <c r="G25" s="22" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="7:7">
       <c r="G26" s="22" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="24" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D32" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J32" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" ht="18" spans="3:3">
       <c r="C39" s="25" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="3:3">
       <c r="C40" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6451,49 +6463,49 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C14" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -6516,15 +6528,15 @@
   <sheetData>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E6">
         <v>70</v>
@@ -6532,7 +6544,7 @@
     </row>
     <row r="7" spans="4:5">
       <c r="D7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -6540,20 +6552,20 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E11">
         <v>70</v>
@@ -6561,7 +6573,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -6569,7 +6581,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -6577,12 +6589,12 @@
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="4:5">
       <c r="D16" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E16">
         <v>70</v>
@@ -6590,7 +6602,7 @@
     </row>
     <row r="17" spans="4:5">
       <c r="D17" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -6598,7 +6610,7 @@
     </row>
     <row r="18" spans="4:5">
       <c r="D18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -6661,7 +6673,7 @@
   <sheetData>
     <row r="3" ht="72" spans="1:1">
       <c r="A3" s="19" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/boxsite/idea.xlsx
+++ b/boxsite/idea.xlsx
@@ -4,33 +4,35 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="7950" tabRatio="818"/>
+    <workbookView windowWidth="20370" windowHeight="7950" tabRatio="818" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="找方向" sheetId="1" r:id="rId1"/>
     <sheet name="搞钱" sheetId="2" r:id="rId2"/>
     <sheet name="找项目" sheetId="3" r:id="rId3"/>
-    <sheet name="互联网营销" sheetId="4" r:id="rId4"/>
-    <sheet name="备用点子" sheetId="5" r:id="rId5"/>
-    <sheet name="干活" sheetId="6" r:id="rId6"/>
-    <sheet name="奇点_IOT" sheetId="7" r:id="rId7"/>
-    <sheet name="奇点_人工智能" sheetId="8" r:id="rId8"/>
-    <sheet name="奇点_大数据" sheetId="9" r:id="rId9"/>
-    <sheet name="新点子" sheetId="10" r:id="rId10"/>
-    <sheet name="点子_微信营销" sheetId="11" r:id="rId11"/>
-    <sheet name="点子_手机电商" sheetId="12" r:id="rId12"/>
-    <sheet name="在线教育" sheetId="13" r:id="rId13"/>
-    <sheet name="o2o" sheetId="14" r:id="rId14"/>
-    <sheet name="医疗健康" sheetId="15" r:id="rId15"/>
-    <sheet name="网站聚合" sheetId="16" r:id="rId16"/>
-    <sheet name="旅游" sheetId="17" r:id="rId17"/>
+    <sheet name="技术刷榜" sheetId="4" r:id="rId4"/>
+    <sheet name="小APP" sheetId="5" r:id="rId5"/>
+    <sheet name="信息搜索整理" sheetId="6" r:id="rId6"/>
+    <sheet name="备用点子" sheetId="7" r:id="rId7"/>
+    <sheet name="互联网营销" sheetId="8" r:id="rId8"/>
+    <sheet name="奇点_IOT" sheetId="9" r:id="rId9"/>
+    <sheet name="奇点_人工智能" sheetId="10" r:id="rId10"/>
+    <sheet name="奇点_大数据" sheetId="11" r:id="rId11"/>
+    <sheet name="新点子" sheetId="12" r:id="rId12"/>
+    <sheet name="点子_微信营销" sheetId="13" r:id="rId13"/>
+    <sheet name="点子_手机电商" sheetId="14" r:id="rId14"/>
+    <sheet name="在线教育" sheetId="15" r:id="rId15"/>
+    <sheet name="o2o" sheetId="16" r:id="rId16"/>
+    <sheet name="医疗健康" sheetId="17" r:id="rId17"/>
+    <sheet name="网站聚合" sheetId="18" r:id="rId18"/>
+    <sheet name="旅游" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802">
   <si>
     <t>需求</t>
   </si>
@@ -380,6 +382,24 @@
     <t>医疗健康</t>
   </si>
   <si>
+    <t>有用信息更精准聚合和导流</t>
+  </si>
+  <si>
+    <t>搜索引擎</t>
+  </si>
+  <si>
+    <t>热门事件分析引擎</t>
+  </si>
+  <si>
+    <t>社交平台</t>
+  </si>
+  <si>
+    <t>百度</t>
+  </si>
+  <si>
+    <t>个人兴趣图谱分析引擎</t>
+  </si>
+  <si>
     <t>安全</t>
   </si>
   <si>
@@ -759,6 +779,281 @@
   </si>
   <si>
     <t>产品运营的竞争优势</t>
+  </si>
+  <si>
+    <t>技术刷榜</t>
+  </si>
+  <si>
+    <t>找到App Store的相关接口，使用程序模拟发包，除了注册帐号外再不需要人工参与。这种简单粗暴的方式相当有效，每秒钟可以模拟1万次下载行为。</t>
+  </si>
+  <si>
+    <t>几百万个付费用户帐号</t>
+  </si>
+  <si>
+    <t>亚马逊云上部署服务器，他的团队可以同时操作上百台服务器，每月服务器费用达数十万元。而决定性的因素还在于刷榜者手中掌握帐号的数量</t>
+  </si>
+  <si>
+    <t>卖号</t>
+  </si>
+  <si>
+    <t>ios账号</t>
+  </si>
+  <si>
+    <t>qq号</t>
+  </si>
+  <si>
+    <t>微信号</t>
+  </si>
+  <si>
+    <t>按键精灵安卓版</t>
+  </si>
+  <si>
+    <t>自动模拟点击</t>
+  </si>
+  <si>
+    <t>按键精灵</t>
+  </si>
+  <si>
+    <t>脚本精灵</t>
+  </si>
+  <si>
+    <t>自动发包</t>
+  </si>
+  <si>
+    <t>自动注册</t>
+  </si>
+  <si>
+    <t>更高级是什么?</t>
+  </si>
+  <si>
+    <t>自动获取收包内容</t>
+  </si>
+  <si>
+    <t>11年靠粗暴注册下载，13年靠积分墙，现在比较综合，广告，推送，下载礼包，人肉流水线，盗用ID等</t>
+  </si>
+  <si>
+    <t>换量</t>
+  </si>
+  <si>
+    <t>卖流量</t>
+  </si>
+  <si>
+    <t>之前</t>
+  </si>
+  <si>
+    <t>作坊式</t>
+  </si>
+  <si>
+    <t>一堆账号不停换，一堆黑卡刷刷刷</t>
+  </si>
+  <si>
+    <t>现在</t>
+  </si>
+  <si>
+    <t>多设备，多人员，分区域</t>
+  </si>
+  <si>
+    <t>关键点</t>
+  </si>
+  <si>
+    <t>实现方式</t>
+  </si>
+  <si>
+    <t>于是一家大型SZ的核心竞争力就是有多少优质苹果帐号，有多少苹果设备，设备越多效率越高，帐号越多，量级越大</t>
+  </si>
+  <si>
+    <t>自动(批量)注册</t>
+  </si>
+  <si>
+    <t>方式1：按键精灵，按键助手；
+方式2：客户端协议模拟发送</t>
+  </si>
+  <si>
+    <t>卖号/卖身份</t>
+  </si>
+  <si>
+    <t>买一堆二手苹果设备，批量养号appstore账号</t>
+  </si>
+  <si>
+    <t>自动(批量)登录</t>
+  </si>
+  <si>
+    <t>账号库,账号生成器/邮箱自动申请</t>
+  </si>
+  <si>
+    <t>常用邮箱自动注册</t>
+  </si>
+  <si>
+    <t>qq号养号</t>
+  </si>
+  <si>
+    <t>养号</t>
+  </si>
+  <si>
+    <t>WEB小精灵</t>
+  </si>
+  <si>
+    <t>流量精灵</t>
+  </si>
+  <si>
+    <t>游戏陀螺通过调查与交流发现：老的刷榜方式，像积分墙之类，已经逐渐被淘汰，现在基本刷的是免费榜、畅销榜、付费榜以及热搜榜。而在刷热搜榜上，又出现了刷攻略包、甚至出现刷一些无厘头关键字的新玩法</t>
+  </si>
+  <si>
+    <t>微信号养号</t>
+  </si>
+  <si>
+    <t>视频，社交，商店自动发表评论</t>
+  </si>
+  <si>
+    <t>发布时机定制，发布目标点：按键精灵</t>
+  </si>
+  <si>
+    <t>卖养号工具</t>
+  </si>
+  <si>
+    <t>发布内容库建立</t>
+  </si>
+  <si>
+    <t>蜘蛛抓取大网站内容</t>
+  </si>
+  <si>
+    <t>安卓技术刷榜</t>
+  </si>
+  <si>
+    <t>发表内容智能化</t>
+  </si>
+  <si>
+    <t>随机，扫描内容智能匹配</t>
+  </si>
+  <si>
+    <t>文章评论，点赞</t>
+  </si>
+  <si>
+    <t>头条等媒体</t>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>测试按键精灵的自动注册，自动登录效果</t>
+  </si>
+  <si>
+    <t>找到上面这些业务的上下游买家</t>
+  </si>
+  <si>
+    <t>头条</t>
+  </si>
+  <si>
+    <t>盈利模式打通，第一个阶段做法以赚钱为目标，倒推做法</t>
+  </si>
+  <si>
+    <t>找淘宝帮人刷榜的店铺</t>
+  </si>
+  <si>
+    <t>业务咨询</t>
+  </si>
+  <si>
+    <t>qq号批量注册</t>
+  </si>
+  <si>
+    <t>需要推广的行业</t>
+  </si>
+  <si>
+    <t>bluestacks，九百万安卓模拟器PC版，猩猩助手安卓模拟器，靠谱助手</t>
+  </si>
+  <si>
+    <t>Genymotion</t>
+  </si>
+  <si>
+    <t>360手机助手、百度应用中心、天翼空间、安卓市场、木蚂蚁、91市场（即91手机助手）、腾讯应用宝、搜狗助手、豌豆荚、安智市场、N多网、应用汇、优亿市场、机锋市场、小米应用商店、魅族应用中心、华为应用市场、联想乐商店、安卓4S店、新浪应用中心、网易应用中心、安卓之家、历趣网、苏宁应用商店、亿软网、三安网、易用汇, PP助手</t>
+  </si>
+  <si>
+    <t>应用宝：200元/万
+360手机助手：60元/万
+豌豆荚（下载量和安装量各1万）：60元/万
+小米应用商城：60元/万
+百度，91助手，安卓：30元/万</t>
+  </si>
+  <si>
+    <t>旅游小助手</t>
+  </si>
+  <si>
+    <t>实时翻译助手</t>
+  </si>
+  <si>
+    <t>小帮助</t>
+  </si>
+  <si>
+    <t>情话100句</t>
+  </si>
+  <si>
+    <t>礼物小助手和导购</t>
+  </si>
+  <si>
+    <t>偏知识</t>
+  </si>
+  <si>
+    <t>引流量</t>
+  </si>
+  <si>
+    <t>根据关键词搜索网站</t>
+  </si>
+  <si>
+    <t>maersou</t>
+  </si>
+  <si>
+    <t>搜网站</t>
+  </si>
+  <si>
+    <t>前100个网站</t>
+  </si>
+  <si>
+    <t>kuaimasou</t>
+  </si>
+  <si>
+    <t>搜论坛</t>
+  </si>
+  <si>
+    <t>谣言粉丝机</t>
+  </si>
+  <si>
+    <t>搜购物</t>
+  </si>
+  <si>
+    <t>新闻传播路线图</t>
+  </si>
+  <si>
+    <t>分析淘宝评论进货</t>
+  </si>
+  <si>
+    <t>C&amp;A Marketing模式</t>
+  </si>
+  <si>
+    <t>利用淘宝和阿里巴巴价格差倒卖</t>
+  </si>
+  <si>
+    <t>找淘宝小品类销售额高的商品罗列</t>
+  </si>
+  <si>
+    <t>到阿里巴巴看进货价，大于某个阀值可以倒卖</t>
+  </si>
+  <si>
+    <t>创意小工艺品实体店</t>
+  </si>
+  <si>
+    <t>互联网收集创意工艺品</t>
+  </si>
+  <si>
+    <t>小门面开店</t>
+  </si>
+  <si>
+    <t>难点</t>
+  </si>
+  <si>
+    <t>旅游小锦囊</t>
+  </si>
+  <si>
+    <t>痛点基本被已有的旅游网站解决</t>
   </si>
   <si>
     <t>加粉、转发、偷师、图文结合</t>
@@ -872,69 +1167,6 @@
   </si>
   <si>
     <t>限时限量</t>
-  </si>
-  <si>
-    <t>分析淘宝评论进货</t>
-  </si>
-  <si>
-    <t>C&amp;A Marketing模式</t>
-  </si>
-  <si>
-    <t>利用淘宝和阿里巴巴价格差倒卖</t>
-  </si>
-  <si>
-    <t>找淘宝小品类销售额高的商品罗列</t>
-  </si>
-  <si>
-    <t>到阿里巴巴看进货价，大于某个阀值可以倒卖</t>
-  </si>
-  <si>
-    <t>创意小工艺品实体店</t>
-  </si>
-  <si>
-    <t>互联网收集创意工艺品</t>
-  </si>
-  <si>
-    <t>小门面开店</t>
-  </si>
-  <si>
-    <t>难点</t>
-  </si>
-  <si>
-    <t>旅游小锦囊</t>
-  </si>
-  <si>
-    <t>痛点基本被已有的旅游网站解决</t>
-  </si>
-  <si>
-    <t>第一个月</t>
-  </si>
-  <si>
-    <t>技术活</t>
-  </si>
-  <si>
-    <t>微信营销</t>
-  </si>
-  <si>
-    <t>深入继续找其他小项目</t>
-  </si>
-  <si>
-    <t>快速微信开发,卖代码</t>
-  </si>
-  <si>
-    <t>第二个月</t>
-  </si>
-  <si>
-    <t>快速app定制开发</t>
-  </si>
-  <si>
-    <t>手机电商导购</t>
-  </si>
-  <si>
-    <t>继续找其他小项目</t>
-  </si>
-  <si>
-    <t>第3个月</t>
   </si>
   <si>
     <r>
@@ -961,9 +1193,6 @@
     <t>点子</t>
   </si>
   <si>
-    <t>微信</t>
-  </si>
-  <si>
     <t>笑话推送</t>
   </si>
   <si>
@@ -1000,6 +1229,9 @@
     <t>微信开发运营培训</t>
   </si>
   <si>
+    <t>微信营销</t>
+  </si>
+  <si>
     <t>带流量</t>
   </si>
   <si>
@@ -1070,9 +1302,6 @@
   </si>
   <si>
     <t>小游戏中心</t>
-  </si>
-  <si>
-    <t>百度</t>
   </si>
   <si>
     <t>轻应用</t>
@@ -2256,12 +2485,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2400,6 +2629,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color indexed="53"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="63"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="10"/>
@@ -2473,7 +2714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
@@ -2534,12 +2775,24 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2548,8 +2801,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2892,10 +3145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3060,7 +3313,7 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="31" t="s">
         <v>38</v>
       </c>
       <c r="J13" t="s">
@@ -3090,7 +3343,7 @@
       <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="36" t="s">
         <v>45</v>
       </c>
       <c r="J16" t="s">
@@ -3101,7 +3354,7 @@
       </c>
     </row>
     <row r="17" ht="14.25" spans="2:11">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="37" t="s">
         <v>47</v>
       </c>
       <c r="J17" t="s">
@@ -3112,10 +3365,10 @@
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:11">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="36" t="s">
         <v>51</v>
       </c>
       <c r="J18" t="s">
@@ -3388,6 +3641,62 @@
       <c r="A50" t="s">
         <v>115</v>
       </c>
+    </row>
+    <row r="53" ht="14.25" spans="2:7">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" ht="14.25" spans="2:7">
+      <c r="B54" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" ht="14.25" spans="2:7">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" spans="2:7">
+      <c r="B56" s="11"/>
+      <c r="C56" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" ht="14.25" spans="2:7">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3397,6 +3706,49 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="62.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="72" spans="1:1">
+      <c r="A3" s="19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A2:J44"/>
@@ -3412,30 +3764,30 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>300</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>301</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -3460,12 +3812,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -3475,12 +3827,12 @@
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>305</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -3488,44 +3840,44 @@
         <v>2015</v>
       </c>
       <c r="D33" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="G33" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="H33" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>310</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="8:10">
       <c r="H37" t="s">
-        <v>288</v>
+        <v>385</v>
       </c>
       <c r="J37" t="s">
-        <v>311</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>312</v>
+        <v>387</v>
       </c>
       <c r="J40" t="s">
-        <v>313</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>314</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>315</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3535,7 +3887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:S71"/>
@@ -3555,46 +3907,46 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>316</v>
+        <v>391</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>317</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>318</v>
+        <v>393</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>320</v>
+        <v>395</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>321</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="6:7">
       <c r="F3" s="11" t="s">
-        <v>322</v>
+        <v>397</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>323</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:15">
       <c r="A4" s="11" t="s">
-        <v>324</v>
+        <v>399</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>325</v>
+        <v>400</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>326</v>
+        <v>401</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>327</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="5:16">
@@ -3602,18 +3954,18 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>328</v>
+        <v>403</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>329</v>
+        <v>404</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>330</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="E6" s="11">
         <v>1.2</v>
@@ -3621,58 +3973,58 @@
     </row>
     <row r="7" s="11" customFormat="1" spans="7:7">
       <c r="G7" s="11" t="s">
-        <v>332</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="4:12">
       <c r="D8" s="11" t="s">
-        <v>333</v>
+        <v>408</v>
       </c>
       <c r="E8" s="12">
         <v>0.002</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>334</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="7:8">
       <c r="G9" s="11" t="s">
-        <v>335</v>
+        <v>120</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>268</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" spans="8:17">
       <c r="H10" s="11" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="4:4">
       <c r="D11" s="11" t="s">
-        <v>340</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" s="11" customFormat="1" ht="22.5" spans="4:14">
       <c r="D13" s="11" t="s">
-        <v>342</v>
+        <v>416</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>342</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="22.5" spans="1:14">
@@ -3680,56 +4032,56 @@
         <v>0.9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>343</v>
+        <v>417</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>344</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="7:14">
       <c r="G15" s="11" t="s">
-        <v>345</v>
+        <v>419</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>346</v>
+        <v>420</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>347</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="5:16">
       <c r="E16" s="11" t="s">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>349</v>
+        <v>423</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>326</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="16:16">
       <c r="P17" s="11" t="s">
-        <v>351</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" s="11" customFormat="1" spans="1:16">
       <c r="A18" s="11" t="s">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>353</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:16">
       <c r="A19" s="11" t="s">
-        <v>354</v>
+        <v>428</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>93</v>
@@ -3737,13 +4089,13 @@
     </row>
     <row r="20" s="11" customFormat="1" spans="1:13">
       <c r="A20" s="11" t="s">
-        <v>356</v>
+        <v>430</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>357</v>
+        <v>431</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>358</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="13:13">
@@ -3753,56 +4105,56 @@
     </row>
     <row r="22" s="11" customFormat="1" spans="9:9">
       <c r="I22" s="11" t="s">
-        <v>359</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="5:9">
       <c r="E23" s="11" t="s">
-        <v>271</v>
+        <v>367</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="9:9">
       <c r="I24" s="11" t="s">
-        <v>361</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="3:3">
       <c r="C27" s="11" t="s">
-        <v>362</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="4:12">
       <c r="D28" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="4:8">
       <c r="D29" s="11" t="s">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>368</v>
+        <v>442</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>369</v>
+        <v>443</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>370</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="2:19">
@@ -3811,16 +4163,16 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="M33" t="s">
-        <v>371</v>
+        <v>445</v>
       </c>
       <c r="N33" t="s">
-        <v>372</v>
+        <v>446</v>
       </c>
       <c r="O33" t="s">
-        <v>373</v>
+        <v>447</v>
       </c>
       <c r="P33" t="s">
-        <v>374</v>
+        <v>448</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -3832,17 +4184,17 @@
       <c r="D34"/>
       <c r="E34"/>
       <c r="I34" s="11" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>375</v>
+        <v>449</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>376</v>
+        <v>450</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>377</v>
+        <v>451</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -3856,20 +4208,20 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="J35" s="11" t="s">
-        <v>378</v>
+        <v>452</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>379</v>
+        <v>453</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>380</v>
+        <v>454</v>
       </c>
       <c r="S35" t="s">
-        <v>381</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -3884,7 +4236,7 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>382</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="13:19">
@@ -3898,7 +4250,7 @@
     </row>
     <row r="38" spans="13:19">
       <c r="M38" t="s">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -3919,13 +4271,13 @@
     <row r="41" ht="18.75" spans="2:13">
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="J41"/>
       <c r="K41" s="16" t="s">
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -3933,7 +4285,7 @@
     <row r="42" spans="2:13">
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>385</v>
+        <v>459</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -3945,13 +4297,13 @@
     <row r="43" ht="37.5" spans="2:13">
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>386</v>
+        <v>460</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="J43"/>
       <c r="K43" s="16" t="s">
-        <v>387</v>
+        <v>461</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -3959,7 +4311,7 @@
     <row r="44" spans="2:13">
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>388</v>
+        <v>462</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -3971,13 +4323,13 @@
     <row r="45" ht="37.5" spans="2:13">
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>389</v>
+        <v>463</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="J45"/>
       <c r="K45" s="16" t="s">
-        <v>390</v>
+        <v>464</v>
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
@@ -3987,7 +4339,7 @@
     <row r="46" spans="2:13">
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>391</v>
+        <v>465</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -4003,13 +4355,13 @@
       <c r="E47"/>
       <c r="J47"/>
       <c r="K47" s="16" t="s">
-        <v>392</v>
+        <v>466</v>
       </c>
       <c r="L47" t="s">
-        <v>377</v>
+        <v>451</v>
       </c>
       <c r="M47" t="s">
-        <v>393</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -4017,13 +4369,13 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>394</v>
+        <v>468</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>395</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49" spans="10:13">
@@ -4034,153 +4386,153 @@
     </row>
     <row r="50" spans="10:13">
       <c r="J50" t="s">
-        <v>396</v>
+        <v>470</v>
       </c>
       <c r="K50" t="s">
-        <v>397</v>
+        <v>471</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>398</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51" spans="10:13">
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>393</v>
+        <v>467</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>398</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="10:13">
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>377</v>
+        <v>451</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>399</v>
+        <v>473</v>
       </c>
     </row>
     <row r="53" spans="10:13">
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>379</v>
+        <v>453</v>
       </c>
       <c r="L53" t="s">
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54" spans="10:13">
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>401</v>
+        <v>475</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="1:1">
       <c r="A56" s="14" t="s">
-        <v>402</v>
+        <v>476</v>
       </c>
     </row>
     <row r="59" ht="13.5" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
       <c r="B59" t="s">
-        <v>404</v>
+        <v>478</v>
       </c>
       <c r="C59" t="s">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="D59" t="s">
-        <v>370</v>
+        <v>444</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>406</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" ht="13.5" spans="1:6">
       <c r="A60" t="s">
-        <v>407</v>
+        <v>481</v>
       </c>
       <c r="B60" t="s">
-        <v>408</v>
+        <v>482</v>
       </c>
       <c r="C60" t="s">
-        <v>409</v>
+        <v>483</v>
       </c>
       <c r="D60" t="s">
-        <v>410</v>
+        <v>484</v>
       </c>
       <c r="E60" t="s">
-        <v>411</v>
+        <v>485</v>
       </c>
       <c r="F60" t="s">
-        <v>412</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" ht="13.5" spans="1:6">
       <c r="A61" t="s">
-        <v>413</v>
+        <v>487</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>414</v>
+        <v>488</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>415</v>
+        <v>489</v>
       </c>
       <c r="F61" t="s">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62" ht="13.5" spans="1:6">
       <c r="A62" t="s">
-        <v>417</v>
+        <v>491</v>
       </c>
       <c r="B62" t="s">
-        <v>418</v>
+        <v>492</v>
       </c>
       <c r="C62" t="s">
-        <v>419</v>
+        <v>493</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="F62"/>
     </row>
     <row r="63" ht="13.5" spans="1:6">
       <c r="A63" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="B63" t="s">
-        <v>422</v>
+        <v>496</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="F63"/>
     </row>
     <row r="64" ht="13.5" spans="1:6">
       <c r="A64" t="s">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="B64" t="s">
-        <v>425</v>
+        <v>499</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -4197,15 +4549,15 @@
     </row>
     <row r="67" ht="17.25" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" ht="293.25" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>428</v>
+        <v>502</v>
       </c>
     </row>
     <row r="71" spans="2:2">
@@ -4218,7 +4570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A2:N29"/>
@@ -4234,107 +4586,107 @@
   <sheetData>
     <row r="2" spans="14:14">
       <c r="N2" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>372</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>430</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>431</v>
+        <v>505</v>
       </c>
       <c r="C4" t="s">
-        <v>432</v>
+        <v>506</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>433</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
       <c r="D5" t="s">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="J5" t="s">
-        <v>436</v>
+        <v>510</v>
       </c>
       <c r="K5" t="s">
-        <v>437</v>
+        <v>511</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>438</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="4:10">
       <c r="D6" t="s">
-        <v>439</v>
+        <v>513</v>
       </c>
       <c r="J6" t="s">
-        <v>440</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>441</v>
+        <v>515</v>
       </c>
       <c r="J7" t="s">
-        <v>442</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>443</v>
+        <v>517</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
+        <v>518</v>
       </c>
       <c r="J8" t="s">
-        <v>445</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>446</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="C10" t="s">
-        <v>448</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>449</v>
+        <v>523</v>
       </c>
       <c r="D11" t="s">
-        <v>450</v>
+        <v>524</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>451</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>452</v>
+        <v>526</v>
       </c>
       <c r="D12" t="s">
-        <v>453</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>454</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -4342,95 +4694,95 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>455</v>
+        <v>529</v>
       </c>
       <c r="J15" t="s">
-        <v>456</v>
+        <v>530</v>
       </c>
       <c r="K15" t="s">
-        <v>457</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>458</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>459</v>
+        <v>533</v>
       </c>
       <c r="D17" t="s">
-        <v>460</v>
+        <v>534</v>
       </c>
       <c r="K17" t="s">
-        <v>461</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>462</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>463</v>
+        <v>537</v>
       </c>
       <c r="C19" t="s">
-        <v>464</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="8" t="s">
-        <v>465</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="C21" t="s">
-        <v>466</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" t="s">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>468</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>469</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>470</v>
+        <v>544</v>
       </c>
       <c r="H24" t="s">
-        <v>471</v>
+        <v>545</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" t="s">
-        <v>472</v>
+        <v>546</v>
       </c>
       <c r="H25" t="s">
-        <v>471</v>
+        <v>545</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:4">
       <c r="A29" t="s">
-        <v>370</v>
+        <v>444</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D29" t="s">
-        <v>474</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -4440,7 +4792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A3:E7"/>
@@ -4453,22 +4805,22 @@
   <sheetData>
     <row r="3" spans="5:5">
       <c r="E3" s="8" t="s">
-        <v>475</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>477</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>478</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +4830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B1:N166"/>
@@ -4567,7 +4919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N84"/>
@@ -4583,653 +4935,653 @@
         <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>479</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" t="s">
-        <v>480</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="B3" t="s">
-        <v>482</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>483</v>
+        <v>557</v>
       </c>
       <c r="I4" t="s">
-        <v>484</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>370</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="C6" t="s">
-        <v>485</v>
+        <v>559</v>
       </c>
       <c r="J6" t="s">
-        <v>486</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>487</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>488</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>489</v>
+        <v>563</v>
       </c>
       <c r="B9" t="s">
-        <v>490</v>
+        <v>564</v>
       </c>
       <c r="I9" t="s">
-        <v>491</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="9:10">
       <c r="I10" t="s">
-        <v>492</v>
+        <v>566</v>
       </c>
       <c r="J10" t="s">
-        <v>399</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="9:11">
       <c r="I11" t="s">
-        <v>493</v>
+        <v>567</v>
       </c>
       <c r="J11" t="s">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="K11" t="s">
-        <v>495</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>496</v>
+        <v>570</v>
       </c>
       <c r="B13" t="s">
-        <v>497</v>
+        <v>571</v>
       </c>
       <c r="C13" t="s">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="I13" t="s">
-        <v>499</v>
+        <v>573</v>
       </c>
       <c r="J13" t="s">
-        <v>500</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>501</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>502</v>
+        <v>576</v>
       </c>
       <c r="C15" t="s">
-        <v>503</v>
+        <v>577</v>
       </c>
       <c r="I15" t="s">
-        <v>504</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>505</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>506</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>507</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
-        <v>508</v>
+        <v>582</v>
       </c>
       <c r="D20" t="s">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="E20" t="s">
-        <v>510</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>511</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>512</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>513</v>
+        <v>587</v>
       </c>
       <c r="B25" t="s">
-        <v>514</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>515</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>516</v>
+        <v>590</v>
       </c>
       <c r="C27" t="s">
-        <v>517</v>
+        <v>591</v>
       </c>
       <c r="D27" t="s">
-        <v>518</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>519</v>
+        <v>593</v>
       </c>
       <c r="C28" t="s">
-        <v>520</v>
+        <v>594</v>
       </c>
       <c r="D28" t="s">
-        <v>521</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>522</v>
+        <v>596</v>
       </c>
       <c r="D29" t="s">
-        <v>523</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>524</v>
+        <v>598</v>
       </c>
       <c r="D30" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>526</v>
+        <v>600</v>
       </c>
       <c r="C31" t="s">
-        <v>527</v>
+        <v>601</v>
       </c>
       <c r="D31" t="s">
-        <v>528</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>529</v>
+        <v>603</v>
       </c>
       <c r="D32" t="s">
-        <v>530</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>531</v>
+        <v>605</v>
       </c>
       <c r="E33" t="s">
-        <v>532</v>
+        <v>606</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>533</v>
+        <v>607</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>534</v>
+        <v>608</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>535</v>
+        <v>609</v>
       </c>
       <c r="B46" t="s">
-        <v>536</v>
+        <v>610</v>
       </c>
       <c r="C46" t="s">
-        <v>524</v>
+        <v>598</v>
       </c>
       <c r="D46" t="s">
-        <v>537</v>
+        <v>611</v>
       </c>
       <c r="E46" t="s">
-        <v>538</v>
+        <v>612</v>
       </c>
       <c r="F46" t="s">
-        <v>539</v>
+        <v>613</v>
       </c>
       <c r="G46" t="s">
-        <v>540</v>
+        <v>614</v>
       </c>
       <c r="H46" t="s">
-        <v>541</v>
+        <v>615</v>
       </c>
       <c r="J46" t="s">
-        <v>542</v>
+        <v>616</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>543</v>
+        <v>617</v>
       </c>
       <c r="F47" t="s">
-        <v>544</v>
+        <v>618</v>
       </c>
       <c r="K47" t="s">
-        <v>545</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>546</v>
+        <v>620</v>
       </c>
       <c r="C48" t="s">
-        <v>547</v>
+        <v>621</v>
       </c>
       <c r="G48" t="s">
-        <v>533</v>
+        <v>607</v>
       </c>
       <c r="K48" t="s">
-        <v>548</v>
+        <v>622</v>
       </c>
       <c r="L48" t="s">
-        <v>549</v>
+        <v>623</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>550</v>
+        <v>624</v>
       </c>
       <c r="G49" t="s">
-        <v>551</v>
+        <v>625</v>
       </c>
       <c r="K49" t="s">
-        <v>552</v>
+        <v>626</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>553</v>
+        <v>627</v>
       </c>
       <c r="G50" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="K50" t="s">
-        <v>555</v>
+        <v>629</v>
       </c>
       <c r="L50" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>557</v>
+        <v>631</v>
       </c>
       <c r="G51" t="s">
-        <v>558</v>
+        <v>632</v>
       </c>
       <c r="K51" t="s">
-        <v>559</v>
+        <v>633</v>
       </c>
     </row>
     <row r="52" spans="7:11">
       <c r="G52" t="s">
-        <v>560</v>
+        <v>634</v>
       </c>
       <c r="K52" t="s">
-        <v>561</v>
+        <v>635</v>
       </c>
     </row>
     <row r="53" spans="3:13">
       <c r="C53" t="s">
-        <v>562</v>
+        <v>636</v>
       </c>
       <c r="G53" t="s">
-        <v>563</v>
+        <v>637</v>
       </c>
       <c r="K53" t="s">
-        <v>564</v>
+        <v>638</v>
       </c>
       <c r="L53" t="s">
-        <v>565</v>
+        <v>639</v>
       </c>
       <c r="M53" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="7:11">
       <c r="G54" t="s">
-        <v>567</v>
+        <v>641</v>
       </c>
       <c r="K54" t="s">
-        <v>568</v>
+        <v>642</v>
       </c>
     </row>
     <row r="55" spans="3:11">
       <c r="C55" t="s">
-        <v>569</v>
+        <v>643</v>
       </c>
       <c r="D55" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
       <c r="G55" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
       <c r="K55" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
     </row>
     <row r="56" spans="3:11">
       <c r="C56" t="s">
-        <v>573</v>
+        <v>647</v>
       </c>
       <c r="G56" t="s">
-        <v>574</v>
+        <v>648</v>
       </c>
       <c r="K56" t="s">
-        <v>575</v>
+        <v>649</v>
       </c>
     </row>
     <row r="57" spans="3:11">
       <c r="C57" t="s">
-        <v>576</v>
+        <v>650</v>
       </c>
       <c r="G57" t="s">
-        <v>577</v>
+        <v>651</v>
       </c>
       <c r="K57" t="s">
-        <v>578</v>
+        <v>652</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>579</v>
+        <v>653</v>
       </c>
       <c r="C58" t="s">
-        <v>580</v>
+        <v>654</v>
       </c>
       <c r="G58" t="s">
-        <v>581</v>
+        <v>655</v>
       </c>
       <c r="K58" t="s">
-        <v>582</v>
+        <v>656</v>
       </c>
     </row>
     <row r="59" spans="2:14">
       <c r="B59" t="s">
-        <v>583</v>
+        <v>657</v>
       </c>
       <c r="C59" t="s">
-        <v>584</v>
+        <v>658</v>
       </c>
       <c r="G59" t="s">
-        <v>585</v>
+        <v>659</v>
       </c>
       <c r="K59" t="s">
-        <v>586</v>
+        <v>660</v>
       </c>
       <c r="L59" t="s">
-        <v>587</v>
+        <v>661</v>
       </c>
       <c r="M59" t="s">
-        <v>588</v>
+        <v>662</v>
       </c>
       <c r="N59" t="s">
-        <v>589</v>
+        <v>663</v>
       </c>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" t="s">
-        <v>590</v>
+        <v>664</v>
       </c>
       <c r="G60" t="s">
-        <v>591</v>
+        <v>665</v>
       </c>
       <c r="L60" t="s">
-        <v>592</v>
+        <v>666</v>
       </c>
       <c r="M60" t="s">
-        <v>593</v>
+        <v>667</v>
       </c>
       <c r="N60" t="s">
-        <v>594</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" spans="2:12">
       <c r="B61" t="s">
-        <v>595</v>
+        <v>669</v>
       </c>
       <c r="G61" t="s">
-        <v>596</v>
+        <v>670</v>
       </c>
       <c r="K61" t="s">
-        <v>597</v>
+        <v>671</v>
       </c>
       <c r="L61" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
       <c r="B62" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
       <c r="C62" t="s">
-        <v>601</v>
+        <v>675</v>
       </c>
       <c r="D62" t="s">
-        <v>393</v>
+        <v>467</v>
       </c>
       <c r="E62" t="s">
-        <v>602</v>
+        <v>676</v>
       </c>
       <c r="F62" t="s">
-        <v>603</v>
+        <v>677</v>
       </c>
       <c r="G62" t="s">
-        <v>604</v>
+        <v>678</v>
       </c>
     </row>
     <row r="63" spans="3:11">
       <c r="C63" t="s">
-        <v>605</v>
+        <v>679</v>
       </c>
       <c r="D63" t="s">
-        <v>606</v>
+        <v>680</v>
       </c>
       <c r="G63" t="s">
-        <v>607</v>
+        <v>681</v>
       </c>
       <c r="K63" t="s">
-        <v>608</v>
+        <v>682</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>609</v>
+        <v>683</v>
       </c>
       <c r="B64" t="s">
-        <v>610</v>
+        <v>684</v>
       </c>
       <c r="C64" t="s">
-        <v>611</v>
+        <v>685</v>
       </c>
       <c r="G64" t="s">
-        <v>612</v>
+        <v>686</v>
       </c>
     </row>
     <row r="65" spans="2:14">
       <c r="B65" t="s">
-        <v>613</v>
+        <v>687</v>
       </c>
       <c r="C65" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="G65" t="s">
-        <v>615</v>
+        <v>689</v>
       </c>
       <c r="K65" t="s">
-        <v>616</v>
+        <v>690</v>
       </c>
       <c r="L65" t="s">
-        <v>617</v>
+        <v>691</v>
       </c>
       <c r="M65" t="s">
-        <v>618</v>
+        <v>692</v>
       </c>
       <c r="N65" t="s">
-        <v>619</v>
+        <v>693</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" t="s">
-        <v>620</v>
+        <v>694</v>
       </c>
       <c r="C66" t="s">
-        <v>621</v>
+        <v>695</v>
       </c>
       <c r="K66" t="s">
-        <v>622</v>
+        <v>696</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>623</v>
+        <v>697</v>
       </c>
       <c r="C67" t="s">
-        <v>624</v>
+        <v>698</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
-        <v>625</v>
+        <v>699</v>
       </c>
       <c r="K68" t="s">
-        <v>626</v>
+        <v>700</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" t="s">
-        <v>627</v>
+        <v>701</v>
       </c>
       <c r="K69" t="s">
-        <v>628</v>
+        <v>702</v>
       </c>
     </row>
     <row r="70" spans="3:11">
       <c r="C70" t="s">
-        <v>629</v>
+        <v>703</v>
       </c>
       <c r="K70" t="s">
-        <v>630</v>
+        <v>704</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>631</v>
+        <v>705</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>632</v>
+        <v>706</v>
       </c>
       <c r="C72" t="s">
-        <v>633</v>
+        <v>707</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
       <c r="C73" t="s">
-        <v>635</v>
+        <v>709</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>636</v>
+        <v>710</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>637</v>
+        <v>711</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="C76" t="s">
-        <v>639</v>
+        <v>713</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2"/>
       <c r="C77" t="s">
-        <v>640</v>
+        <v>714</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>642</v>
+        <v>716</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>644</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5239,7 +5591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:S62"/>
@@ -5255,354 +5607,354 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>645</v>
+        <v>719</v>
       </c>
       <c r="B1" t="s">
-        <v>646</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>647</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>648</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>649</v>
+        <v>723</v>
       </c>
       <c r="B4" t="s">
-        <v>646</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>650</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>651</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>652</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>653</v>
+        <v>727</v>
       </c>
     </row>
     <row r="9" spans="16:19">
       <c r="P9" t="s">
-        <v>654</v>
+        <v>728</v>
       </c>
       <c r="Q9" t="s">
-        <v>655</v>
+        <v>729</v>
       </c>
       <c r="R9" t="s">
-        <v>656</v>
+        <v>730</v>
       </c>
       <c r="S9" t="s">
-        <v>657</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="11:19">
       <c r="K10" t="s">
-        <v>658</v>
+        <v>732</v>
       </c>
       <c r="L10" t="s">
-        <v>659</v>
+        <v>733</v>
       </c>
       <c r="M10" t="s">
-        <v>660</v>
+        <v>734</v>
       </c>
       <c r="P10" t="s">
-        <v>661</v>
+        <v>735</v>
       </c>
       <c r="Q10" t="s">
-        <v>662</v>
+        <v>736</v>
       </c>
       <c r="S10" t="s">
-        <v>663</v>
+        <v>737</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" t="s">
-        <v>664</v>
+        <v>738</v>
       </c>
       <c r="L11" t="s">
-        <v>665</v>
+        <v>739</v>
       </c>
       <c r="M11" t="s">
-        <v>666</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="12:14">
       <c r="L12" t="s">
-        <v>648</v>
+        <v>722</v>
       </c>
       <c r="M12" t="s">
-        <v>667</v>
+        <v>741</v>
       </c>
       <c r="N12" t="s">
-        <v>668</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="13:15">
       <c r="M13" t="s">
-        <v>669</v>
+        <v>743</v>
       </c>
       <c r="N13" t="s">
-        <v>670</v>
+        <v>744</v>
       </c>
       <c r="O13" t="s">
-        <v>671</v>
+        <v>745</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>672</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>673</v>
+        <v>747</v>
       </c>
       <c r="B15" t="s">
-        <v>674</v>
+        <v>748</v>
       </c>
       <c r="L15" t="s">
-        <v>675</v>
+        <v>749</v>
       </c>
       <c r="N15" t="s">
-        <v>676</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>677</v>
+        <v>751</v>
       </c>
       <c r="B16" t="s">
-        <v>677</v>
+        <v>751</v>
       </c>
       <c r="C16" t="s">
-        <v>678</v>
+        <v>752</v>
       </c>
       <c r="N16" t="s">
-        <v>679</v>
+        <v>753</v>
       </c>
       <c r="P16" t="s">
-        <v>680</v>
+        <v>754</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>681</v>
+        <v>755</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>682</v>
+        <v>756</v>
       </c>
       <c r="K18" t="s">
-        <v>683</v>
+        <v>757</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>684</v>
+        <v>758</v>
       </c>
       <c r="P21" t="s">
-        <v>685</v>
+        <v>759</v>
       </c>
       <c r="Q21" t="s">
-        <v>686</v>
+        <v>760</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>687</v>
+        <v>761</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>688</v>
+        <v>762</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>689</v>
+        <v>763</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>690</v>
+        <v>764</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>691</v>
+        <v>765</v>
       </c>
       <c r="G29" t="s">
-        <v>692</v>
+        <v>766</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>693</v>
+        <v>767</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>694</v>
+        <v>768</v>
       </c>
     </row>
     <row r="36" spans="7:9">
       <c r="G36" t="s">
-        <v>695</v>
+        <v>769</v>
       </c>
       <c r="I36" t="s">
-        <v>696</v>
+        <v>770</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>697</v>
+        <v>771</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>698</v>
+        <v>772</v>
       </c>
     </row>
     <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>699</v>
+        <v>773</v>
       </c>
     </row>
     <row r="41" spans="7:9">
       <c r="G41" t="s">
-        <v>700</v>
+        <v>774</v>
       </c>
       <c r="H41" t="s">
-        <v>701</v>
+        <v>775</v>
       </c>
       <c r="I41" t="s">
-        <v>702</v>
+        <v>776</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>703</v>
+        <v>777</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>704</v>
+        <v>778</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" t="s">
-        <v>705</v>
+        <v>779</v>
       </c>
       <c r="I44" t="s">
-        <v>706</v>
+        <v>780</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>707</v>
+        <v>781</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>708</v>
+        <v>782</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>709</v>
+        <v>783</v>
       </c>
     </row>
     <row r="48" spans="7:8">
       <c r="G48" t="s">
-        <v>710</v>
+        <v>784</v>
       </c>
       <c r="H48" t="s">
-        <v>711</v>
+        <v>785</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>712</v>
+        <v>786</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>713</v>
+        <v>787</v>
       </c>
       <c r="B50" t="s">
-        <v>714</v>
+        <v>788</v>
       </c>
       <c r="G50" t="s">
-        <v>715</v>
+        <v>789</v>
       </c>
       <c r="H50" t="s">
-        <v>716</v>
+        <v>790</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>717</v>
+        <v>791</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>718</v>
+        <v>792</v>
       </c>
       <c r="B53" t="s">
-        <v>719</v>
+        <v>793</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>720</v>
+        <v>794</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>721</v>
+        <v>795</v>
       </c>
       <c r="G56" t="s">
-        <v>722</v>
+        <v>796</v>
       </c>
       <c r="H56" t="s">
-        <v>723</v>
+        <v>797</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>724</v>
+        <v>798</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" t="s">
-        <v>647</v>
+        <v>721</v>
       </c>
       <c r="D61" t="s">
-        <v>725</v>
+        <v>799</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>726</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -5612,7 +5964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B2:C3"/>
@@ -5625,12 +5977,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>297</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>727</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -5645,83 +5997,86 @@
   <sheetPr/>
   <dimension ref="A2:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="4:8">
       <c r="D5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="5:10">
       <c r="E6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="9:9">
       <c r="I7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="6:12">
       <c r="F11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="4:6">
@@ -5729,51 +6084,51 @@
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="8:12">
       <c r="H18" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L18" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -5788,7 +6143,7 @@
   <sheetPr/>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H52" sqref="H52:H56"/>
     </sheetView>
   </sheetViews>
@@ -5800,481 +6155,481 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="N4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>160</v>
+        <v>165</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" t="s">
         <v>161</v>
-      </c>
-      <c r="C7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I7" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J8" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="7:11">
       <c r="G12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K12" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H13" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="8:8">
       <c r="H14" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="8:8">
       <c r="H15" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H16" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>177</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>178</v>
+        <v>183</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>184</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="10:10">
       <c r="J20" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="10:10">
       <c r="J21" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="12:15">
       <c r="L24" s="11" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="8:15">
       <c r="H25" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="I25" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="12:14">
       <c r="L26" s="11"/>
       <c r="M26" s="11" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:14">
       <c r="A27" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B27" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="11" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M28" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="J32" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" ht="36" spans="11:15">
-      <c r="K33" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
+      <c r="K33" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
     </row>
     <row r="34" ht="36" spans="11:15">
-      <c r="K34" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
+      <c r="K34" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
     </row>
     <row r="35" ht="36" spans="11:15">
-      <c r="K35" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
+      <c r="K35" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
     </row>
     <row r="36" ht="36" spans="11:15">
-      <c r="K36" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
+      <c r="K36" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
     </row>
     <row r="37" ht="120.75" spans="11:15">
-      <c r="K37" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="L37" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
+      <c r="K37" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="L37" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
     </row>
     <row r="38" ht="17.25" spans="4:11">
       <c r="D38" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="4:11">
       <c r="D39" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J39" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K39" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="4:11">
       <c r="D40" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E40" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K40" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="5:11">
       <c r="E41" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K41" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="5:11">
       <c r="E42" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K42" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="5:6">
       <c r="E44" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F44" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="4:5">
       <c r="D45" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E45" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="11:11">
       <c r="K46" s="8" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" ht="36.75" spans="8:11">
       <c r="H47" t="s">
-        <v>231</v>
-      </c>
-      <c r="K47" s="31" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="48" ht="48.75" spans="11:11">
-      <c r="K48" s="31" t="s">
-        <v>233</v>
+        <v>237</v>
+      </c>
+      <c r="K47" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" ht="36.75" spans="11:11">
+      <c r="K48" s="35" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="49" ht="61.5" spans="11:11">
-      <c r="K49" s="31" t="s">
-        <v>234</v>
+      <c r="K49" s="35" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="50" ht="27" spans="1:4">
-      <c r="A50" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
+      <c r="A50" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
     </row>
     <row r="51" ht="54" spans="1:4">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
     </row>
     <row r="54" ht="40.5" spans="1:4">
-      <c r="A54" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
+      <c r="A54" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B62" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6287,157 +6642,634 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A4:N40"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="36.875" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2" ht="51" spans="1:11">
+      <c r="A2" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+    </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="11:11">
-      <c r="K6" s="20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="K9" t="s">
-        <v>250</v>
-      </c>
-      <c r="L9" s="20" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="27" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="13" spans="7:11">
-      <c r="G13" s="20" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" ht="51" spans="1:11">
+      <c r="A10" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="26" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="14" spans="7:7">
-      <c r="G14" s="20" t="s">
+      <c r="B14" s="26" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="15" spans="7:7">
-      <c r="G15" s="20" t="s">
+      <c r="C14" s="26" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="17" ht="15.75" spans="3:3">
-      <c r="C17" s="21" t="s">
+      <c r="D14" s="26" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="18" ht="17.25" spans="3:12">
-      <c r="C18" s="14" t="s">
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="L18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="3:13">
-      <c r="C19" s="21" t="s">
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" ht="27" spans="1:11">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H16" s="26"/>
+      <c r="I16" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="J16" s="26" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="23" t="s">
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="21" ht="15.75" spans="3:3">
-      <c r="C21" s="21" t="s">
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" ht="27" spans="1:11">
+      <c r="A18" s="26" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="23" spans="14:14">
-      <c r="N23" t="s">
+      <c r="B18" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="24" spans="14:14">
-      <c r="N24" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="25" ht="15.75" spans="7:7">
-      <c r="G25" s="22" t="s">
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" ht="40.5" spans="1:11">
+      <c r="A22" s="26" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="26" ht="15.75" spans="7:7">
-      <c r="G26" s="22" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+    </row>
+    <row r="25" ht="54" spans="1:11">
+      <c r="A25" s="26" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="24" t="s">
+      <c r="B25" s="26" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="31" spans="10:10">
-      <c r="J31" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="32" spans="3:10">
-      <c r="C32" t="s">
+      <c r="E25" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F25" s="26" t="s">
         <v>270</v>
       </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" ht="40.5" spans="1:11">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+    </row>
+    <row r="30" ht="54" spans="1:11">
+      <c r="A30" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="H30" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+    </row>
+    <row r="31" ht="81" spans="1:11">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" t="s">
+        <v>284</v>
+      </c>
       <c r="J32" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="39" ht="18" spans="3:3">
-      <c r="C39" s="25" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="40" ht="17.25" spans="3:3">
-      <c r="C40" s="25" t="s">
-        <v>274</v>
+        <v>285</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" ht="85.5" spans="1:11">
+      <c r="A33" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+    </row>
+    <row r="34" ht="40.5" spans="1:11">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="K34" s="26"/>
+    </row>
+    <row r="35" ht="40.5" spans="4:10">
+      <c r="D35" t="s">
+        <v>294</v>
+      </c>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" t="s">
+        <v>297</v>
+      </c>
+      <c r="E36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E40" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9">
+      <c r="E41" t="s">
+        <v>302</v>
+      </c>
+      <c r="I41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" t="s">
+        <v>304</v>
+      </c>
+      <c r="E42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" ht="22" customHeight="1"/>
+    <row r="51" ht="12" customHeight="1"/>
+    <row r="52" ht="175.5" spans="2:3">
+      <c r="B52" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -6450,62 +7282,38 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B4:C14"/>
+  <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="2" max="2" width="32.1083333333333" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
-    <row r="4" spans="2:3">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" t="s">
-        <v>284</v>
-      </c>
-      <c r="C14" t="s">
-        <v>285</v>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -6518,102 +7326,53 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A5:E18"/>
+  <dimension ref="A2:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="H2:N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <cols>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="4:4">
-      <c r="D5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5">
-      <c r="D7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4">
-      <c r="D10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5">
-      <c r="D12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5">
-      <c r="D13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5">
-      <c r="D16" t="s">
-        <v>288</v>
-      </c>
-      <c r="E16">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" t="s">
-        <v>293</v>
-      </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" t="s">
-        <v>294</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="6:7">
+      <c r="F3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -6624,6 +7383,237 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B4:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="32.1083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A4:N40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="4" spans="1:11">
+      <c r="A4" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="11:11">
+      <c r="K6" s="20" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="K9" t="s">
+        <v>346</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="7:11">
+      <c r="G13" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" s="20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15" s="20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="3:3">
+      <c r="C17" s="21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="3:12">
+      <c r="C18" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="L18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="3:13">
+      <c r="C19" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="3:3">
+      <c r="C21" s="21" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="14:14">
+      <c r="N23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="14:14">
+      <c r="N24" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="7:7">
+      <c r="G25" s="22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="7:7">
+      <c r="G26" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="10:10">
+      <c r="J31" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" t="s">
+        <v>365</v>
+      </c>
+      <c r="D32" t="s">
+        <v>366</v>
+      </c>
+      <c r="J32" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" ht="18" spans="3:3">
+      <c r="C39" s="25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" spans="3:3">
+      <c r="C40" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -6638,47 +7628,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
-  <cols>
-    <col min="1" max="1" width="62.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" ht="72" spans="1:1">
-      <c r="A3" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/boxsite/idea.xlsx
+++ b/boxsite/idea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950" tabRatio="818" activeTab="5"/>
+    <workbookView windowWidth="20370" windowHeight="7950" tabRatio="818" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="找方向" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805">
   <si>
     <t>需求</t>
   </si>
@@ -973,6 +973,15 @@
 豌豆荚（下载量和安装量各1万）：60元/万
 小米应用商城：60元/万
 百度，91助手，安卓：30元/万</t>
+  </si>
+  <si>
+    <t>刷空间赞</t>
+  </si>
+  <si>
+    <t>1元500个</t>
+  </si>
+  <si>
+    <t>刷点评，美团</t>
   </si>
   <si>
     <t>旅游小助手</t>
@@ -2485,10 +2494,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3738,7 +3747,7 @@
   <sheetData>
     <row r="3" ht="72" spans="1:1">
       <c r="A3" s="19" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3764,7 +3773,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3772,22 +3781,22 @@
         <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -3812,12 +3821,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -3827,12 +3836,12 @@
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -3840,44 +3849,44 @@
         <v>2015</v>
       </c>
       <c r="D33" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G33" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H33" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="8:10">
       <c r="H37" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J37" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J40" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -3907,46 +3916,46 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="6:7">
       <c r="F3" s="11" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:15">
       <c r="A4" s="11" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="5:16">
@@ -3954,18 +3963,18 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E6" s="11">
         <v>1.2</v>
@@ -3973,18 +3982,18 @@
     </row>
     <row r="7" s="11" customFormat="1" spans="7:7">
       <c r="G7" s="11" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="4:12">
       <c r="D8" s="11" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E8" s="12">
         <v>0.002</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="7:8">
@@ -3992,39 +4001,39 @@
         <v>120</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" spans="8:17">
       <c r="H10" s="11" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="4:4">
       <c r="D11" s="11" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" s="11" customFormat="1" ht="22.5" spans="4:14">
       <c r="D13" s="11" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="22.5" spans="1:14">
@@ -4032,56 +4041,56 @@
         <v>0.9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="7:14">
       <c r="G15" s="11" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="5:16">
       <c r="E16" s="11" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="16:16">
       <c r="P17" s="11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" s="11" customFormat="1" spans="1:16">
       <c r="A18" s="11" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:16">
       <c r="A19" s="11" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>93</v>
@@ -4089,13 +4098,13 @@
     </row>
     <row r="20" s="11" customFormat="1" spans="1:13">
       <c r="A20" s="11" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="13:13">
@@ -4105,25 +4114,25 @@
     </row>
     <row r="22" s="11" customFormat="1" spans="9:9">
       <c r="I22" s="11" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="5:9">
       <c r="E23" s="11" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="9:9">
       <c r="I24" s="11" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="3:3">
       <c r="C27" s="11" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="4:12">
@@ -4131,30 +4140,30 @@
         <v>299</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="4:8">
       <c r="D29" s="11" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="2:19">
@@ -4163,16 +4172,16 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="M33" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="N33" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="O33" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P33" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -4184,17 +4193,17 @@
       <c r="D34"/>
       <c r="E34"/>
       <c r="I34" s="11" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -4208,20 +4217,20 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="J35" s="11" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="S35" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -4236,7 +4245,7 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="37" spans="13:19">
@@ -4250,7 +4259,7 @@
     </row>
     <row r="38" spans="13:19">
       <c r="M38" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -4271,13 +4280,13 @@
     <row r="41" ht="18.75" spans="2:13">
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="J41"/>
       <c r="K41" s="16" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -4285,7 +4294,7 @@
     <row r="42" spans="2:13">
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -4297,13 +4306,13 @@
     <row r="43" ht="37.5" spans="2:13">
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="J43"/>
       <c r="K43" s="16" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -4311,7 +4320,7 @@
     <row r="44" spans="2:13">
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -4323,13 +4332,13 @@
     <row r="45" ht="37.5" spans="2:13">
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="J45"/>
       <c r="K45" s="16" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
@@ -4339,7 +4348,7 @@
     <row r="46" spans="2:13">
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -4355,13 +4364,13 @@
       <c r="E47"/>
       <c r="J47"/>
       <c r="K47" s="16" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L47" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M47" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -4369,13 +4378,13 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="10:13">
@@ -4386,153 +4395,153 @@
     </row>
     <row r="50" spans="10:13">
       <c r="J50" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K50" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="10:13">
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="10:13">
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="10:13">
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L53" t="s">
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54" spans="10:13">
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="1:1">
       <c r="A56" s="14" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" ht="13.5" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B59" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C59" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D59" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" ht="13.5" spans="1:6">
       <c r="A60" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B60" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C60" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D60" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E60" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F60" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="61" ht="13.5" spans="1:6">
       <c r="A61" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F61" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" ht="13.5" spans="1:6">
       <c r="A62" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B62" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C62" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F62"/>
     </row>
     <row r="63" ht="13.5" spans="1:6">
       <c r="A63" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B63" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F63"/>
     </row>
     <row r="64" ht="13.5" spans="1:6">
       <c r="A64" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B64" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -4549,15 +4558,15 @@
     </row>
     <row r="67" ht="17.25" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69" ht="293.25" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="71" spans="2:2">
@@ -4586,107 +4595,107 @@
   <sheetData>
     <row r="2" spans="14:14">
       <c r="N2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C4" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D5" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="J5" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="4:10">
       <c r="D6" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="J6" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="J7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D8" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="J8" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C10" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D11" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D12" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -4694,95 +4703,95 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="J15" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K15" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D17" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K17" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C19" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="8" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C21" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H24" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H25" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:4">
       <c r="A29" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D29" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -4805,22 +4814,22 @@
   <sheetData>
     <row r="3" spans="5:5">
       <c r="E3" s="8" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -4935,653 +4944,653 @@
         <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="I4" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C6" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="J6" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B9" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="I9" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="9:10">
       <c r="I10" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J10" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="9:11">
       <c r="I11" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="J11" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K11" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B13" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C13" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="I13" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="J13" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C15" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="I15" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D20" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E20" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B25" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C27" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D27" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C28" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D28" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D29" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D30" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C31" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D31" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D32" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E33" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B46" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C46" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D46" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E46" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="F46" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="G46" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="H46" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="J46" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="F47" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="K47" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C48" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="G48" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="K48" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="L48" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="G49" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="K49" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="G50" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="K50" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="L50" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="G51" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="K51" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="52" spans="7:11">
       <c r="G52" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="K52" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="53" spans="3:13">
       <c r="C53" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="G53" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="K53" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="L53" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="M53" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="7:11">
       <c r="G54" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="K54" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="55" spans="3:11">
       <c r="C55" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D55" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="G55" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="K55" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="56" spans="3:11">
       <c r="C56" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="G56" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K56" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" spans="3:11">
       <c r="C57" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="G57" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="K57" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C58" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="G58" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="K58" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="59" spans="2:14">
       <c r="B59" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C59" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="G59" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="K59" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="L59" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="M59" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="N59" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="G60" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="L60" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="M60" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="N60" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="61" spans="2:12">
       <c r="B61" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="G61" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="K61" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="L61" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B62" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C62" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D62" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E62" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="F62" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="G62" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="63" spans="3:11">
       <c r="C63" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D63" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="G63" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K63" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B64" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C64" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="G64" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="65" spans="2:14">
       <c r="B65" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C65" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="G65" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="K65" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L65" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="M65" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="N65" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C66" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="K66" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C67" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="K68" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="K69" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="70" spans="3:11">
       <c r="C70" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="K70" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C72" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C73" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C76" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2"/>
       <c r="C77" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -5607,354 +5616,354 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B1" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B4" t="s">
         <v>723</v>
-      </c>
-      <c r="B4" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="9" spans="16:19">
       <c r="P9" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="Q9" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="R9" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="S9" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="11:19">
       <c r="K10" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L10" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="M10" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="P10" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="Q10" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="S10" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="L11" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="M11" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="12" spans="12:14">
       <c r="L12" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="M12" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="N12" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="13" spans="13:15">
       <c r="M13" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="N13" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="O13" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B15" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="L15" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="N15" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B16" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C16" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="N16" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="P16" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="K18" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="P21" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="Q21" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="G29" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="36" spans="7:9">
       <c r="G36" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="I36" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="41" spans="7:9">
       <c r="G41" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="H41" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="I41" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="I44" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="48" spans="7:8">
       <c r="G48" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="H48" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B50" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="G50" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="H50" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B53" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="G56" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="H56" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="D61" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -5977,12 +5986,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
   </sheetData>
@@ -6527,7 +6536,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" ht="36.75" spans="11:11">
+    <row r="48" ht="48.75" spans="11:11">
       <c r="K48" s="35" t="s">
         <v>239</v>
       </c>
@@ -6642,10 +6651,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7270,6 +7279,19 @@
       </c>
       <c r="C52" s="30" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>312</v>
+      </c>
+      <c r="C55" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -7292,28 +7314,28 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -7328,7 +7350,7 @@
   <sheetPr/>
   <dimension ref="A2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -7339,40 +7361,40 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="6:7">
       <c r="F3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -7398,49 +7420,49 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C14" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -7455,7 +7477,7 @@
   <sheetPr/>
   <dimension ref="A4:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -7463,67 +7485,67 @@
   <sheetData>
     <row r="4" spans="1:11">
       <c r="A4" s="20" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="11:11">
       <c r="K6" s="20" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="20" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="20" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="7:11">
       <c r="G13" s="20" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" s="20" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" s="20" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="3:3">
       <c r="C17" s="21" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="3:12">
       <c r="C18" s="14" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L18" t="s">
         <v>131</v>
@@ -7531,79 +7553,79 @@
     </row>
     <row r="19" ht="15.75" spans="3:13">
       <c r="C19" s="21" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="23" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="3:3">
       <c r="C21" s="21" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="7:7">
       <c r="G25" s="22" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="7:7">
       <c r="G26" s="22" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="24" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D32" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="J32" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" ht="18" spans="3:3">
       <c r="C39" s="25" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="3:3">
       <c r="C40" s="25" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/boxsite/idea.xlsx
+++ b/boxsite/idea.xlsx
@@ -4,35 +4,36 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950" tabRatio="818" activeTab="3"/>
+    <workbookView windowWidth="20400" windowHeight="8370" tabRatio="818" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="找方向" sheetId="1" r:id="rId1"/>
     <sheet name="搞钱" sheetId="2" r:id="rId2"/>
     <sheet name="找项目" sheetId="3" r:id="rId3"/>
-    <sheet name="技术刷榜" sheetId="4" r:id="rId4"/>
-    <sheet name="小APP" sheetId="5" r:id="rId5"/>
-    <sheet name="信息搜索整理" sheetId="6" r:id="rId6"/>
-    <sheet name="备用点子" sheetId="7" r:id="rId7"/>
-    <sheet name="互联网营销" sheetId="8" r:id="rId8"/>
-    <sheet name="奇点_IOT" sheetId="9" r:id="rId9"/>
-    <sheet name="奇点_人工智能" sheetId="10" r:id="rId10"/>
-    <sheet name="奇点_大数据" sheetId="11" r:id="rId11"/>
-    <sheet name="新点子" sheetId="12" r:id="rId12"/>
-    <sheet name="点子_微信营销" sheetId="13" r:id="rId13"/>
-    <sheet name="点子_手机电商" sheetId="14" r:id="rId14"/>
-    <sheet name="在线教育" sheetId="15" r:id="rId15"/>
-    <sheet name="o2o" sheetId="16" r:id="rId16"/>
-    <sheet name="医疗健康" sheetId="17" r:id="rId17"/>
-    <sheet name="网站聚合" sheetId="18" r:id="rId18"/>
-    <sheet name="旅游" sheetId="19" r:id="rId19"/>
+    <sheet name="消费者图片仪" sheetId="4" r:id="rId4"/>
+    <sheet name="技术刷榜" sheetId="5" r:id="rId5"/>
+    <sheet name="小APP" sheetId="6" r:id="rId6"/>
+    <sheet name="信息搜索整理" sheetId="7" r:id="rId7"/>
+    <sheet name="备用点子" sheetId="8" r:id="rId8"/>
+    <sheet name="互联网营销" sheetId="9" r:id="rId9"/>
+    <sheet name="奇点_IOT" sheetId="10" r:id="rId10"/>
+    <sheet name="奇点_人工智能" sheetId="11" r:id="rId11"/>
+    <sheet name="奇点_大数据" sheetId="12" r:id="rId12"/>
+    <sheet name="新点子" sheetId="13" r:id="rId13"/>
+    <sheet name="点子_微信营销" sheetId="14" r:id="rId14"/>
+    <sheet name="点子_手机电商" sheetId="15" r:id="rId15"/>
+    <sheet name="在线教育" sheetId="16" r:id="rId16"/>
+    <sheet name="o2o" sheetId="17" r:id="rId17"/>
+    <sheet name="医疗健康" sheetId="18" r:id="rId18"/>
+    <sheet name="网站聚合" sheetId="19" r:id="rId19"/>
+    <sheet name="旅游" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813">
   <si>
     <t>需求</t>
   </si>
@@ -779,6 +780,30 @@
   </si>
   <si>
     <t>产品运营的竞争优势</t>
+  </si>
+  <si>
+    <t>热点采集</t>
+  </si>
+  <si>
+    <t>消费者</t>
+  </si>
+  <si>
+    <t>行为采集</t>
+  </si>
+  <si>
+    <t>定向对接商品</t>
+  </si>
+  <si>
+    <t>社交平台分析</t>
+  </si>
+  <si>
+    <t>购买动机</t>
+  </si>
+  <si>
+    <t>价格动态变化</t>
+  </si>
+  <si>
+    <t>购买时机</t>
   </si>
   <si>
     <t>技术刷榜</t>
@@ -3720,6 +3745,23 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3731,7 +3773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A3"/>
@@ -3747,7 +3789,7 @@
   <sheetData>
     <row r="3" ht="72" spans="1:1">
       <c r="A3" s="19" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3757,7 +3799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A2:J44"/>
@@ -3773,30 +3815,30 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -3821,12 +3863,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -3836,12 +3878,12 @@
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -3849,44 +3891,44 @@
         <v>2015</v>
       </c>
       <c r="D33" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="G33" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="H33" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="8:10">
       <c r="H37" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="J37" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="J40" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -3896,7 +3938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:S71"/>
@@ -3916,46 +3958,46 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="6:7">
       <c r="F3" s="11" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:15">
       <c r="A4" s="11" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="5:16">
@@ -3963,18 +4005,18 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="E6" s="11">
         <v>1.2</v>
@@ -3982,18 +4024,18 @@
     </row>
     <row r="7" s="11" customFormat="1" spans="7:7">
       <c r="G7" s="11" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="4:12">
       <c r="D8" s="11" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E8" s="12">
         <v>0.002</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="7:8">
@@ -4001,39 +4043,39 @@
         <v>120</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" spans="8:17">
       <c r="H10" s="11" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="4:4">
       <c r="D11" s="11" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" s="11" customFormat="1" ht="22.5" spans="4:14">
       <c r="D13" s="11" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="22.5" spans="1:14">
@@ -4041,56 +4083,56 @@
         <v>0.9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="7:14">
       <c r="G15" s="11" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="5:16">
       <c r="E16" s="11" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="16:16">
       <c r="P17" s="11" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" s="11" customFormat="1" spans="1:16">
       <c r="A18" s="11" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:16">
       <c r="A19" s="11" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>93</v>
@@ -4098,13 +4140,13 @@
     </row>
     <row r="20" s="11" customFormat="1" spans="1:13">
       <c r="A20" s="11" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="13:13">
@@ -4114,56 +4156,56 @@
     </row>
     <row r="22" s="11" customFormat="1" spans="9:9">
       <c r="I22" s="11" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="5:9">
       <c r="E23" s="11" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="9:9">
       <c r="I24" s="11" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="3:3">
       <c r="C27" s="11" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="4:12">
       <c r="D28" s="11" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="4:8">
       <c r="D29" s="11" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="2:19">
@@ -4172,16 +4214,16 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="M33" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="N33" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="O33" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="P33" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -4193,17 +4235,17 @@
       <c r="D34"/>
       <c r="E34"/>
       <c r="I34" s="11" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -4217,20 +4259,20 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="J35" s="11" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="S35" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -4245,7 +4287,7 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="13:19">
@@ -4259,7 +4301,7 @@
     </row>
     <row r="38" spans="13:19">
       <c r="M38" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -4280,13 +4322,13 @@
     <row r="41" ht="18.75" spans="2:13">
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="J41"/>
       <c r="K41" s="16" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -4294,7 +4336,7 @@
     <row r="42" spans="2:13">
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -4306,13 +4348,13 @@
     <row r="43" ht="37.5" spans="2:13">
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="J43"/>
       <c r="K43" s="16" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -4320,7 +4362,7 @@
     <row r="44" spans="2:13">
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -4332,13 +4374,13 @@
     <row r="45" ht="37.5" spans="2:13">
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="J45"/>
       <c r="K45" s="16" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
@@ -4348,7 +4390,7 @@
     <row r="46" spans="2:13">
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -4364,13 +4406,13 @@
       <c r="E47"/>
       <c r="J47"/>
       <c r="K47" s="16" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="L47" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="M47" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -4378,13 +4420,13 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="10:13">
@@ -4395,153 +4437,153 @@
     </row>
     <row r="50" spans="10:13">
       <c r="J50" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="K50" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51" spans="10:13">
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52" spans="10:13">
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="10:13">
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="L53" t="s">
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="10:13">
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="1:1">
       <c r="A56" s="14" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="59" ht="13.5" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B59" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="C59" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D59" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" ht="13.5" spans="1:6">
       <c r="A60" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B60" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C60" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D60" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="E60" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="F60" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="61" ht="13.5" spans="1:6">
       <c r="A61" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="F61" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62" ht="13.5" spans="1:6">
       <c r="A62" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B62" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C62" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F62"/>
     </row>
     <row r="63" ht="13.5" spans="1:6">
       <c r="A63" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B63" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="F63"/>
     </row>
     <row r="64" ht="13.5" spans="1:6">
       <c r="A64" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B64" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -4558,15 +4600,15 @@
     </row>
     <row r="67" ht="17.25" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="69" ht="293.25" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="71" spans="2:2">
@@ -4579,7 +4621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A2:N29"/>
@@ -4595,107 +4637,107 @@
   <sheetData>
     <row r="2" spans="14:14">
       <c r="N2" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="C4" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D5" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="J5" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="K5" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="4:10">
       <c r="D6" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="J6" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="J7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="D8" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="J8" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C10" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D11" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="D12" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -4703,95 +4745,95 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="J15" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="K15" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="D17" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="K17" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="C19" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="8" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C21" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="H24" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="H25" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:4">
       <c r="A29" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="D29" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -4801,7 +4843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A3:E7"/>
@@ -4814,22 +4856,22 @@
   <sheetData>
     <row r="3" spans="5:5">
       <c r="E3" s="8" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -4839,7 +4881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B1:N166"/>
@@ -4928,7 +4970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N84"/>
@@ -4944,653 +4986,653 @@
         <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="B3" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="I4" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C6" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="J6" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B9" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="I9" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="9:10">
       <c r="I10" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="J10" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="9:11">
       <c r="I11" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="J11" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="K11" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="B13" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="C13" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="I13" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="J13" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="C15" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="I15" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="D20" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="E20" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B25" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="C27" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="D27" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="C28" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="D28" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="D29" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="D30" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="C31" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="D31" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="D32" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="E33" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="B46" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="C46" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="D46" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="E46" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="F46" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="G46" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="H46" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="J46" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="F47" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="K47" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="C48" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="G48" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="K48" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="L48" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="G49" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="K49" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="G50" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="K50" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="L50" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="G51" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="K51" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="52" spans="7:11">
       <c r="G52" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="K52" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="53" spans="3:13">
       <c r="C53" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="G53" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="K53" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="L53" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="M53" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
     </row>
     <row r="54" spans="7:11">
       <c r="G54" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="K54" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
     </row>
     <row r="55" spans="3:11">
       <c r="C55" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="D55" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="G55" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="K55" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
     </row>
     <row r="56" spans="3:11">
       <c r="C56" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="G56" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="K56" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
     </row>
     <row r="57" spans="3:11">
       <c r="C57" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="G57" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="K57" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="C58" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="G58" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="K58" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
     </row>
     <row r="59" spans="2:14">
       <c r="B59" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="C59" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="G59" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="K59" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="L59" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="M59" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="N59" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="G60" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="L60" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="M60" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="N60" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
     </row>
     <row r="61" spans="2:12">
       <c r="B61" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="G61" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="K61" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="L61" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="B62" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="C62" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="D62" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E62" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="F62" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="G62" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
     </row>
     <row r="63" spans="3:11">
       <c r="C63" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="D63" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="G63" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="K63" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="B64" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="C64" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="G64" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
     </row>
     <row r="65" spans="2:14">
       <c r="B65" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="C65" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="G65" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="K65" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="L65" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="M65" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="N65" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="C66" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="K66" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="C67" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="K68" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="K69" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
     </row>
     <row r="70" spans="3:11">
       <c r="C70" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="K70" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="C72" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="C73" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="C76" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2"/>
       <c r="C77" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -5600,7 +5642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:S62"/>
@@ -5616,382 +5658,354 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="B1" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="B4" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
     </row>
     <row r="9" spans="16:19">
       <c r="P9" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="Q9" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="R9" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="S9" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="11:19">
       <c r="K10" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="L10" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="M10" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="P10" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="Q10" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="S10" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="L11" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="M11" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="12:14">
       <c r="L12" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="M12" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="N12" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="13:15">
       <c r="M13" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="N13" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="O13" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="B15" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="L15" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="N15" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="B16" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="C16" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="N16" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="P16" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="K18" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="P21" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="Q21" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="G29" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
     </row>
     <row r="36" spans="7:9">
       <c r="G36" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="I36" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
     </row>
     <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
     </row>
     <row r="41" spans="7:9">
       <c r="G41" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="H41" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="I41" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="I44" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
     </row>
     <row r="48" spans="7:8">
       <c r="G48" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="H48" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="B50" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="G50" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="H50" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="B53" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="G56" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="H56" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="D61" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>803</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B2:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3">
-      <c r="C3" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -6147,6 +6161,34 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
@@ -6536,7 +6578,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" ht="48.75" spans="11:11">
+    <row r="48" ht="36.75" spans="11:11">
       <c r="K48" s="35" t="s">
         <v>239</v>
       </c>
@@ -6651,9 +6693,61 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A3:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -6667,7 +6761,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="26" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -6682,7 +6776,7 @@
     </row>
     <row r="2" ht="51" spans="1:11">
       <c r="A2" s="27" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -6749,7 +6843,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="27" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -6790,7 +6884,7 @@
     </row>
     <row r="10" ht="51" spans="1:11">
       <c r="A10" s="27" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -6844,16 +6938,16 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="26" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -6873,7 +6967,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
@@ -6886,14 +6980,14 @@
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="26" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="K16" s="26"/>
     </row>
@@ -6905,7 +6999,7 @@
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -6914,19 +7008,19 @@
     </row>
     <row r="18" ht="27" spans="1:11">
       <c r="A18" s="26" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
@@ -6974,7 +7068,7 @@
     </row>
     <row r="22" ht="40.5" spans="1:11">
       <c r="A22" s="26" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -7015,20 +7109,20 @@
     </row>
     <row r="25" ht="54" spans="1:11">
       <c r="A25" s="26" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
@@ -7054,10 +7148,10 @@
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -7088,17 +7182,17 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
     </row>
     <row r="30" ht="54" spans="1:11">
       <c r="A30" s="28" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
@@ -7106,10 +7200,10 @@
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
       <c r="H30" s="26" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -7119,22 +7213,22 @@
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
       <c r="H31" s="26" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="I31" s="26"/>
       <c r="J31" s="26" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -7143,37 +7237,37 @@
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="J32" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" ht="85.5" spans="1:11">
       <c r="A33" s="29" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
@@ -7183,115 +7277,115 @@
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="K34" s="26"/>
     </row>
     <row r="35" ht="40.5" spans="4:10">
       <c r="D35" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="26" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="4:5">
       <c r="D36" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E36" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="D40" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="E40" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="I41" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="4:5">
       <c r="D42" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E42" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" ht="22" customHeight="1"/>
     <row r="51" ht="12" customHeight="1"/>
     <row r="52" ht="175.5" spans="2:3">
       <c r="B52" s="26" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C55" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -7301,7 +7395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A3:C8"/>
@@ -7314,28 +7408,28 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C8" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -7345,7 +7439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A2:H7"/>
@@ -7361,40 +7455,40 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F2" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="6:7">
       <c r="F3" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G3" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="G4" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -7404,7 +7498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B4:C14"/>
@@ -7420,49 +7514,49 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C4" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C6" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C14" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -7472,7 +7566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A4:N40"/>
@@ -7485,67 +7579,67 @@
   <sheetData>
     <row r="4" spans="1:11">
       <c r="A4" s="20" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="11:11">
       <c r="K6" s="20" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="20" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="20" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="K9" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="7:11">
       <c r="G13" s="20" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" s="20" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" s="20" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="3:3">
       <c r="C17" s="21" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="3:12">
       <c r="C18" s="14" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="L18" t="s">
         <v>131</v>
@@ -7553,79 +7647,79 @@
     </row>
     <row r="19" ht="15.75" spans="3:13">
       <c r="C19" s="21" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="23" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="3:3">
       <c r="C21" s="21" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="7:7">
       <c r="G25" s="22" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="7:7">
       <c r="G26" s="22" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="24" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D32" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="J32" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" ht="18" spans="3:3">
       <c r="C39" s="25" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="3:3">
       <c r="C40" s="25" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -7633,21 +7727,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/boxsite/idea.xlsx
+++ b/boxsite/idea.xlsx
@@ -4,36 +4,37 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370" tabRatio="818" activeTab="3"/>
+    <workbookView windowWidth="20370" windowHeight="7950" tabRatio="818" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="找方向" sheetId="1" r:id="rId1"/>
     <sheet name="搞钱" sheetId="2" r:id="rId2"/>
     <sheet name="找项目" sheetId="3" r:id="rId3"/>
-    <sheet name="消费者图片仪" sheetId="4" r:id="rId4"/>
-    <sheet name="技术刷榜" sheetId="5" r:id="rId5"/>
-    <sheet name="小APP" sheetId="6" r:id="rId6"/>
-    <sheet name="信息搜索整理" sheetId="7" r:id="rId7"/>
-    <sheet name="备用点子" sheetId="8" r:id="rId8"/>
-    <sheet name="互联网营销" sheetId="9" r:id="rId9"/>
-    <sheet name="奇点_IOT" sheetId="10" r:id="rId10"/>
-    <sheet name="奇点_人工智能" sheetId="11" r:id="rId11"/>
-    <sheet name="奇点_大数据" sheetId="12" r:id="rId12"/>
-    <sheet name="新点子" sheetId="13" r:id="rId13"/>
-    <sheet name="点子_微信营销" sheetId="14" r:id="rId14"/>
-    <sheet name="点子_手机电商" sheetId="15" r:id="rId15"/>
-    <sheet name="在线教育" sheetId="16" r:id="rId16"/>
-    <sheet name="o2o" sheetId="17" r:id="rId17"/>
-    <sheet name="医疗健康" sheetId="18" r:id="rId18"/>
-    <sheet name="网站聚合" sheetId="19" r:id="rId19"/>
-    <sheet name="旅游" sheetId="20" r:id="rId20"/>
+    <sheet name="科技资讯" sheetId="4" r:id="rId4"/>
+    <sheet name="消费者图片仪" sheetId="5" r:id="rId5"/>
+    <sheet name="技术刷榜" sheetId="6" r:id="rId6"/>
+    <sheet name="小APP" sheetId="7" r:id="rId7"/>
+    <sheet name="信息搜索整理" sheetId="8" r:id="rId8"/>
+    <sheet name="备用点子" sheetId="9" r:id="rId9"/>
+    <sheet name="互联网营销" sheetId="10" r:id="rId10"/>
+    <sheet name="奇点_IOT" sheetId="11" r:id="rId11"/>
+    <sheet name="奇点_人工智能" sheetId="12" r:id="rId12"/>
+    <sheet name="奇点_大数据" sheetId="13" r:id="rId13"/>
+    <sheet name="新点子" sheetId="14" r:id="rId14"/>
+    <sheet name="点子_微信营销" sheetId="15" r:id="rId15"/>
+    <sheet name="点子_手机电商" sheetId="16" r:id="rId16"/>
+    <sheet name="在线教育" sheetId="17" r:id="rId17"/>
+    <sheet name="o2o" sheetId="18" r:id="rId18"/>
+    <sheet name="医疗健康" sheetId="19" r:id="rId19"/>
+    <sheet name="网站聚合" sheetId="20" r:id="rId20"/>
+    <sheet name="旅游" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834">
   <si>
     <t>需求</t>
   </si>
@@ -780,6 +781,51 @@
   </si>
   <si>
     <t>产品运营的竞争优势</t>
+  </si>
+  <si>
+    <t>热点</t>
+  </si>
+  <si>
+    <t>行业从事人员</t>
+  </si>
+  <si>
+    <t>业界</t>
+  </si>
+  <si>
+    <t>推荐</t>
+  </si>
+  <si>
+    <t>风投</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>创业者</t>
+  </si>
+  <si>
+    <t>创投</t>
+  </si>
+  <si>
+    <t>八卦</t>
+  </si>
+  <si>
+    <t>巨头</t>
+  </si>
+  <si>
+    <t>酷</t>
+  </si>
+  <si>
+    <t>国际</t>
+  </si>
+  <si>
+    <t>人物</t>
+  </si>
+  <si>
+    <t>深度/专题</t>
+  </si>
+  <si>
+    <t>游戏</t>
   </si>
   <si>
     <t>热点采集</t>
@@ -1007,6 +1053,24 @@
   </si>
   <si>
     <t>刷点评，美团</t>
+  </si>
+  <si>
+    <t>网站搜</t>
+  </si>
+  <si>
+    <t>重数量</t>
+  </si>
+  <si>
+    <t>最美公众号</t>
+  </si>
+  <si>
+    <t>原创公众号</t>
+  </si>
+  <si>
+    <t>重质量</t>
+  </si>
+  <si>
+    <t>资讯早报</t>
   </si>
   <si>
     <t>旅游小助手</t>
@@ -2519,10 +2583,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3181,7 +3245,7 @@
   <sheetPr/>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="B53" sqref="B53:G57"/>
     </sheetView>
   </sheetViews>
@@ -3740,6 +3804,169 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A4:N40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="4" spans="1:11">
+      <c r="A4" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="11:11">
+      <c r="K6" s="20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="20" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="K9" t="s">
+        <v>378</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="7:11">
+      <c r="G13" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" s="20" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="3:3">
+      <c r="C17" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="3:12">
+      <c r="C18" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="L18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="3:13">
+      <c r="C19" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="3:3">
+      <c r="C21" s="21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="14:14">
+      <c r="N23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="14:14">
+      <c r="N24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="7:7">
+      <c r="G25" s="22" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="7:7">
+      <c r="G26" s="22" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="10:10">
+      <c r="J31" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" t="s">
+        <v>397</v>
+      </c>
+      <c r="D32" t="s">
+        <v>398</v>
+      </c>
+      <c r="J32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" ht="18" spans="3:3">
+      <c r="C39" s="25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" spans="3:3">
+      <c r="C40" s="25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -3756,7 +3983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -3773,7 +4000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A3"/>
@@ -3789,7 +4016,7 @@
   <sheetData>
     <row r="3" ht="72" spans="1:1">
       <c r="A3" s="19" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3799,7 +4026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A2:J44"/>
@@ -3815,30 +4042,30 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -3863,12 +4090,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -3878,12 +4105,12 @@
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -3891,44 +4118,44 @@
         <v>2015</v>
       </c>
       <c r="D33" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="G33" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="H33" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37" spans="8:10">
       <c r="H37" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="J37" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="J40" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -3938,7 +4165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:S71"/>
@@ -3958,46 +4185,46 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="6:7">
       <c r="F3" s="11" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:15">
       <c r="A4" s="11" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="5:16">
@@ -4005,18 +4232,18 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="E6" s="11">
         <v>1.2</v>
@@ -4024,18 +4251,18 @@
     </row>
     <row r="7" s="11" customFormat="1" spans="7:7">
       <c r="G7" s="11" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="4:12">
       <c r="D8" s="11" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="E8" s="12">
         <v>0.002</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="7:8">
@@ -4043,39 +4270,39 @@
         <v>120</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" spans="8:17">
       <c r="H10" s="11" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="4:4">
       <c r="D11" s="11" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" s="11" customFormat="1" ht="22.5" spans="4:14">
       <c r="D13" s="11" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="22.5" spans="1:14">
@@ -4083,56 +4310,56 @@
         <v>0.9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="7:14">
       <c r="G15" s="11" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="5:16">
       <c r="E16" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="P16" s="11" t="s">
         <v>433</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="16:16">
       <c r="P17" s="11" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" s="11" customFormat="1" spans="1:16">
       <c r="A18" s="11" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:16">
       <c r="A19" s="11" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>93</v>
@@ -4140,13 +4367,13 @@
     </row>
     <row r="20" s="11" customFormat="1" spans="1:13">
       <c r="A20" s="11" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="13:13">
@@ -4156,56 +4383,56 @@
     </row>
     <row r="22" s="11" customFormat="1" spans="9:9">
       <c r="I22" s="11" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="5:9">
       <c r="E23" s="11" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="9:9">
       <c r="I24" s="11" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="3:3">
       <c r="C27" s="11" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="4:12">
       <c r="D28" s="11" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="4:8">
       <c r="D29" s="11" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="2:19">
@@ -4214,16 +4441,16 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="M33" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="N33" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="O33" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="P33" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -4235,17 +4462,17 @@
       <c r="D34"/>
       <c r="E34"/>
       <c r="I34" s="11" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -4259,20 +4486,20 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="J35" s="11" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="S35" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -4287,7 +4514,7 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="13:19">
@@ -4301,7 +4528,7 @@
     </row>
     <row r="38" spans="13:19">
       <c r="M38" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -4322,13 +4549,13 @@
     <row r="41" ht="18.75" spans="2:13">
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="J41"/>
       <c r="K41" s="16" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -4336,7 +4563,7 @@
     <row r="42" spans="2:13">
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -4348,13 +4575,13 @@
     <row r="43" ht="37.5" spans="2:13">
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="J43"/>
       <c r="K43" s="16" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -4362,7 +4589,7 @@
     <row r="44" spans="2:13">
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -4374,13 +4601,13 @@
     <row r="45" ht="37.5" spans="2:13">
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="J45"/>
       <c r="K45" s="16" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
@@ -4390,7 +4617,7 @@
     <row r="46" spans="2:13">
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -4406,13 +4633,13 @@
       <c r="E47"/>
       <c r="J47"/>
       <c r="K47" s="16" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="L47" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="M47" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -4420,13 +4647,13 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
     </row>
     <row r="49" spans="10:13">
@@ -4437,153 +4664,153 @@
     </row>
     <row r="50" spans="10:13">
       <c r="J50" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="K50" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
     </row>
     <row r="51" spans="10:13">
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52" spans="10:13">
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53" spans="10:13">
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="L53" t="s">
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54" spans="10:13">
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="1:1">
       <c r="A56" s="14" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" ht="13.5" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="B59" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="C59" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="D59" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
     </row>
     <row r="60" ht="13.5" spans="1:6">
       <c r="A60" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="B60" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="C60" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="D60" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="E60" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="F60" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
     </row>
     <row r="61" ht="13.5" spans="1:6">
       <c r="A61" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="F61" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
     </row>
     <row r="62" ht="13.5" spans="1:6">
       <c r="A62" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="B62" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="C62" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="F62"/>
     </row>
     <row r="63" ht="13.5" spans="1:6">
       <c r="A63" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="B63" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="F63"/>
     </row>
     <row r="64" ht="13.5" spans="1:6">
       <c r="A64" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="B64" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -4600,15 +4827,15 @@
     </row>
     <row r="67" ht="17.25" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69" ht="293.25" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
     </row>
     <row r="71" spans="2:2">
@@ -4621,7 +4848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A2:N29"/>
@@ -4637,107 +4864,107 @@
   <sheetData>
     <row r="2" spans="14:14">
       <c r="N2" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="C4" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="D5" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="J5" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="K5" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="4:10">
       <c r="D6" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="J6" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="J7" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="D8" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="J8" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="C10" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="D11" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="D12" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -4745,95 +4972,95 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="J15" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="K15" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="D17" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="K17" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="C19" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="8" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="C21" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="H24" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="H25" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:4">
       <c r="A29" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="D29" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -4843,7 +5070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A3:E7"/>
@@ -4856,22 +5083,22 @@
   <sheetData>
     <row r="3" spans="5:5">
       <c r="E3" s="8" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -4881,7 +5108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B1:N166"/>
@@ -4970,7 +5197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N84"/>
@@ -4986,1026 +5213,653 @@
         <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="B3" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="I4" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="C6" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="J6" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="B9" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="I9" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="9:10">
       <c r="I10" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="J10" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="9:11">
       <c r="I11" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="J11" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="K11" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="B13" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="C13" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="I13" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="J13" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="C15" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="I15" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>590</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="D20" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="E20" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="B25" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="C27" t="s">
-        <v>602</v>
+        <v>623</v>
       </c>
       <c r="D27" t="s">
-        <v>603</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>604</v>
+        <v>625</v>
       </c>
       <c r="C28" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="D28" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>607</v>
+        <v>628</v>
       </c>
       <c r="D29" t="s">
-        <v>608</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="D30" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>611</v>
+        <v>632</v>
       </c>
       <c r="C31" t="s">
-        <v>612</v>
+        <v>633</v>
       </c>
       <c r="D31" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>614</v>
+        <v>635</v>
       </c>
       <c r="D32" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>616</v>
+        <v>637</v>
       </c>
       <c r="E33" t="s">
-        <v>617</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>618</v>
+        <v>639</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="B46" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="C46" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="D46" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="E46" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="F46" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
       <c r="G46" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="H46" t="s">
-        <v>626</v>
+        <v>647</v>
       </c>
       <c r="J46" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="F47" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="K47" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="C48" t="s">
-        <v>632</v>
+        <v>653</v>
       </c>
       <c r="G48" t="s">
-        <v>618</v>
+        <v>639</v>
       </c>
       <c r="K48" t="s">
-        <v>633</v>
+        <v>654</v>
       </c>
       <c r="L48" t="s">
-        <v>634</v>
+        <v>655</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>635</v>
+        <v>656</v>
       </c>
       <c r="G49" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="K49" t="s">
-        <v>637</v>
+        <v>658</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>638</v>
+        <v>659</v>
       </c>
       <c r="G50" t="s">
-        <v>639</v>
+        <v>660</v>
       </c>
       <c r="K50" t="s">
-        <v>640</v>
+        <v>661</v>
       </c>
       <c r="L50" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>642</v>
+        <v>663</v>
       </c>
       <c r="G51" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="K51" t="s">
-        <v>644</v>
+        <v>665</v>
       </c>
     </row>
     <row r="52" spans="7:11">
       <c r="G52" t="s">
-        <v>645</v>
+        <v>666</v>
       </c>
       <c r="K52" t="s">
-        <v>646</v>
+        <v>667</v>
       </c>
     </row>
     <row r="53" spans="3:13">
       <c r="C53" t="s">
-        <v>647</v>
+        <v>668</v>
       </c>
       <c r="G53" t="s">
-        <v>648</v>
+        <v>669</v>
       </c>
       <c r="K53" t="s">
-        <v>649</v>
+        <v>670</v>
       </c>
       <c r="L53" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
       <c r="M53" t="s">
-        <v>651</v>
+        <v>672</v>
       </c>
     </row>
     <row r="54" spans="7:11">
       <c r="G54" t="s">
-        <v>652</v>
+        <v>673</v>
       </c>
       <c r="K54" t="s">
-        <v>653</v>
+        <v>674</v>
       </c>
     </row>
     <row r="55" spans="3:11">
       <c r="C55" t="s">
-        <v>654</v>
+        <v>675</v>
       </c>
       <c r="D55" t="s">
-        <v>655</v>
+        <v>676</v>
       </c>
       <c r="G55" t="s">
-        <v>656</v>
+        <v>677</v>
       </c>
       <c r="K55" t="s">
-        <v>657</v>
+        <v>678</v>
       </c>
     </row>
     <row r="56" spans="3:11">
       <c r="C56" t="s">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="G56" t="s">
-        <v>659</v>
+        <v>680</v>
       </c>
       <c r="K56" t="s">
-        <v>660</v>
+        <v>681</v>
       </c>
     </row>
     <row r="57" spans="3:11">
       <c r="C57" t="s">
-        <v>661</v>
+        <v>682</v>
       </c>
       <c r="G57" t="s">
-        <v>662</v>
+        <v>683</v>
       </c>
       <c r="K57" t="s">
-        <v>663</v>
+        <v>684</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>664</v>
+        <v>685</v>
       </c>
       <c r="C58" t="s">
-        <v>665</v>
+        <v>686</v>
       </c>
       <c r="G58" t="s">
-        <v>666</v>
+        <v>687</v>
       </c>
       <c r="K58" t="s">
-        <v>667</v>
+        <v>688</v>
       </c>
     </row>
     <row r="59" spans="2:14">
       <c r="B59" t="s">
-        <v>668</v>
+        <v>689</v>
       </c>
       <c r="C59" t="s">
-        <v>669</v>
+        <v>690</v>
       </c>
       <c r="G59" t="s">
-        <v>670</v>
+        <v>691</v>
       </c>
       <c r="K59" t="s">
-        <v>671</v>
+        <v>692</v>
       </c>
       <c r="L59" t="s">
-        <v>672</v>
+        <v>693</v>
       </c>
       <c r="M59" t="s">
-        <v>673</v>
+        <v>694</v>
       </c>
       <c r="N59" t="s">
-        <v>674</v>
+        <v>695</v>
       </c>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" t="s">
-        <v>675</v>
+        <v>696</v>
       </c>
       <c r="G60" t="s">
-        <v>676</v>
+        <v>697</v>
       </c>
       <c r="L60" t="s">
-        <v>677</v>
+        <v>698</v>
       </c>
       <c r="M60" t="s">
-        <v>678</v>
+        <v>699</v>
       </c>
       <c r="N60" t="s">
-        <v>679</v>
+        <v>700</v>
       </c>
     </row>
     <row r="61" spans="2:12">
       <c r="B61" t="s">
-        <v>680</v>
+        <v>701</v>
       </c>
       <c r="G61" t="s">
-        <v>681</v>
+        <v>702</v>
       </c>
       <c r="K61" t="s">
-        <v>682</v>
+        <v>703</v>
       </c>
       <c r="L61" t="s">
-        <v>683</v>
+        <v>704</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>684</v>
+        <v>705</v>
       </c>
       <c r="B62" t="s">
-        <v>685</v>
+        <v>706</v>
       </c>
       <c r="C62" t="s">
-        <v>686</v>
+        <v>707</v>
       </c>
       <c r="D62" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="E62" t="s">
-        <v>687</v>
+        <v>708</v>
       </c>
       <c r="F62" t="s">
-        <v>688</v>
+        <v>709</v>
       </c>
       <c r="G62" t="s">
-        <v>689</v>
+        <v>710</v>
       </c>
     </row>
     <row r="63" spans="3:11">
       <c r="C63" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
       <c r="D63" t="s">
-        <v>691</v>
+        <v>712</v>
       </c>
       <c r="G63" t="s">
-        <v>692</v>
+        <v>713</v>
       </c>
       <c r="K63" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>694</v>
+        <v>715</v>
       </c>
       <c r="B64" t="s">
-        <v>695</v>
+        <v>716</v>
       </c>
       <c r="C64" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="G64" t="s">
-        <v>697</v>
+        <v>718</v>
       </c>
     </row>
     <row r="65" spans="2:14">
       <c r="B65" t="s">
-        <v>698</v>
+        <v>719</v>
       </c>
       <c r="C65" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
       <c r="G65" t="s">
-        <v>700</v>
+        <v>721</v>
       </c>
       <c r="K65" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="L65" t="s">
-        <v>702</v>
+        <v>723</v>
       </c>
       <c r="M65" t="s">
-        <v>703</v>
+        <v>724</v>
       </c>
       <c r="N65" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="C66" t="s">
-        <v>706</v>
+        <v>727</v>
       </c>
       <c r="K66" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="C67" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="K68" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
       <c r="K69" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
     </row>
     <row r="70" spans="3:11">
       <c r="C70" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
       <c r="K70" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>716</v>
+        <v>737</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
       <c r="C72" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="C73" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="C76" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2"/>
       <c r="C77" t="s">
-        <v>725</v>
+        <v>746</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>727</v>
+        <v>748</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>728</v>
+        <v>749</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>729</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:S62"/>
-  <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>734</v>
-      </c>
-      <c r="B4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="9" spans="16:19">
-      <c r="P9" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>740</v>
-      </c>
-      <c r="R9" t="s">
-        <v>741</v>
-      </c>
-      <c r="S9" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="10" spans="11:19">
-      <c r="K10" t="s">
-        <v>743</v>
-      </c>
-      <c r="L10" t="s">
-        <v>744</v>
-      </c>
-      <c r="M10" t="s">
-        <v>745</v>
-      </c>
-      <c r="P10" t="s">
-        <v>746</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>747</v>
-      </c>
-      <c r="S10" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" t="s">
-        <v>749</v>
-      </c>
-      <c r="L11" t="s">
         <v>750</v>
-      </c>
-      <c r="M11" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="12" spans="12:14">
-      <c r="L12" t="s">
-        <v>733</v>
-      </c>
-      <c r="M12" t="s">
-        <v>752</v>
-      </c>
-      <c r="N12" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="13" spans="13:15">
-      <c r="M13" t="s">
-        <v>754</v>
-      </c>
-      <c r="N13" t="s">
-        <v>755</v>
-      </c>
-      <c r="O13" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="14" spans="15:15">
-      <c r="O14" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>758</v>
-      </c>
-      <c r="B15" t="s">
-        <v>759</v>
-      </c>
-      <c r="L15" t="s">
-        <v>760</v>
-      </c>
-      <c r="N15" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>762</v>
-      </c>
-      <c r="B16" t="s">
-        <v>762</v>
-      </c>
-      <c r="C16" t="s">
-        <v>763</v>
-      </c>
-      <c r="N16" t="s">
-        <v>764</v>
-      </c>
-      <c r="P16" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>767</v>
-      </c>
-      <c r="K18" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" t="s">
-        <v>769</v>
-      </c>
-      <c r="P21" t="s">
-        <v>770</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="28" spans="6:6">
-      <c r="F28" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7">
-      <c r="F29" t="s">
-        <v>776</v>
-      </c>
-      <c r="G29" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="30" spans="6:6">
-      <c r="F30" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="31" spans="6:6">
-      <c r="F31" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="36" spans="7:9">
-      <c r="G36" t="s">
-        <v>780</v>
-      </c>
-      <c r="I36" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="38" spans="7:7">
-      <c r="G38" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="39" spans="7:7">
-      <c r="G39" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="40" spans="10:10">
-      <c r="J40" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="41" spans="7:9">
-      <c r="G41" t="s">
-        <v>785</v>
-      </c>
-      <c r="H41" t="s">
-        <v>786</v>
-      </c>
-      <c r="I41" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="42" spans="9:9">
-      <c r="I42" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="43" spans="9:9">
-      <c r="I43" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="44" spans="8:9">
-      <c r="H44" t="s">
-        <v>790</v>
-      </c>
-      <c r="I44" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="45" spans="9:9">
-      <c r="I45" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="46" spans="9:9">
-      <c r="I46" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="47" spans="7:7">
-      <c r="G47" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="48" spans="7:8">
-      <c r="G48" t="s">
-        <v>795</v>
-      </c>
-      <c r="H48" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="49" spans="8:8">
-      <c r="H49" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>798</v>
-      </c>
-      <c r="B50" t="s">
-        <v>799</v>
-      </c>
-      <c r="G50" t="s">
-        <v>800</v>
-      </c>
-      <c r="H50" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>803</v>
-      </c>
-      <c r="B53" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="54" spans="6:6">
-      <c r="F54" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="56" spans="6:8">
-      <c r="F56" t="s">
-        <v>806</v>
-      </c>
-      <c r="G56" t="s">
-        <v>807</v>
-      </c>
-      <c r="H56" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="57" spans="7:7">
-      <c r="G57" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="C61" t="s">
-        <v>732</v>
-      </c>
-      <c r="D61" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4">
-      <c r="D62" t="s">
-        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -6164,6 +6018,379 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:S62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B4" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="9" spans="16:19">
+      <c r="P9" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>761</v>
+      </c>
+      <c r="R9" t="s">
+        <v>762</v>
+      </c>
+      <c r="S9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="10" spans="11:19">
+      <c r="K10" t="s">
+        <v>764</v>
+      </c>
+      <c r="L10" t="s">
+        <v>765</v>
+      </c>
+      <c r="M10" t="s">
+        <v>766</v>
+      </c>
+      <c r="P10" t="s">
+        <v>767</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>768</v>
+      </c>
+      <c r="S10" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" t="s">
+        <v>770</v>
+      </c>
+      <c r="L11" t="s">
+        <v>771</v>
+      </c>
+      <c r="M11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="12" spans="12:14">
+      <c r="L12" t="s">
+        <v>754</v>
+      </c>
+      <c r="M12" t="s">
+        <v>773</v>
+      </c>
+      <c r="N12" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="13" spans="13:15">
+      <c r="M13" t="s">
+        <v>775</v>
+      </c>
+      <c r="N13" t="s">
+        <v>776</v>
+      </c>
+      <c r="O13" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="14" spans="15:15">
+      <c r="O14" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>779</v>
+      </c>
+      <c r="B15" t="s">
+        <v>780</v>
+      </c>
+      <c r="L15" t="s">
+        <v>781</v>
+      </c>
+      <c r="N15" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>783</v>
+      </c>
+      <c r="B16" t="s">
+        <v>783</v>
+      </c>
+      <c r="C16" t="s">
+        <v>784</v>
+      </c>
+      <c r="N16" t="s">
+        <v>785</v>
+      </c>
+      <c r="P16" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>788</v>
+      </c>
+      <c r="K18" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>790</v>
+      </c>
+      <c r="P21" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7">
+      <c r="F29" t="s">
+        <v>797</v>
+      </c>
+      <c r="G29" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9">
+      <c r="G36" t="s">
+        <v>801</v>
+      </c>
+      <c r="I36" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="40" spans="10:10">
+      <c r="J40" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9">
+      <c r="G41" t="s">
+        <v>806</v>
+      </c>
+      <c r="H41" t="s">
+        <v>807</v>
+      </c>
+      <c r="I41" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9">
+      <c r="I43" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9">
+      <c r="H44" t="s">
+        <v>811</v>
+      </c>
+      <c r="I44" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7">
+      <c r="G47" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8">
+      <c r="G48" t="s">
+        <v>816</v>
+      </c>
+      <c r="H48" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>819</v>
+      </c>
+      <c r="B50" t="s">
+        <v>820</v>
+      </c>
+      <c r="G50" t="s">
+        <v>821</v>
+      </c>
+      <c r="H50" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>824</v>
+      </c>
+      <c r="B53" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8">
+      <c r="F56" t="s">
+        <v>827</v>
+      </c>
+      <c r="G56" t="s">
+        <v>828</v>
+      </c>
+      <c r="H56" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="57" spans="7:7">
+      <c r="G57" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" t="s">
+        <v>753</v>
+      </c>
+      <c r="D61" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" t="s">
+        <v>832</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6174,12 +6401,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>812</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -6693,46 +6920,82 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A3:F10"/>
+  <dimension ref="A3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="3:3">
-      <c r="C3" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="I3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B4" t="s">
         <v>251</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>252</v>
+      </c>
+      <c r="I4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6">
-      <c r="D9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4">
-      <c r="D10" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="H12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8">
+      <c r="H13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6743,6 +7006,58 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A3:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K56"/>
@@ -6761,7 +7076,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="26" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -6776,7 +7091,7 @@
     </row>
     <row r="2" ht="51" spans="1:11">
       <c r="A2" s="27" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -6843,7 +7158,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="27" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -6884,7 +7199,7 @@
     </row>
     <row r="10" ht="51" spans="1:11">
       <c r="A10" s="27" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -6938,16 +7253,16 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="26" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -6967,7 +7282,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
@@ -6980,14 +7295,14 @@
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="26" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="K16" s="26"/>
     </row>
@@ -6999,7 +7314,7 @@
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -7008,19 +7323,19 @@
     </row>
     <row r="18" ht="27" spans="1:11">
       <c r="A18" s="26" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
@@ -7068,7 +7383,7 @@
     </row>
     <row r="22" ht="40.5" spans="1:11">
       <c r="A22" s="26" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -7109,20 +7424,20 @@
     </row>
     <row r="25" ht="54" spans="1:11">
       <c r="A25" s="26" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
@@ -7148,10 +7463,10 @@
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -7182,17 +7497,17 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
     </row>
     <row r="30" ht="54" spans="1:11">
       <c r="A30" s="28" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
@@ -7200,10 +7515,10 @@
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
       <c r="H30" s="26" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -7213,22 +7528,22 @@
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
       <c r="H31" s="26" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="I31" s="26"/>
       <c r="J31" s="26" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -7237,37 +7552,37 @@
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="J32" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" ht="85.5" spans="1:11">
       <c r="A33" s="29" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
@@ -7277,159 +7592,115 @@
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="K34" s="26"/>
     </row>
     <row r="35" ht="40.5" spans="4:10">
       <c r="D35" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="26" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="4:5">
       <c r="D36" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="E36" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="D40" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="E40" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="I41" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="4:5">
       <c r="D42" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E42" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" ht="22" customHeight="1"/>
     <row r="51" ht="12" customHeight="1"/>
     <row r="52" ht="175.5" spans="2:3">
       <c r="B52" s="26" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="C55" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>322</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A3:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C8" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -7440,6 +7711,77 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A3:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A2:H7"/>
@@ -7455,108 +7797,40 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="C2" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="F2" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="G2" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="H2" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="6:7">
       <c r="F3" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="G3" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="G4" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B4:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="2" max="2" width="32.1083333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>344</v>
-      </c>
-      <c r="C10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" t="s">
-        <v>348</v>
-      </c>
-      <c r="C14" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -7569,157 +7843,67 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A4:N40"/>
+  <dimension ref="B3:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="32.1083333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:11">
-      <c r="A4" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="11:11">
-      <c r="K6" s="20" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="20" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="K9" t="s">
-        <v>357</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="7:11">
-      <c r="G13" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="K13" s="24" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="14" spans="7:7">
-      <c r="G14" s="20" t="s">
+      <c r="C15" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="7:7">
-      <c r="G15" s="20" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="17" ht="15.75" spans="3:3">
-      <c r="C17" s="21" t="s">
+      <c r="C17" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="18" ht="17.25" spans="3:12">
-      <c r="C18" s="14" t="s">
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
         <v>364</v>
       </c>
-      <c r="L18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="3:13">
-      <c r="C19" s="21" t="s">
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
         <v>365</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="C21" t="s">
         <v>366</v>
       </c>
-      <c r="M19" s="22" t="s">
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="23" t="s">
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="3:3">
-      <c r="C21" s="21" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="23" spans="14:14">
-      <c r="N23" t="s">
+      <c r="C25" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="24" spans="14:14">
-      <c r="N24" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" spans="7:7">
-      <c r="G25" s="22" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" spans="7:7">
-      <c r="G26" s="22" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="24" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="31" spans="10:10">
-      <c r="J31" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10">
-      <c r="C32" t="s">
-        <v>376</v>
-      </c>
-      <c r="D32" t="s">
-        <v>377</v>
-      </c>
-      <c r="J32" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="39" ht="18" spans="3:3">
-      <c r="C39" s="25" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="40" ht="17.25" spans="3:3">
-      <c r="C40" s="25" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/boxsite/idea.xlsx
+++ b/boxsite/idea.xlsx
@@ -10,31 +10,32 @@
     <sheet name="找方向" sheetId="1" r:id="rId1"/>
     <sheet name="搞钱" sheetId="2" r:id="rId2"/>
     <sheet name="找项目" sheetId="3" r:id="rId3"/>
-    <sheet name="科技资讯" sheetId="4" r:id="rId4"/>
-    <sheet name="消费者图片仪" sheetId="5" r:id="rId5"/>
-    <sheet name="技术刷榜" sheetId="6" r:id="rId6"/>
-    <sheet name="小APP" sheetId="7" r:id="rId7"/>
-    <sheet name="信息搜索整理" sheetId="8" r:id="rId8"/>
-    <sheet name="备用点子" sheetId="9" r:id="rId9"/>
-    <sheet name="互联网营销" sheetId="10" r:id="rId10"/>
-    <sheet name="奇点_IOT" sheetId="11" r:id="rId11"/>
-    <sheet name="奇点_人工智能" sheetId="12" r:id="rId12"/>
-    <sheet name="奇点_大数据" sheetId="13" r:id="rId13"/>
-    <sheet name="新点子" sheetId="14" r:id="rId14"/>
-    <sheet name="点子_微信营销" sheetId="15" r:id="rId15"/>
-    <sheet name="点子_手机电商" sheetId="16" r:id="rId16"/>
-    <sheet name="在线教育" sheetId="17" r:id="rId17"/>
-    <sheet name="o2o" sheetId="18" r:id="rId18"/>
-    <sheet name="医疗健康" sheetId="19" r:id="rId19"/>
-    <sheet name="网站聚合" sheetId="20" r:id="rId20"/>
-    <sheet name="旅游" sheetId="21" r:id="rId21"/>
+    <sheet name="创业早报" sheetId="4" r:id="rId4"/>
+    <sheet name="科技资讯" sheetId="5" r:id="rId5"/>
+    <sheet name="消费者图片仪" sheetId="6" r:id="rId6"/>
+    <sheet name="技术刷榜" sheetId="7" r:id="rId7"/>
+    <sheet name="小APP" sheetId="8" r:id="rId8"/>
+    <sheet name="信息搜索整理" sheetId="9" r:id="rId9"/>
+    <sheet name="备用点子" sheetId="10" r:id="rId10"/>
+    <sheet name="互联网营销" sheetId="11" r:id="rId11"/>
+    <sheet name="奇点_IOT" sheetId="12" r:id="rId12"/>
+    <sheet name="奇点_人工智能" sheetId="13" r:id="rId13"/>
+    <sheet name="奇点_大数据" sheetId="14" r:id="rId14"/>
+    <sheet name="新点子" sheetId="15" r:id="rId15"/>
+    <sheet name="点子_微信营销" sheetId="16" r:id="rId16"/>
+    <sheet name="点子_手机电商" sheetId="17" r:id="rId17"/>
+    <sheet name="在线教育" sheetId="18" r:id="rId18"/>
+    <sheet name="o2o" sheetId="19" r:id="rId19"/>
+    <sheet name="医疗健康" sheetId="20" r:id="rId20"/>
+    <sheet name="网站聚合" sheetId="21" r:id="rId21"/>
+    <sheet name="旅游" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865">
   <si>
     <t>需求</t>
   </si>
@@ -783,9 +784,105 @@
     <t>产品运营的竞争优势</t>
   </si>
   <si>
+    <t>趋势</t>
+  </si>
+  <si>
+    <t>无人汽车</t>
+  </si>
+  <si>
+    <t>无人机</t>
+  </si>
+  <si>
+    <t>创业者阶段</t>
+  </si>
+  <si>
+    <t>看趋势</t>
+  </si>
+  <si>
     <t>热点</t>
   </si>
   <si>
+    <t>网红</t>
+  </si>
+  <si>
+    <t>直播</t>
+  </si>
+  <si>
+    <t>电竞</t>
+  </si>
+  <si>
+    <t>了解行业</t>
+  </si>
+  <si>
+    <t>行业</t>
+  </si>
+  <si>
+    <t>行业分析，大公司动向,投融资热点,融资快报</t>
+  </si>
+  <si>
+    <t>学习商业模式/盈利模式</t>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>知道项目</t>
+  </si>
+  <si>
+    <t>小公司/项目</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>找钱融资</t>
+  </si>
+  <si>
+    <t>融资</t>
+  </si>
+  <si>
+    <t>找团队</t>
+  </si>
+  <si>
+    <t>团队</t>
+  </si>
+  <si>
+    <t>做产品</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>上线运营</t>
+  </si>
+  <si>
+    <t>运营</t>
+  </si>
+  <si>
+    <t>(产品)商业模式/盈利模式</t>
+  </si>
+  <si>
+    <t>盈利/会计</t>
+  </si>
+  <si>
+    <t>经验教训</t>
+  </si>
+  <si>
+    <t>故事/访谈</t>
+  </si>
+  <si>
+    <t>修炼</t>
+  </si>
+  <si>
+    <t>资讯</t>
+  </si>
+  <si>
+    <t>专题</t>
+  </si>
+  <si>
+    <t>(地方)政策</t>
+  </si>
+  <si>
     <t>行业从事人员</t>
   </si>
   <si>
@@ -796,9 +893,6 @@
   </si>
   <si>
     <t>风投</t>
-  </si>
-  <si>
-    <t>产品</t>
   </si>
   <si>
     <t>创业者</t>
@@ -2583,10 +2677,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3806,6 +3900,79 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="B3:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="32.1083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>396</v>
+      </c>
+      <c r="C21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>400</v>
+      </c>
+      <c r="C25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A4:N40"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -3816,67 +3983,67 @@
   <sheetData>
     <row r="4" spans="1:11">
       <c r="A4" s="20" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="11:11">
       <c r="K6" s="20" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="20" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="20" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="K9" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="7:11">
       <c r="G13" s="20" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" s="20" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" s="20" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="3:3">
       <c r="C17" s="21" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="3:12">
       <c r="C18" s="14" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="L18" t="s">
         <v>131</v>
@@ -3884,79 +4051,79 @@
     </row>
     <row r="19" ht="15.75" spans="3:13">
       <c r="C19" s="21" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="23" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="3:3">
       <c r="C21" s="21" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="7:7">
       <c r="G25" s="22" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="7:7">
       <c r="G26" s="22" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="24" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="D32" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="J32" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" ht="18" spans="3:3">
       <c r="C39" s="25" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="3:3">
       <c r="C40" s="25" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -3966,7 +4133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -3983,7 +4150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -4000,7 +4167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A3"/>
@@ -4016,7 +4183,7 @@
   <sheetData>
     <row r="3" ht="72" spans="1:1">
       <c r="A3" s="19" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -4026,7 +4193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A2:J44"/>
@@ -4042,30 +4209,30 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -4090,12 +4257,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -4105,12 +4272,12 @@
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -4118,44 +4285,44 @@
         <v>2015</v>
       </c>
       <c r="D33" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="G33" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="H33" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>416</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="8:10">
       <c r="H37" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="J37" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="J40" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -4165,7 +4332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:S71"/>
@@ -4185,46 +4352,46 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="6:7">
       <c r="F3" s="11" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:15">
       <c r="A4" s="11" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="5:16">
@@ -4232,18 +4399,18 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="E6" s="11">
         <v>1.2</v>
@@ -4251,18 +4418,18 @@
     </row>
     <row r="7" s="11" customFormat="1" spans="7:7">
       <c r="G7" s="11" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="4:12">
       <c r="D8" s="11" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="E8" s="12">
         <v>0.002</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="7:8">
@@ -4270,39 +4437,39 @@
         <v>120</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" spans="8:17">
       <c r="H10" s="11" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="4:4">
       <c r="D11" s="11" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" s="11" customFormat="1" ht="22.5" spans="4:14">
       <c r="D13" s="11" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="22.5" spans="1:14">
@@ -4310,56 +4477,56 @@
         <v>0.9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="7:14">
       <c r="G15" s="11" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="5:16">
       <c r="E16" s="11" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="16:16">
       <c r="P17" s="11" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" s="11" customFormat="1" spans="1:16">
       <c r="A18" s="11" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:16">
       <c r="A19" s="11" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>93</v>
@@ -4367,13 +4534,13 @@
     </row>
     <row r="20" s="11" customFormat="1" spans="1:13">
       <c r="A20" s="11" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="13:13">
@@ -4383,56 +4550,56 @@
     </row>
     <row r="22" s="11" customFormat="1" spans="9:9">
       <c r="I22" s="11" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="5:9">
       <c r="E23" s="11" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="9:9">
       <c r="I24" s="11" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="3:3">
       <c r="C27" s="11" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="4:12">
       <c r="D28" s="11" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="4:8">
       <c r="D29" s="11" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="2:19">
@@ -4441,16 +4608,16 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="M33" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="N33" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="O33" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="P33" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -4462,17 +4629,17 @@
       <c r="D34"/>
       <c r="E34"/>
       <c r="I34" s="11" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -4486,20 +4653,20 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="J35" s="11" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="S35" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -4514,7 +4681,7 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="13:19">
@@ -4528,7 +4695,7 @@
     </row>
     <row r="38" spans="13:19">
       <c r="M38" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -4549,13 +4716,13 @@
     <row r="41" ht="18.75" spans="2:13">
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="J41"/>
       <c r="K41" s="16" t="s">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -4563,7 +4730,7 @@
     <row r="42" spans="2:13">
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -4575,13 +4742,13 @@
     <row r="43" ht="37.5" spans="2:13">
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="J43"/>
       <c r="K43" s="16" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -4589,7 +4756,7 @@
     <row r="44" spans="2:13">
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -4601,13 +4768,13 @@
     <row r="45" ht="37.5" spans="2:13">
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="J45"/>
       <c r="K45" s="16" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
@@ -4617,7 +4784,7 @@
     <row r="46" spans="2:13">
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -4633,13 +4800,13 @@
       <c r="E47"/>
       <c r="J47"/>
       <c r="K47" s="16" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="L47" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="M47" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -4647,13 +4814,13 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>501</v>
+        <v>532</v>
       </c>
     </row>
     <row r="49" spans="10:13">
@@ -4664,153 +4831,153 @@
     </row>
     <row r="50" spans="10:13">
       <c r="J50" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="K50" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
     </row>
     <row r="51" spans="10:13">
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
     </row>
     <row r="52" spans="10:13">
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>505</v>
+        <v>536</v>
       </c>
     </row>
     <row r="53" spans="10:13">
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="L53" t="s">
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
     </row>
     <row r="54" spans="10:13">
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="1:1">
       <c r="A56" s="14" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
     </row>
     <row r="59" ht="13.5" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="B59" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="C59" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="D59" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
     </row>
     <row r="60" ht="13.5" spans="1:6">
       <c r="A60" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="B60" t="s">
-        <v>514</v>
+        <v>545</v>
       </c>
       <c r="C60" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="D60" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
       <c r="E60" t="s">
-        <v>517</v>
+        <v>548</v>
       </c>
       <c r="F60" t="s">
-        <v>518</v>
+        <v>549</v>
       </c>
     </row>
     <row r="61" ht="13.5" spans="1:6">
       <c r="A61" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>520</v>
+        <v>551</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="F61" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" ht="13.5" spans="1:6">
       <c r="A62" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="B62" t="s">
-        <v>524</v>
+        <v>555</v>
       </c>
       <c r="C62" t="s">
-        <v>525</v>
+        <v>556</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>526</v>
+        <v>557</v>
       </c>
       <c r="F62"/>
     </row>
     <row r="63" ht="13.5" spans="1:6">
       <c r="A63" t="s">
-        <v>527</v>
+        <v>558</v>
       </c>
       <c r="B63" t="s">
-        <v>528</v>
+        <v>559</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>529</v>
+        <v>560</v>
       </c>
       <c r="F63"/>
     </row>
     <row r="64" ht="13.5" spans="1:6">
       <c r="A64" t="s">
-        <v>530</v>
+        <v>561</v>
       </c>
       <c r="B64" t="s">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -4827,15 +4994,15 @@
     </row>
     <row r="67" ht="17.25" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>532</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69" ht="293.25" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>533</v>
+        <v>564</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="2:2">
@@ -4848,7 +5015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A2:N29"/>
@@ -4864,107 +5031,107 @@
   <sheetData>
     <row r="2" spans="14:14">
       <c r="N2" t="s">
-        <v>535</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>536</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>537</v>
+        <v>568</v>
       </c>
       <c r="C4" t="s">
-        <v>538</v>
+        <v>569</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>539</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
       <c r="D5" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="J5" t="s">
-        <v>542</v>
+        <v>573</v>
       </c>
       <c r="K5" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="4:10">
       <c r="D6" t="s">
-        <v>545</v>
+        <v>576</v>
       </c>
       <c r="J6" t="s">
-        <v>546</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>547</v>
+        <v>578</v>
       </c>
       <c r="J7" t="s">
-        <v>548</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>549</v>
+        <v>580</v>
       </c>
       <c r="D8" t="s">
-        <v>550</v>
+        <v>581</v>
       </c>
       <c r="J8" t="s">
-        <v>551</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>552</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>553</v>
+        <v>584</v>
       </c>
       <c r="C10" t="s">
-        <v>554</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>555</v>
+        <v>586</v>
       </c>
       <c r="D11" t="s">
-        <v>556</v>
+        <v>587</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>557</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>558</v>
+        <v>589</v>
       </c>
       <c r="D12" t="s">
-        <v>559</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -4972,95 +5139,95 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="J15" t="s">
-        <v>562</v>
+        <v>593</v>
       </c>
       <c r="K15" t="s">
-        <v>563</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>564</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>565</v>
+        <v>596</v>
       </c>
       <c r="D17" t="s">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="K17" t="s">
-        <v>567</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="C19" t="s">
-        <v>570</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="8" t="s">
-        <v>571</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>553</v>
+        <v>584</v>
       </c>
       <c r="C21" t="s">
-        <v>572</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" t="s">
-        <v>573</v>
+        <v>604</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>574</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>575</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>576</v>
+        <v>607</v>
       </c>
       <c r="H24" t="s">
-        <v>577</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" t="s">
-        <v>578</v>
+        <v>609</v>
       </c>
       <c r="H25" t="s">
-        <v>577</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:4">
       <c r="A29" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>579</v>
+        <v>610</v>
       </c>
       <c r="D29" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -5070,7 +5237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A3:E7"/>
@@ -5083,22 +5250,22 @@
   <sheetData>
     <row r="3" spans="5:5">
       <c r="E3" s="8" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>582</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>583</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>584</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -5108,7 +5275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B1:N166"/>
@@ -5189,678 +5356,6 @@
     </row>
     <row r="166" spans="7:7">
       <c r="G166" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:N84"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="2" spans="9:9">
-      <c r="I2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>587</v>
-      </c>
-      <c r="B3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" t="s">
-        <v>589</v>
-      </c>
-      <c r="I4" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" t="s">
-        <v>471</v>
-      </c>
-      <c r="C6" t="s">
-        <v>591</v>
-      </c>
-      <c r="J6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>595</v>
-      </c>
-      <c r="B9" t="s">
-        <v>596</v>
-      </c>
-      <c r="I9" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="10" spans="9:10">
-      <c r="I10" t="s">
-        <v>598</v>
-      </c>
-      <c r="J10" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="11" spans="9:11">
-      <c r="I11" t="s">
-        <v>599</v>
-      </c>
-      <c r="J11" t="s">
-        <v>600</v>
-      </c>
-      <c r="K11" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>602</v>
-      </c>
-      <c r="B13" t="s">
-        <v>603</v>
-      </c>
-      <c r="C13" t="s">
-        <v>604</v>
-      </c>
-      <c r="I13" t="s">
-        <v>605</v>
-      </c>
-      <c r="J13" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="14" spans="9:9">
-      <c r="I14" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" t="s">
-        <v>608</v>
-      </c>
-      <c r="C15" t="s">
-        <v>609</v>
-      </c>
-      <c r="I15" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" t="s">
-        <v>614</v>
-      </c>
-      <c r="D20" t="s">
-        <v>615</v>
-      </c>
-      <c r="E20" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>619</v>
-      </c>
-      <c r="B25" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" t="s">
-        <v>622</v>
-      </c>
-      <c r="C27" t="s">
-        <v>623</v>
-      </c>
-      <c r="D27" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" t="s">
-        <v>625</v>
-      </c>
-      <c r="C28" t="s">
-        <v>626</v>
-      </c>
-      <c r="D28" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" t="s">
-        <v>628</v>
-      </c>
-      <c r="D29" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" t="s">
-        <v>630</v>
-      </c>
-      <c r="D30" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" t="s">
-        <v>632</v>
-      </c>
-      <c r="C31" t="s">
-        <v>633</v>
-      </c>
-      <c r="D31" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
-      <c r="C32" t="s">
-        <v>635</v>
-      </c>
-      <c r="D32" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" t="s">
-        <v>637</v>
-      </c>
-      <c r="E33" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="s">
-        <v>641</v>
-      </c>
-      <c r="B46" t="s">
-        <v>642</v>
-      </c>
-      <c r="C46" t="s">
-        <v>630</v>
-      </c>
-      <c r="D46" t="s">
-        <v>643</v>
-      </c>
-      <c r="E46" t="s">
-        <v>644</v>
-      </c>
-      <c r="F46" t="s">
-        <v>645</v>
-      </c>
-      <c r="G46" t="s">
-        <v>646</v>
-      </c>
-      <c r="H46" t="s">
-        <v>647</v>
-      </c>
-      <c r="J46" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" t="s">
-        <v>649</v>
-      </c>
-      <c r="F47" t="s">
-        <v>650</v>
-      </c>
-      <c r="K47" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" t="s">
-        <v>652</v>
-      </c>
-      <c r="C48" t="s">
-        <v>653</v>
-      </c>
-      <c r="G48" t="s">
-        <v>639</v>
-      </c>
-      <c r="K48" t="s">
-        <v>654</v>
-      </c>
-      <c r="L48" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11">
-      <c r="C49" t="s">
-        <v>656</v>
-      </c>
-      <c r="G49" t="s">
-        <v>657</v>
-      </c>
-      <c r="K49" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12">
-      <c r="B50" t="s">
-        <v>659</v>
-      </c>
-      <c r="G50" t="s">
-        <v>660</v>
-      </c>
-      <c r="K50" t="s">
-        <v>661</v>
-      </c>
-      <c r="L50" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" t="s">
-        <v>663</v>
-      </c>
-      <c r="G51" t="s">
-        <v>664</v>
-      </c>
-      <c r="K51" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="52" spans="7:11">
-      <c r="G52" t="s">
-        <v>666</v>
-      </c>
-      <c r="K52" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13">
-      <c r="C53" t="s">
-        <v>668</v>
-      </c>
-      <c r="G53" t="s">
-        <v>669</v>
-      </c>
-      <c r="K53" t="s">
-        <v>670</v>
-      </c>
-      <c r="L53" t="s">
-        <v>671</v>
-      </c>
-      <c r="M53" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="54" spans="7:11">
-      <c r="G54" t="s">
-        <v>673</v>
-      </c>
-      <c r="K54" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11">
-      <c r="C55" t="s">
-        <v>675</v>
-      </c>
-      <c r="D55" t="s">
-        <v>676</v>
-      </c>
-      <c r="G55" t="s">
-        <v>677</v>
-      </c>
-      <c r="K55" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="56" spans="3:11">
-      <c r="C56" t="s">
-        <v>679</v>
-      </c>
-      <c r="G56" t="s">
-        <v>680</v>
-      </c>
-      <c r="K56" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="57" spans="3:11">
-      <c r="C57" t="s">
-        <v>682</v>
-      </c>
-      <c r="G57" t="s">
-        <v>683</v>
-      </c>
-      <c r="K57" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" t="s">
-        <v>685</v>
-      </c>
-      <c r="C58" t="s">
-        <v>686</v>
-      </c>
-      <c r="G58" t="s">
-        <v>687</v>
-      </c>
-      <c r="K58" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14">
-      <c r="B59" t="s">
-        <v>689</v>
-      </c>
-      <c r="C59" t="s">
-        <v>690</v>
-      </c>
-      <c r="G59" t="s">
-        <v>691</v>
-      </c>
-      <c r="K59" t="s">
-        <v>692</v>
-      </c>
-      <c r="L59" t="s">
-        <v>693</v>
-      </c>
-      <c r="M59" t="s">
-        <v>694</v>
-      </c>
-      <c r="N59" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14">
-      <c r="B60" t="s">
-        <v>696</v>
-      </c>
-      <c r="G60" t="s">
-        <v>697</v>
-      </c>
-      <c r="L60" t="s">
-        <v>698</v>
-      </c>
-      <c r="M60" t="s">
-        <v>699</v>
-      </c>
-      <c r="N60" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12">
-      <c r="B61" t="s">
-        <v>701</v>
-      </c>
-      <c r="G61" t="s">
-        <v>702</v>
-      </c>
-      <c r="K61" t="s">
-        <v>703</v>
-      </c>
-      <c r="L61" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>705</v>
-      </c>
-      <c r="B62" t="s">
-        <v>706</v>
-      </c>
-      <c r="C62" t="s">
-        <v>707</v>
-      </c>
-      <c r="D62" t="s">
-        <v>499</v>
-      </c>
-      <c r="E62" t="s">
-        <v>708</v>
-      </c>
-      <c r="F62" t="s">
-        <v>709</v>
-      </c>
-      <c r="G62" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11">
-      <c r="C63" t="s">
-        <v>711</v>
-      </c>
-      <c r="D63" t="s">
-        <v>712</v>
-      </c>
-      <c r="G63" t="s">
-        <v>713</v>
-      </c>
-      <c r="K63" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
-        <v>715</v>
-      </c>
-      <c r="B64" t="s">
-        <v>716</v>
-      </c>
-      <c r="C64" t="s">
-        <v>717</v>
-      </c>
-      <c r="G64" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14">
-      <c r="B65" t="s">
-        <v>719</v>
-      </c>
-      <c r="C65" t="s">
-        <v>720</v>
-      </c>
-      <c r="G65" t="s">
-        <v>721</v>
-      </c>
-      <c r="K65" t="s">
-        <v>722</v>
-      </c>
-      <c r="L65" t="s">
-        <v>723</v>
-      </c>
-      <c r="M65" t="s">
-        <v>724</v>
-      </c>
-      <c r="N65" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="B66" t="s">
-        <v>726</v>
-      </c>
-      <c r="C66" t="s">
-        <v>727</v>
-      </c>
-      <c r="K66" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" t="s">
-        <v>729</v>
-      </c>
-      <c r="C67" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11">
-      <c r="B68" t="s">
-        <v>731</v>
-      </c>
-      <c r="K68" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11">
-      <c r="B69" t="s">
-        <v>733</v>
-      </c>
-      <c r="K69" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="70" spans="3:11">
-      <c r="C70" t="s">
-        <v>735</v>
-      </c>
-      <c r="K70" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" t="s">
-        <v>738</v>
-      </c>
-      <c r="C72" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" t="s">
-        <v>740</v>
-      </c>
-      <c r="C73" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="B76" t="s">
-        <v>744</v>
-      </c>
-      <c r="C76" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2"/>
-      <c r="C77" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3">
-      <c r="C79" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84" t="s">
-        <v>750</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6018,6 +5513,678 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:N84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2" spans="9:9">
+      <c r="I2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>620</v>
+      </c>
+      <c r="I4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" t="s">
+        <v>622</v>
+      </c>
+      <c r="J6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B9" t="s">
+        <v>627</v>
+      </c>
+      <c r="I9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10" spans="9:10">
+      <c r="I10" t="s">
+        <v>629</v>
+      </c>
+      <c r="J10" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11" spans="9:11">
+      <c r="I11" t="s">
+        <v>630</v>
+      </c>
+      <c r="J11" t="s">
+        <v>631</v>
+      </c>
+      <c r="K11" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>633</v>
+      </c>
+      <c r="B13" t="s">
+        <v>634</v>
+      </c>
+      <c r="C13" t="s">
+        <v>635</v>
+      </c>
+      <c r="I13" t="s">
+        <v>636</v>
+      </c>
+      <c r="J13" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="14" spans="9:9">
+      <c r="I14" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" t="s">
+        <v>639</v>
+      </c>
+      <c r="C15" t="s">
+        <v>640</v>
+      </c>
+      <c r="I15" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" t="s">
+        <v>645</v>
+      </c>
+      <c r="D20" t="s">
+        <v>646</v>
+      </c>
+      <c r="E20" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>650</v>
+      </c>
+      <c r="B25" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>653</v>
+      </c>
+      <c r="C27" t="s">
+        <v>654</v>
+      </c>
+      <c r="D27" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>656</v>
+      </c>
+      <c r="C28" t="s">
+        <v>657</v>
+      </c>
+      <c r="D28" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
+        <v>659</v>
+      </c>
+      <c r="D29" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>661</v>
+      </c>
+      <c r="D30" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>663</v>
+      </c>
+      <c r="C31" t="s">
+        <v>664</v>
+      </c>
+      <c r="D31" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
+        <v>666</v>
+      </c>
+      <c r="D32" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" t="s">
+        <v>668</v>
+      </c>
+      <c r="E33" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>672</v>
+      </c>
+      <c r="B46" t="s">
+        <v>673</v>
+      </c>
+      <c r="C46" t="s">
+        <v>661</v>
+      </c>
+      <c r="D46" t="s">
+        <v>674</v>
+      </c>
+      <c r="E46" t="s">
+        <v>675</v>
+      </c>
+      <c r="F46" t="s">
+        <v>676</v>
+      </c>
+      <c r="G46" t="s">
+        <v>677</v>
+      </c>
+      <c r="H46" t="s">
+        <v>678</v>
+      </c>
+      <c r="J46" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" t="s">
+        <v>680</v>
+      </c>
+      <c r="F47" t="s">
+        <v>681</v>
+      </c>
+      <c r="K47" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>683</v>
+      </c>
+      <c r="C48" t="s">
+        <v>684</v>
+      </c>
+      <c r="G48" t="s">
+        <v>670</v>
+      </c>
+      <c r="K48" t="s">
+        <v>685</v>
+      </c>
+      <c r="L48" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11">
+      <c r="C49" t="s">
+        <v>687</v>
+      </c>
+      <c r="G49" t="s">
+        <v>688</v>
+      </c>
+      <c r="K49" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" t="s">
+        <v>690</v>
+      </c>
+      <c r="G50" t="s">
+        <v>691</v>
+      </c>
+      <c r="K50" t="s">
+        <v>692</v>
+      </c>
+      <c r="L50" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" t="s">
+        <v>694</v>
+      </c>
+      <c r="G51" t="s">
+        <v>695</v>
+      </c>
+      <c r="K51" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="52" spans="7:11">
+      <c r="G52" t="s">
+        <v>697</v>
+      </c>
+      <c r="K52" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13">
+      <c r="C53" t="s">
+        <v>699</v>
+      </c>
+      <c r="G53" t="s">
+        <v>700</v>
+      </c>
+      <c r="K53" t="s">
+        <v>701</v>
+      </c>
+      <c r="L53" t="s">
+        <v>702</v>
+      </c>
+      <c r="M53" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="54" spans="7:11">
+      <c r="G54" t="s">
+        <v>704</v>
+      </c>
+      <c r="K54" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11">
+      <c r="C55" t="s">
+        <v>706</v>
+      </c>
+      <c r="D55" t="s">
+        <v>707</v>
+      </c>
+      <c r="G55" t="s">
+        <v>708</v>
+      </c>
+      <c r="K55" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11">
+      <c r="C56" t="s">
+        <v>710</v>
+      </c>
+      <c r="G56" t="s">
+        <v>711</v>
+      </c>
+      <c r="K56" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11">
+      <c r="C57" t="s">
+        <v>713</v>
+      </c>
+      <c r="G57" t="s">
+        <v>714</v>
+      </c>
+      <c r="K57" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" t="s">
+        <v>716</v>
+      </c>
+      <c r="C58" t="s">
+        <v>717</v>
+      </c>
+      <c r="G58" t="s">
+        <v>718</v>
+      </c>
+      <c r="K58" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" t="s">
+        <v>720</v>
+      </c>
+      <c r="C59" t="s">
+        <v>721</v>
+      </c>
+      <c r="G59" t="s">
+        <v>722</v>
+      </c>
+      <c r="K59" t="s">
+        <v>723</v>
+      </c>
+      <c r="L59" t="s">
+        <v>724</v>
+      </c>
+      <c r="M59" t="s">
+        <v>725</v>
+      </c>
+      <c r="N59" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" t="s">
+        <v>727</v>
+      </c>
+      <c r="G60" t="s">
+        <v>728</v>
+      </c>
+      <c r="L60" t="s">
+        <v>729</v>
+      </c>
+      <c r="M60" t="s">
+        <v>730</v>
+      </c>
+      <c r="N60" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" t="s">
+        <v>732</v>
+      </c>
+      <c r="G61" t="s">
+        <v>733</v>
+      </c>
+      <c r="K61" t="s">
+        <v>734</v>
+      </c>
+      <c r="L61" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>736</v>
+      </c>
+      <c r="B62" t="s">
+        <v>737</v>
+      </c>
+      <c r="C62" t="s">
+        <v>738</v>
+      </c>
+      <c r="D62" t="s">
+        <v>530</v>
+      </c>
+      <c r="E62" t="s">
+        <v>739</v>
+      </c>
+      <c r="F62" t="s">
+        <v>740</v>
+      </c>
+      <c r="G62" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11">
+      <c r="C63" t="s">
+        <v>742</v>
+      </c>
+      <c r="D63" t="s">
+        <v>743</v>
+      </c>
+      <c r="G63" t="s">
+        <v>744</v>
+      </c>
+      <c r="K63" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>746</v>
+      </c>
+      <c r="B64" t="s">
+        <v>747</v>
+      </c>
+      <c r="C64" t="s">
+        <v>748</v>
+      </c>
+      <c r="G64" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" t="s">
+        <v>750</v>
+      </c>
+      <c r="C65" t="s">
+        <v>751</v>
+      </c>
+      <c r="G65" t="s">
+        <v>752</v>
+      </c>
+      <c r="K65" t="s">
+        <v>753</v>
+      </c>
+      <c r="L65" t="s">
+        <v>754</v>
+      </c>
+      <c r="M65" t="s">
+        <v>755</v>
+      </c>
+      <c r="N65" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" t="s">
+        <v>757</v>
+      </c>
+      <c r="C66" t="s">
+        <v>758</v>
+      </c>
+      <c r="K66" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C67" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" t="s">
+        <v>762</v>
+      </c>
+      <c r="K68" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69" t="s">
+        <v>764</v>
+      </c>
+      <c r="K69" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11">
+      <c r="C70" t="s">
+        <v>766</v>
+      </c>
+      <c r="K70" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" t="s">
+        <v>769</v>
+      </c>
+      <c r="C72" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
+        <v>771</v>
+      </c>
+      <c r="C73" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
+        <v>775</v>
+      </c>
+      <c r="C76" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2"/>
+      <c r="C77" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" t="s">
+        <v>781</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
@@ -6031,354 +6198,354 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>751</v>
+        <v>782</v>
       </c>
       <c r="B1" t="s">
-        <v>752</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>753</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>754</v>
+        <v>785</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>755</v>
+        <v>786</v>
       </c>
       <c r="B4" t="s">
-        <v>752</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>756</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>757</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>758</v>
+        <v>789</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>759</v>
+        <v>790</v>
       </c>
     </row>
     <row r="9" spans="16:19">
       <c r="P9" t="s">
-        <v>760</v>
+        <v>791</v>
       </c>
       <c r="Q9" t="s">
-        <v>761</v>
+        <v>792</v>
       </c>
       <c r="R9" t="s">
-        <v>762</v>
+        <v>793</v>
       </c>
       <c r="S9" t="s">
-        <v>763</v>
+        <v>794</v>
       </c>
     </row>
     <row r="10" spans="11:19">
       <c r="K10" t="s">
-        <v>764</v>
+        <v>795</v>
       </c>
       <c r="L10" t="s">
-        <v>765</v>
+        <v>796</v>
       </c>
       <c r="M10" t="s">
-        <v>766</v>
+        <v>797</v>
       </c>
       <c r="P10" t="s">
-        <v>767</v>
+        <v>798</v>
       </c>
       <c r="Q10" t="s">
-        <v>768</v>
+        <v>799</v>
       </c>
       <c r="S10" t="s">
-        <v>769</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" t="s">
-        <v>770</v>
+        <v>801</v>
       </c>
       <c r="L11" t="s">
-        <v>771</v>
+        <v>802</v>
       </c>
       <c r="M11" t="s">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12" spans="12:14">
       <c r="L12" t="s">
-        <v>754</v>
+        <v>785</v>
       </c>
       <c r="M12" t="s">
-        <v>773</v>
+        <v>804</v>
       </c>
       <c r="N12" t="s">
-        <v>774</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13" spans="13:15">
       <c r="M13" t="s">
-        <v>775</v>
+        <v>806</v>
       </c>
       <c r="N13" t="s">
-        <v>776</v>
+        <v>807</v>
       </c>
       <c r="O13" t="s">
-        <v>777</v>
+        <v>808</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>778</v>
+        <v>809</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>779</v>
+        <v>810</v>
       </c>
       <c r="B15" t="s">
-        <v>780</v>
+        <v>811</v>
       </c>
       <c r="L15" t="s">
-        <v>781</v>
+        <v>812</v>
       </c>
       <c r="N15" t="s">
-        <v>782</v>
+        <v>813</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>783</v>
+        <v>814</v>
       </c>
       <c r="B16" t="s">
-        <v>783</v>
+        <v>814</v>
       </c>
       <c r="C16" t="s">
-        <v>784</v>
+        <v>815</v>
       </c>
       <c r="N16" t="s">
-        <v>785</v>
+        <v>816</v>
       </c>
       <c r="P16" t="s">
-        <v>786</v>
+        <v>817</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>787</v>
+        <v>818</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="K18" t="s">
-        <v>789</v>
+        <v>820</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>790</v>
+        <v>821</v>
       </c>
       <c r="P21" t="s">
-        <v>791</v>
+        <v>822</v>
       </c>
       <c r="Q21" t="s">
-        <v>792</v>
+        <v>823</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>793</v>
+        <v>824</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>795</v>
+        <v>826</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>796</v>
+        <v>827</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>797</v>
+        <v>828</v>
       </c>
       <c r="G29" t="s">
-        <v>798</v>
+        <v>829</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>799</v>
+        <v>830</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>800</v>
+        <v>831</v>
       </c>
     </row>
     <row r="36" spans="7:9">
       <c r="G36" t="s">
-        <v>801</v>
+        <v>832</v>
       </c>
       <c r="I36" t="s">
-        <v>802</v>
+        <v>833</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>803</v>
+        <v>834</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>804</v>
+        <v>835</v>
       </c>
     </row>
     <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>805</v>
+        <v>836</v>
       </c>
     </row>
     <row r="41" spans="7:9">
       <c r="G41" t="s">
-        <v>806</v>
+        <v>837</v>
       </c>
       <c r="H41" t="s">
-        <v>807</v>
+        <v>838</v>
       </c>
       <c r="I41" t="s">
-        <v>808</v>
+        <v>839</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>809</v>
+        <v>840</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>810</v>
+        <v>841</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" t="s">
-        <v>811</v>
+        <v>842</v>
       </c>
       <c r="I44" t="s">
-        <v>812</v>
+        <v>843</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>813</v>
+        <v>844</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>814</v>
+        <v>845</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>815</v>
+        <v>846</v>
       </c>
     </row>
     <row r="48" spans="7:8">
       <c r="G48" t="s">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="H48" t="s">
-        <v>817</v>
+        <v>848</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>818</v>
+        <v>849</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>819</v>
+        <v>850</v>
       </c>
       <c r="B50" t="s">
-        <v>820</v>
+        <v>851</v>
       </c>
       <c r="G50" t="s">
-        <v>821</v>
+        <v>852</v>
       </c>
       <c r="H50" t="s">
-        <v>822</v>
+        <v>853</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>823</v>
+        <v>854</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>824</v>
+        <v>855</v>
       </c>
       <c r="B53" t="s">
-        <v>825</v>
+        <v>856</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>826</v>
+        <v>857</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>827</v>
+        <v>858</v>
       </c>
       <c r="G56" t="s">
-        <v>828</v>
+        <v>859</v>
       </c>
       <c r="H56" t="s">
-        <v>829</v>
+        <v>860</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>830</v>
+        <v>861</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" t="s">
-        <v>753</v>
+        <v>784</v>
       </c>
       <c r="D61" t="s">
-        <v>831</v>
+        <v>862</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>832</v>
+        <v>863</v>
       </c>
     </row>
   </sheetData>
@@ -6388,7 +6555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B2:C3"/>
@@ -6401,12 +6568,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>833</v>
+        <v>864</v>
       </c>
     </row>
   </sheetData>
@@ -6805,7 +6972,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" ht="36.75" spans="11:11">
+    <row r="48" ht="48.75" spans="11:11">
       <c r="K48" s="35" t="s">
         <v>239</v>
       </c>
@@ -6920,82 +7087,166 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A3:I13"/>
+  <dimension ref="B2:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+    <row r="2" spans="8:14">
+      <c r="H2" t="s">
         <v>249</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="L2" t="s">
         <v>251</v>
       </c>
-      <c r="G4" t="s">
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="5:12">
+      <c r="E3" t="s">
         <v>252</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="H3" t="s">
         <v>254</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="K3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="L3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" t="s">
+    <row r="4" spans="6:10">
+      <c r="F4" t="s">
         <v>258</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H4" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+      <c r="J4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+    <row r="5" spans="6:8">
+      <c r="F5" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
+      <c r="H5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="8:8">
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8">
+      <c r="F7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8">
+      <c r="F8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8">
+      <c r="F9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8">
+      <c r="F10" t="s">
+        <v>270</v>
+      </c>
+      <c r="H10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8">
+      <c r="F11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8">
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
       <c r="H12" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="8:8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8">
+      <c r="F13" t="s">
+        <v>275</v>
+      </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8">
+      <c r="F15" t="s">
+        <v>276</v>
+      </c>
+      <c r="H15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8">
+      <c r="H16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="H24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -7006,6 +7257,94 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A3:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>271</v>
+      </c>
+      <c r="I5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="H12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8">
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A3:F10"/>
@@ -7018,36 +7357,36 @@
   <sheetData>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="4:6">
       <c r="D9" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="F9" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -7057,7 +7396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K56"/>
@@ -7076,7 +7415,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="26" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -7091,7 +7430,7 @@
     </row>
     <row r="2" ht="51" spans="1:11">
       <c r="A2" s="27" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -7158,7 +7497,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="27" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -7199,7 +7538,7 @@
     </row>
     <row r="10" ht="51" spans="1:11">
       <c r="A10" s="27" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -7253,16 +7592,16 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="26" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -7282,7 +7621,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
@@ -7295,14 +7634,14 @@
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="26" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="K16" s="26"/>
     </row>
@@ -7314,7 +7653,7 @@
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -7323,19 +7662,19 @@
     </row>
     <row r="18" ht="27" spans="1:11">
       <c r="A18" s="26" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
@@ -7383,7 +7722,7 @@
     </row>
     <row r="22" ht="40.5" spans="1:11">
       <c r="A22" s="26" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -7424,20 +7763,20 @@
     </row>
     <row r="25" ht="54" spans="1:11">
       <c r="A25" s="26" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
@@ -7463,10 +7802,10 @@
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -7497,17 +7836,17 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
     </row>
     <row r="30" ht="54" spans="1:11">
       <c r="A30" s="28" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
@@ -7515,10 +7854,10 @@
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
       <c r="H30" s="26" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -7528,22 +7867,22 @@
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
       <c r="H31" s="26" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="I31" s="26"/>
       <c r="J31" s="26" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -7552,37 +7891,37 @@
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="J32" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" ht="85.5" spans="1:11">
       <c r="A33" s="29" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
@@ -7592,115 +7931,115 @@
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="K34" s="26"/>
     </row>
     <row r="35" ht="40.5" spans="4:10">
       <c r="D35" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="26" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="4:5">
       <c r="D36" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="E36" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="D40" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="E40" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="I41" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="4:5">
       <c r="D42" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="E42" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" ht="22" customHeight="1"/>
     <row r="51" ht="12" customHeight="1"/>
     <row r="52" ht="175.5" spans="2:3">
       <c r="B52" s="26" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="C55" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -7710,7 +8049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A3:C15"/>
@@ -7726,52 +8065,52 @@
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="C5" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="B10" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="C15" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -7781,7 +8120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A2:H7"/>
@@ -7797,113 +8136,40 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="C2" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="F2" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="G2" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="H2" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="6:7">
       <c r="F3" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="G3" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="G4" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B3:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="2" max="2" width="32.1083333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" t="s">
-        <v>360</v>
-      </c>
-      <c r="C15" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>362</v>
-      </c>
-      <c r="C17" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
-        <v>365</v>
-      </c>
-      <c r="C21" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" t="s">
-        <v>369</v>
-      </c>
-      <c r="C25" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/boxsite/idea.xlsx
+++ b/boxsite/idea.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867">
   <si>
     <t>需求</t>
   </si>
@@ -857,6 +857,12 @@
   </si>
   <si>
     <t>运营</t>
+  </si>
+  <si>
+    <t>微信/公众号</t>
+  </si>
+  <si>
+    <t>网站seo</t>
   </si>
   <si>
     <t>(产品)商业模式/盈利模式</t>
@@ -3913,54 +3919,54 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C15" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C17" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C21" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C25" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3983,67 +3989,67 @@
   <sheetData>
     <row r="4" spans="1:11">
       <c r="A4" s="20" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="11:11">
       <c r="K6" s="20" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="20" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="20" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K9" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="7:11">
       <c r="G13" s="20" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" s="20" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" s="20" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="3:3">
       <c r="C17" s="21" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="3:12">
       <c r="C18" s="14" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L18" t="s">
         <v>131</v>
@@ -4051,79 +4057,79 @@
     </row>
     <row r="19" ht="15.75" spans="3:13">
       <c r="C19" s="21" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="23" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="3:3">
       <c r="C21" s="21" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="7:7">
       <c r="G25" s="22" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="7:7">
       <c r="G26" s="22" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="24" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D32" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J32" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="39" ht="18" spans="3:3">
       <c r="C39" s="25" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="3:3">
       <c r="C40" s="25" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -4183,7 +4189,7 @@
   <sheetData>
     <row r="3" ht="72" spans="1:1">
       <c r="A3" s="19" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -4209,30 +4215,30 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -4257,12 +4263,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -4272,12 +4278,12 @@
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -4285,44 +4291,44 @@
         <v>2015</v>
       </c>
       <c r="D33" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G33" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H33" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="8:10">
       <c r="H37" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J37" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J40" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -4352,46 +4358,46 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="6:7">
       <c r="F3" s="11" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:15">
       <c r="A4" s="11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="5:16">
@@ -4399,18 +4405,18 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E6" s="11">
         <v>1.2</v>
@@ -4418,18 +4424,18 @@
     </row>
     <row r="7" s="11" customFormat="1" spans="7:7">
       <c r="G7" s="11" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="4:12">
       <c r="D8" s="11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E8" s="12">
         <v>0.002</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="7:8">
@@ -4437,39 +4443,39 @@
         <v>120</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" spans="8:17">
       <c r="H10" s="11" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="4:4">
       <c r="D11" s="11" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" s="11" customFormat="1" ht="22.5" spans="4:14">
       <c r="D13" s="11" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="22.5" spans="1:14">
@@ -4477,56 +4483,56 @@
         <v>0.9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="7:14">
       <c r="G15" s="11" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="5:16">
       <c r="E16" s="11" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="16:16">
       <c r="P17" s="11" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" s="11" customFormat="1" spans="1:16">
       <c r="A18" s="11" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:16">
       <c r="A19" s="11" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>93</v>
@@ -4534,13 +4540,13 @@
     </row>
     <row r="20" s="11" customFormat="1" spans="1:13">
       <c r="A20" s="11" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="13:13">
@@ -4550,56 +4556,56 @@
     </row>
     <row r="22" s="11" customFormat="1" spans="9:9">
       <c r="I22" s="11" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="5:9">
       <c r="E23" s="11" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="9:9">
       <c r="I24" s="11" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="3:3">
       <c r="C27" s="11" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="4:12">
       <c r="D28" s="11" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="4:8">
       <c r="D29" s="11" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="2:19">
@@ -4608,16 +4614,16 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="M33" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="N33" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O33" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="P33" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -4629,17 +4635,17 @@
       <c r="D34"/>
       <c r="E34"/>
       <c r="I34" s="11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -4653,20 +4659,20 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="J35" s="11" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="S35" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -4681,7 +4687,7 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="13:19">
@@ -4695,7 +4701,7 @@
     </row>
     <row r="38" spans="13:19">
       <c r="M38" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -4716,13 +4722,13 @@
     <row r="41" ht="18.75" spans="2:13">
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="J41"/>
       <c r="K41" s="16" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -4730,7 +4736,7 @@
     <row r="42" spans="2:13">
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -4742,13 +4748,13 @@
     <row r="43" ht="37.5" spans="2:13">
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="J43"/>
       <c r="K43" s="16" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -4756,7 +4762,7 @@
     <row r="44" spans="2:13">
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -4768,13 +4774,13 @@
     <row r="45" ht="37.5" spans="2:13">
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="J45"/>
       <c r="K45" s="16" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
@@ -4784,7 +4790,7 @@
     <row r="46" spans="2:13">
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -4800,13 +4806,13 @@
       <c r="E47"/>
       <c r="J47"/>
       <c r="K47" s="16" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L47" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M47" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -4814,13 +4820,13 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="49" spans="10:13">
@@ -4831,153 +4837,153 @@
     </row>
     <row r="50" spans="10:13">
       <c r="J50" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K50" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="51" spans="10:13">
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="52" spans="10:13">
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="53" spans="10:13">
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L53" t="s">
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="54" spans="10:13">
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="1:1">
       <c r="A56" s="14" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="59" ht="13.5" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B59" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C59" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D59" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="60" ht="13.5" spans="1:6">
       <c r="A60" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B60" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C60" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D60" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E60" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F60" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="61" ht="13.5" spans="1:6">
       <c r="A61" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F61" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62" ht="13.5" spans="1:6">
       <c r="A62" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B62" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C62" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F62"/>
     </row>
     <row r="63" ht="13.5" spans="1:6">
       <c r="A63" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B63" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F63"/>
     </row>
     <row r="64" ht="13.5" spans="1:6">
       <c r="A64" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B64" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -4994,15 +5000,15 @@
     </row>
     <row r="67" ht="17.25" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" ht="293.25" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="2:2">
@@ -5031,107 +5037,107 @@
   <sheetData>
     <row r="2" spans="14:14">
       <c r="N2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D5" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="J5" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K5" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="4:10">
       <c r="D6" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="J6" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D8" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J8" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C10" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D11" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D12" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -5139,95 +5145,95 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="J15" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="K15" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D17" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="K17" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C19" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="8" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C21" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H24" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H25" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:4">
       <c r="A29" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D29" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -5250,22 +5256,22 @@
   <sheetData>
     <row r="3" spans="5:5">
       <c r="E3" s="8" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -5526,653 +5532,653 @@
         <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="I4" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C6" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="J6" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B9" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="I9" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="9:10">
       <c r="I10" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="J10" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="9:11">
       <c r="I11" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="J11" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K11" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B13" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C13" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="I13" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="J13" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C15" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="I15" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D20" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E20" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B25" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C27" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D27" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C28" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D28" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D29" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D30" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C31" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D31" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D32" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E33" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B46" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C46" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D46" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E46" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F46" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G46" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H46" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="J46" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F47" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K47" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C48" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G48" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="K48" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L48" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G49" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="K49" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G50" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="K50" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="L50" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G51" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="K51" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="52" spans="7:11">
       <c r="G52" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="K52" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="53" spans="3:13">
       <c r="C53" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G53" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="K53" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="L53" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="M53" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="54" spans="7:11">
       <c r="G54" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K54" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="55" spans="3:11">
       <c r="C55" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D55" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="G55" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="K55" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="56" spans="3:11">
       <c r="C56" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="G56" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="K56" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="57" spans="3:11">
       <c r="C57" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="G57" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="K57" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C58" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G58" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="K58" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="59" spans="2:14">
       <c r="B59" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C59" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="G59" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="K59" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="L59" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="M59" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="N59" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G60" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="L60" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="M60" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="N60" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="61" spans="2:12">
       <c r="B61" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G61" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="K61" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="L61" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B62" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C62" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D62" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E62" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F62" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G62" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="63" spans="3:11">
       <c r="C63" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D63" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G63" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="K63" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B64" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C64" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G64" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="65" spans="2:14">
       <c r="B65" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C65" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G65" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="K65" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="L65" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="M65" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="N65" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C66" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="K66" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C67" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="K68" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="K69" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="70" spans="3:11">
       <c r="C70" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="K70" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C72" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C73" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C76" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2"/>
       <c r="C77" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -6198,354 +6204,354 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B4" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="9" spans="16:19">
       <c r="P9" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="Q9" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="R9" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="S9" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="10" spans="11:19">
       <c r="K10" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="L10" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="M10" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="P10" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="S10" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="L11" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="M11" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="12" spans="12:14">
       <c r="L12" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="M12" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="N12" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="13" spans="13:15">
       <c r="M13" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="N13" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="O13" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B15" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="L15" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="N15" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B16" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C16" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="N16" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="P16" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="K18" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="P21" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="Q21" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="G29" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="36" spans="7:9">
       <c r="G36" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="I36" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="41" spans="7:9">
       <c r="G41" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H41" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="I41" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="I44" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="48" spans="7:8">
       <c r="G48" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="H48" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B50" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G50" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="H50" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B53" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="G56" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="H56" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D61" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -6568,12 +6574,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -7090,10 +7096,14 @@
   <dimension ref="B2:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J11" sqref="J11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="8:14">
       <c r="H2" t="s">
@@ -7197,25 +7207,37 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="6:8">
+    <row r="11" spans="6:12">
       <c r="F11" t="s">
         <v>272</v>
       </c>
       <c r="H11" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="12" spans="6:8">
+      <c r="J11" t="s">
+        <v>274</v>
+      </c>
+      <c r="K11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="6:10">
       <c r="F12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H12" t="s">
         <v>273</v>
       </c>
+      <c r="J12" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H13" t="s">
         <v>273</v>
@@ -7223,30 +7245,30 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="8:8">
       <c r="H16" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="8:8">
       <c r="H19" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="H24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7272,18 +7294,18 @@
         <v>254</v>
       </c>
       <c r="I3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7291,45 +7313,45 @@
         <v>271</v>
       </c>
       <c r="I5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="8:8">
       <c r="H12" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="8:8">
@@ -7357,36 +7379,36 @@
   <sheetData>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="4:6">
       <c r="D9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -7415,7 +7437,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="26" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -7430,7 +7452,7 @@
     </row>
     <row r="2" ht="51" spans="1:11">
       <c r="A2" s="27" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -7497,7 +7519,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="27" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -7538,7 +7560,7 @@
     </row>
     <row r="10" ht="51" spans="1:11">
       <c r="A10" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -7592,16 +7614,16 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="26" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -7621,7 +7643,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
@@ -7634,14 +7656,14 @@
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="26" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K16" s="26"/>
     </row>
@@ -7653,7 +7675,7 @@
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -7662,19 +7684,19 @@
     </row>
     <row r="18" ht="27" spans="1:11">
       <c r="A18" s="26" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
@@ -7722,7 +7744,7 @@
     </row>
     <row r="22" ht="40.5" spans="1:11">
       <c r="A22" s="26" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -7763,20 +7785,20 @@
     </row>
     <row r="25" ht="54" spans="1:11">
       <c r="A25" s="26" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
@@ -7802,10 +7824,10 @@
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -7836,17 +7858,17 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
     </row>
     <row r="30" ht="54" spans="1:11">
       <c r="A30" s="28" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
@@ -7854,10 +7876,10 @@
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
       <c r="H30" s="26" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -7867,22 +7889,22 @@
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
       <c r="H31" s="26" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I31" s="26"/>
       <c r="J31" s="26" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -7891,37 +7913,37 @@
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J32" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" ht="85.5" spans="1:11">
       <c r="A33" s="29" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
@@ -7931,115 +7953,115 @@
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K34" s="26"/>
     </row>
     <row r="35" ht="40.5" spans="4:10">
       <c r="D35" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="26" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="4:5">
       <c r="D36" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E36" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="D40" t="s">
+        <v>357</v>
+      </c>
+      <c r="E40" t="s">
         <v>355</v>
-      </c>
-      <c r="E40" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I41" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="4:5">
       <c r="D42" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E42" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" ht="22" customHeight="1"/>
     <row r="51" ht="12" customHeight="1"/>
     <row r="52" ht="175.5" spans="2:3">
       <c r="B52" s="26" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C55" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -8065,52 +8087,52 @@
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C15" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -8136,40 +8158,40 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="6:7">
       <c r="F3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/boxsite/idea.xlsx
+++ b/boxsite/idea.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950" tabRatio="818" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="818" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="找方向" sheetId="1" r:id="rId1"/>
     <sheet name="搞钱" sheetId="2" r:id="rId2"/>
     <sheet name="找项目" sheetId="3" r:id="rId3"/>
     <sheet name="创业早报" sheetId="4" r:id="rId4"/>
-    <sheet name="科技资讯" sheetId="5" r:id="rId5"/>
+    <sheet name="科技早报" sheetId="5" r:id="rId5"/>
     <sheet name="消费者图片仪" sheetId="6" r:id="rId6"/>
     <sheet name="技术刷榜" sheetId="7" r:id="rId7"/>
     <sheet name="小APP" sheetId="8" r:id="rId8"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872">
   <si>
     <t>需求</t>
   </si>
@@ -926,6 +926,21 @@
   </si>
   <si>
     <t>游戏</t>
+  </si>
+  <si>
+    <t>综合</t>
+  </si>
+  <si>
+    <t>电子商务</t>
+  </si>
+  <si>
+    <t>评论</t>
+  </si>
+  <si>
+    <t>动态</t>
+  </si>
+  <si>
+    <t>爆料</t>
   </si>
   <si>
     <t>热点采集</t>
@@ -2683,12 +2698,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2871,16 +2886,345 @@
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2888,12 +3232,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2902,20 +3350,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3002,15 +3570,58 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -3060,71 +3671,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3919,54 +4530,54 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C15" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C17" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C21" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C25" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3989,67 +4600,67 @@
   <sheetData>
     <row r="4" spans="1:11">
       <c r="A4" s="20" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="11:11">
       <c r="K6" s="20" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="20" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="20" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K9" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="7:11">
       <c r="G13" s="20" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" s="20" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" s="20" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="3:3">
       <c r="C17" s="21" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="3:12">
       <c r="C18" s="14" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L18" t="s">
         <v>131</v>
@@ -4057,79 +4668,79 @@
     </row>
     <row r="19" ht="15.75" spans="3:13">
       <c r="C19" s="21" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="23" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="3:3">
       <c r="C21" s="21" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="7:7">
       <c r="G25" s="22" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="7:7">
       <c r="G26" s="22" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="24" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D32" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="J32" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" ht="18" spans="3:3">
       <c r="C39" s="25" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="3:3">
       <c r="C40" s="25" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4189,7 +4800,7 @@
   <sheetData>
     <row r="3" ht="72" spans="1:1">
       <c r="A3" s="19" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -4215,30 +4826,30 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -4263,12 +4874,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -4278,12 +4889,12 @@
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -4291,44 +4902,44 @@
         <v>2015</v>
       </c>
       <c r="D33" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="G33" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="H33" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="8:10">
       <c r="H37" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="J37" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="J40" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -4358,46 +4969,46 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="6:7">
       <c r="F3" s="11" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:15">
       <c r="A4" s="11" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="5:16">
@@ -4405,18 +5016,18 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="E6" s="11">
         <v>1.2</v>
@@ -4424,18 +5035,18 @@
     </row>
     <row r="7" s="11" customFormat="1" spans="7:7">
       <c r="G7" s="11" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="4:12">
       <c r="D8" s="11" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E8" s="12">
         <v>0.002</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="7:8">
@@ -4443,39 +5054,39 @@
         <v>120</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" spans="8:17">
       <c r="H10" s="11" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="4:4">
       <c r="D11" s="11" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" s="11" customFormat="1" ht="22.5" spans="4:14">
       <c r="D13" s="11" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="22.5" spans="1:14">
@@ -4483,56 +5094,56 @@
         <v>0.9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="7:14">
       <c r="G15" s="11" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="5:16">
       <c r="E16" s="11" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="16:16">
       <c r="P17" s="11" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" s="11" customFormat="1" spans="1:16">
       <c r="A18" s="11" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:16">
       <c r="A19" s="11" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>93</v>
@@ -4540,13 +5151,13 @@
     </row>
     <row r="20" s="11" customFormat="1" spans="1:13">
       <c r="A20" s="11" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="13:13">
@@ -4556,56 +5167,56 @@
     </row>
     <row r="22" s="11" customFormat="1" spans="9:9">
       <c r="I22" s="11" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="5:9">
       <c r="E23" s="11" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="9:9">
       <c r="I24" s="11" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="3:3">
       <c r="C27" s="11" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="4:12">
       <c r="D28" s="11" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="4:8">
       <c r="D29" s="11" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="2:19">
@@ -4614,16 +5225,16 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="M33" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="N33" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="O33" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="P33" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -4635,17 +5246,17 @@
       <c r="D34"/>
       <c r="E34"/>
       <c r="I34" s="11" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -4659,20 +5270,20 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="J35" s="11" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="S35" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -4687,7 +5298,7 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="13:19">
@@ -4701,7 +5312,7 @@
     </row>
     <row r="38" spans="13:19">
       <c r="M38" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -4722,13 +5333,13 @@
     <row r="41" ht="18.75" spans="2:13">
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="J41"/>
       <c r="K41" s="16" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -4736,7 +5347,7 @@
     <row r="42" spans="2:13">
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -4748,13 +5359,13 @@
     <row r="43" ht="37.5" spans="2:13">
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="J43"/>
       <c r="K43" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -4762,7 +5373,7 @@
     <row r="44" spans="2:13">
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -4774,13 +5385,13 @@
     <row r="45" ht="37.5" spans="2:13">
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="J45"/>
       <c r="K45" s="16" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
@@ -4790,7 +5401,7 @@
     <row r="46" spans="2:13">
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -4806,13 +5417,13 @@
       <c r="E47"/>
       <c r="J47"/>
       <c r="K47" s="16" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="L47" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="M47" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -4820,13 +5431,13 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="49" spans="10:13">
@@ -4837,153 +5448,153 @@
     </row>
     <row r="50" spans="10:13">
       <c r="J50" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="K50" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="51" spans="10:13">
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="52" spans="10:13">
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="53" spans="10:13">
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="L53" t="s">
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="54" spans="10:13">
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="1:1">
       <c r="A56" s="14" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="59" ht="13.5" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B59" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C59" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D59" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="60" ht="13.5" spans="1:6">
       <c r="A60" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B60" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C60" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D60" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="E60" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="F60" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="61" ht="13.5" spans="1:6">
       <c r="A61" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="F61" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="62" ht="13.5" spans="1:6">
       <c r="A62" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B62" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C62" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="F62"/>
     </row>
     <row r="63" ht="13.5" spans="1:6">
       <c r="A63" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B63" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="F63"/>
     </row>
     <row r="64" ht="13.5" spans="1:6">
       <c r="A64" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B64" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -5000,15 +5611,15 @@
     </row>
     <row r="67" ht="17.25" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="69" ht="293.25" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="71" spans="2:2">
@@ -5037,107 +5648,107 @@
   <sheetData>
     <row r="2" spans="14:14">
       <c r="N2" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C4" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D5" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="J5" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="K5" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="4:10">
       <c r="D6" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="J6" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="J7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D8" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="J8" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C10" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D11" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D12" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -5145,95 +5756,95 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="J15" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="K15" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="D17" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K17" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="C19" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="8" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C21" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="H24" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="H25" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:4">
       <c r="A29" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="D29" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -5256,22 +5867,22 @@
   <sheetData>
     <row r="3" spans="5:5">
       <c r="E3" s="8" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -5532,653 +6143,653 @@
         <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="B3" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="I4" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C6" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="J6" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="B9" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="I9" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10" spans="9:10">
       <c r="I10" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="J10" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="9:11">
       <c r="I11" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="J11" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="K11" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B13" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="C13" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="I13" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="J13" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="C15" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="I15" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="D20" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="E20" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="B25" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C27" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="D27" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="C28" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="D28" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="D29" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="D30" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C31" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="D31" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="D32" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="E33" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="B46" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="C46" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="D46" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="E46" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="F46" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="G46" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="H46" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="J46" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="F47" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="K47" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="C48" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="G48" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="K48" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="L48" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="G49" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="K49" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="G50" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="K50" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="L50" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="G51" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="K51" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="52" spans="7:11">
       <c r="G52" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="K52" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="53" spans="3:13">
       <c r="C53" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="G53" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="K53" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="L53" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="M53" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="54" spans="7:11">
       <c r="G54" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K54" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="55" spans="3:11">
       <c r="C55" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="D55" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="G55" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="K55" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="56" spans="3:11">
       <c r="C56" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="G56" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="K56" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
     </row>
     <row r="57" spans="3:11">
       <c r="C57" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="G57" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="K57" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="C58" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="G58" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="K58" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="59" spans="2:14">
       <c r="B59" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="C59" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="G59" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="K59" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="L59" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="M59" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="N59" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="G60" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="L60" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="M60" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="N60" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
     </row>
     <row r="61" spans="2:12">
       <c r="B61" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="G61" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="K61" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="L61" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="B62" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="C62" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="D62" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="E62" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="F62" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="G62" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="63" spans="3:11">
       <c r="C63" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="D63" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="G63" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="K63" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B64" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="C64" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G64" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="65" spans="2:14">
       <c r="B65" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="C65" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="G65" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="K65" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="L65" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="M65" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="N65" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="C66" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="K66" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C67" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="K68" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="K69" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="70" spans="3:11">
       <c r="C70" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="K70" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C72" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="C73" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="C76" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2"/>
       <c r="C77" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -6204,354 +6815,354 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="B1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="B4" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9" spans="16:19">
       <c r="P9" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="Q9" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="R9" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="S9" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="10" spans="11:19">
       <c r="K10" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="L10" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="M10" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="P10" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="Q10" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="S10" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="L11" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="M11" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
     </row>
     <row r="12" spans="12:14">
       <c r="L12" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="M12" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="N12" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
     </row>
     <row r="13" spans="13:15">
       <c r="M13" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="N13" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="O13" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="B15" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="L15" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="N15" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="B16" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="C16" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="N16" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="P16" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="K18" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="P21" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="Q21" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="G29" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
     </row>
     <row r="36" spans="7:9">
       <c r="G36" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="I36" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
     </row>
     <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
     </row>
     <row r="41" spans="7:9">
       <c r="G41" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="H41" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="I41" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="I44" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="48" spans="7:8">
       <c r="G48" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="H48" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="B50" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="G50" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="H50" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="B53" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="G56" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="H56" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="D61" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -6574,12 +7185,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -6978,7 +7589,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" ht="48.75" spans="11:11">
+    <row r="48" ht="36.75" spans="11:11">
       <c r="K48" s="35" t="s">
         <v>239</v>
       </c>
@@ -7095,7 +7706,7 @@
   <sheetPr/>
   <dimension ref="B2:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11:L11"/>
     </sheetView>
   </sheetViews>
@@ -7281,10 +7892,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A3:I13"/>
+  <dimension ref="A3:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7357,6 +7968,29 @@
     <row r="13" spans="8:8">
       <c r="H13" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12">
+      <c r="F19" t="s">
+        <v>297</v>
+      </c>
+      <c r="G19" t="s">
+        <v>249</v>
+      </c>
+      <c r="H19" t="s">
+        <v>298</v>
+      </c>
+      <c r="I19" t="s">
+        <v>299</v>
+      </c>
+      <c r="J19" t="s">
+        <v>289</v>
+      </c>
+      <c r="K19" t="s">
+        <v>300</v>
+      </c>
+      <c r="L19" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -7379,36 +8013,36 @@
   <sheetData>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E4" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="4:6">
       <c r="D9" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -7437,7 +8071,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="26" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -7452,7 +8086,7 @@
     </row>
     <row r="2" ht="51" spans="1:11">
       <c r="A2" s="27" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -7519,7 +8153,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="27" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -7560,7 +8194,7 @@
     </row>
     <row r="10" ht="51" spans="1:11">
       <c r="A10" s="27" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -7614,16 +8248,16 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="26" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -7643,7 +8277,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
@@ -7656,14 +8290,14 @@
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="26" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K16" s="26"/>
     </row>
@@ -7675,7 +8309,7 @@
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -7684,19 +8318,19 @@
     </row>
     <row r="18" ht="27" spans="1:11">
       <c r="A18" s="26" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
@@ -7744,7 +8378,7 @@
     </row>
     <row r="22" ht="40.5" spans="1:11">
       <c r="A22" s="26" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -7785,20 +8419,20 @@
     </row>
     <row r="25" ht="54" spans="1:11">
       <c r="A25" s="26" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
@@ -7824,10 +8458,10 @@
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -7858,17 +8492,17 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
     </row>
     <row r="30" ht="54" spans="1:11">
       <c r="A30" s="28" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
@@ -7876,10 +8510,10 @@
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
       <c r="H30" s="26" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -7889,22 +8523,22 @@
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
       <c r="H31" s="26" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="I31" s="26"/>
       <c r="J31" s="26" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -7913,37 +8547,37 @@
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="J32" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" ht="85.5" spans="1:11">
       <c r="A33" s="29" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
@@ -7953,115 +8587,115 @@
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K34" s="26"/>
     </row>
     <row r="35" ht="40.5" spans="4:10">
       <c r="D35" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="26" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="4:5">
       <c r="D36" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E36" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="D40" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E40" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="I41" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="4:5">
       <c r="D42" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E42" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" ht="22" customHeight="1"/>
     <row r="51" ht="12" customHeight="1"/>
     <row r="52" ht="175.5" spans="2:3">
       <c r="B52" s="26" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C55" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -8087,52 +8721,52 @@
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C15" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -8158,40 +8792,40 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="6:7">
       <c r="F3" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="G3" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G4" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/boxsite/idea.xlsx
+++ b/boxsite/idea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="818" activeTab="4"/>
+    <workbookView windowWidth="20370" windowHeight="7950" tabRatio="818" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="找方向" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857">
   <si>
     <t>需求</t>
   </si>
@@ -889,58 +889,13 @@
     <t>(地方)政策</t>
   </si>
   <si>
-    <t>行业从事人员</t>
-  </si>
-  <si>
-    <t>业界</t>
-  </si>
-  <si>
-    <t>推荐</t>
-  </si>
-  <si>
-    <t>风投</t>
-  </si>
-  <si>
-    <t>创业者</t>
-  </si>
-  <si>
-    <t>创投</t>
-  </si>
-  <si>
-    <t>八卦</t>
-  </si>
-  <si>
-    <t>巨头</t>
-  </si>
-  <si>
-    <t>酷</t>
-  </si>
-  <si>
-    <t>国际</t>
-  </si>
-  <si>
-    <t>人物</t>
-  </si>
-  <si>
-    <t>深度/专题</t>
-  </si>
-  <si>
-    <t>游戏</t>
-  </si>
-  <si>
-    <t>综合</t>
-  </si>
-  <si>
-    <t>电子商务</t>
-  </si>
-  <si>
-    <t>评论</t>
-  </si>
-  <si>
-    <t>动态</t>
-  </si>
-  <si>
-    <t>爆料</t>
+    <t>科技早报</t>
+  </si>
+  <si>
+    <t>旅游名小吃</t>
+  </si>
+  <si>
+    <t>搜集各地名小吃，以及地点，店铺</t>
   </si>
   <si>
     <t>热点采集</t>
@@ -2700,10 +2655,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2888,149 +2843,118 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3039,187 +2963,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3233,17 +3067,58 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color indexed="23"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color indexed="23"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3252,48 +3127,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left style="double">
+        <color indexed="63"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
+      <right style="double">
+        <color indexed="63"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color indexed="63"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3302,22 +3151,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3326,7 +3160,7 @@
       <right/>
       <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3335,155 +3169,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3572,56 +3406,55 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="强调文字颜色 4" xfId="3"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="百分比" xfId="5" builtinId="5"/>
+    <cellStyle name="标题" xfId="6"/>
+    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
+    <cellStyle name="输入" xfId="9"/>
+    <cellStyle name="差" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
+    <cellStyle name="注释" xfId="15"/>
+    <cellStyle name="警告文本" xfId="16"/>
+    <cellStyle name="标题 4" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
+    <cellStyle name="解释性文本" xfId="19"/>
+    <cellStyle name="标题 1" xfId="20"/>
+    <cellStyle name="标题 2" xfId="21"/>
+    <cellStyle name="标题 3" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
+    <cellStyle name="输出" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
+    <cellStyle name="计算" xfId="26"/>
+    <cellStyle name="检查单元格" xfId="27"/>
+    <cellStyle name="链接单元格" xfId="28"/>
+    <cellStyle name="强调文字颜色 2" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
+    <cellStyle name="汇总" xfId="31"/>
+    <cellStyle name="好" xfId="32"/>
+    <cellStyle name="适中" xfId="33"/>
+    <cellStyle name="强调文字颜色 1" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
+    <cellStyle name="强调文字颜色 3" xfId="40"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle name="强调文字颜色 5" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle name="强调文字颜色 6" xfId="46"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -3671,71 +3504,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4530,54 +4363,54 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C15" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C17" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C21" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C25" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -4600,67 +4433,67 @@
   <sheetData>
     <row r="4" spans="1:11">
       <c r="A4" s="20" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="11:11">
       <c r="K6" s="20" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="20" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="20" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="K9" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="7:11">
       <c r="G13" s="20" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" s="20" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" s="20" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="3:3">
       <c r="C17" s="21" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="3:12">
       <c r="C18" s="14" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="L18" t="s">
         <v>131</v>
@@ -4668,79 +4501,79 @@
     </row>
     <row r="19" ht="15.75" spans="3:13">
       <c r="C19" s="21" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="23" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="3:3">
       <c r="C21" s="21" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="7:7">
       <c r="G25" s="22" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="7:7">
       <c r="G26" s="22" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="24" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="D32" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="J32" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" ht="18" spans="3:3">
       <c r="C39" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="3:3">
       <c r="C40" s="25" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -4800,7 +4633,7 @@
   <sheetData>
     <row r="3" ht="72" spans="1:1">
       <c r="A3" s="19" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -4826,30 +4659,30 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -4874,12 +4707,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -4889,12 +4722,12 @@
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -4902,44 +4735,44 @@
         <v>2015</v>
       </c>
       <c r="D33" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="G33" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="H33" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="8:10">
       <c r="H37" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="J37" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="J40" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -4969,46 +4802,46 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="6:7">
       <c r="F3" s="11" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:15">
       <c r="A4" s="11" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="5:16">
@@ -5016,18 +4849,18 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="E6" s="11">
         <v>1.2</v>
@@ -5035,18 +4868,18 @@
     </row>
     <row r="7" s="11" customFormat="1" spans="7:7">
       <c r="G7" s="11" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="4:12">
       <c r="D8" s="11" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="E8" s="12">
         <v>0.002</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="7:8">
@@ -5054,39 +4887,39 @@
         <v>120</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" spans="8:17">
       <c r="H10" s="11" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="4:4">
       <c r="D11" s="11" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" s="11" customFormat="1" ht="22.5" spans="4:14">
       <c r="D13" s="11" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="22.5" spans="1:14">
@@ -5094,56 +4927,56 @@
         <v>0.9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="7:14">
       <c r="G15" s="11" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="5:16">
       <c r="E16" s="11" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="16:16">
       <c r="P17" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" s="11" customFormat="1" spans="1:16">
       <c r="A18" s="11" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:16">
       <c r="A19" s="11" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>93</v>
@@ -5151,13 +4984,13 @@
     </row>
     <row r="20" s="11" customFormat="1" spans="1:13">
       <c r="A20" s="11" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="13:13">
@@ -5167,56 +5000,56 @@
     </row>
     <row r="22" s="11" customFormat="1" spans="9:9">
       <c r="I22" s="11" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="5:9">
       <c r="E23" s="11" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="9:9">
       <c r="I24" s="11" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="3:3">
       <c r="C27" s="11" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="4:12">
       <c r="D28" s="11" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="4:8">
       <c r="D29" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="2:19">
@@ -5225,16 +5058,16 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="M33" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="N33" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="O33" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="P33" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -5246,17 +5079,17 @@
       <c r="D34"/>
       <c r="E34"/>
       <c r="I34" s="11" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -5270,20 +5103,20 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="J35" s="11" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="S35" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -5298,7 +5131,7 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="13:19">
@@ -5312,7 +5145,7 @@
     </row>
     <row r="38" spans="13:19">
       <c r="M38" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -5333,13 +5166,13 @@
     <row r="41" ht="18.75" spans="2:13">
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="J41"/>
       <c r="K41" s="16" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -5347,7 +5180,7 @@
     <row r="42" spans="2:13">
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -5359,13 +5192,13 @@
     <row r="43" ht="37.5" spans="2:13">
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="J43"/>
       <c r="K43" s="16" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -5373,7 +5206,7 @@
     <row r="44" spans="2:13">
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -5385,13 +5218,13 @@
     <row r="45" ht="37.5" spans="2:13">
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="J45"/>
       <c r="K45" s="16" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
@@ -5401,7 +5234,7 @@
     <row r="46" spans="2:13">
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -5417,13 +5250,13 @@
       <c r="E47"/>
       <c r="J47"/>
       <c r="K47" s="16" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="L47" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="M47" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -5431,13 +5264,13 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
     </row>
     <row r="49" spans="10:13">
@@ -5448,153 +5281,153 @@
     </row>
     <row r="50" spans="10:13">
       <c r="J50" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="K50" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="51" spans="10:13">
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="52" spans="10:13">
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
     </row>
     <row r="53" spans="10:13">
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="L53" t="s">
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54" spans="10:13">
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="1:1">
       <c r="A56" s="14" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
     </row>
     <row r="59" ht="13.5" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="B59" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="C59" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="D59" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="60" ht="13.5" spans="1:6">
       <c r="A60" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="B60" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="C60" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="D60" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="E60" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="F60" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
     </row>
     <row r="61" ht="13.5" spans="1:6">
       <c r="A61" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="F61" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="62" ht="13.5" spans="1:6">
       <c r="A62" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="B62" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="C62" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="F62"/>
     </row>
     <row r="63" ht="13.5" spans="1:6">
       <c r="A63" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="B63" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="F63"/>
     </row>
     <row r="64" ht="13.5" spans="1:6">
       <c r="A64" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="B64" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -5611,15 +5444,15 @@
     </row>
     <row r="67" ht="17.25" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="69" ht="293.25" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
     </row>
     <row r="71" spans="2:2">
@@ -5648,107 +5481,107 @@
   <sheetData>
     <row r="2" spans="14:14">
       <c r="N2" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="C4" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="D5" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="J5" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="K5" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="4:10">
       <c r="D6" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="J6" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="J7" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="D8" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="J8" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="C10" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="D11" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="D12" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -5756,95 +5589,95 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="J15" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="K15" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="D17" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="K17" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="C19" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="8" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="C21" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="H24" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="H25" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:4">
       <c r="A29" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="D29" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -5867,22 +5700,22 @@
   <sheetData>
     <row r="3" spans="5:5">
       <c r="E3" s="8" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -6143,653 +5976,653 @@
         <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="B3" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="I4" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="C6" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="J6" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="B9" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="I9" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="9:10">
       <c r="I10" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="J10" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="9:11">
       <c r="I11" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="J11" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="K11" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="B13" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="C13" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="I13" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="J13" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="C15" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="I15" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="D20" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="E20" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="B25" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="C27" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="D27" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="C28" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="D28" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="D29" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="D30" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="C31" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="D31" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="D32" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="E33" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="B46" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="C46" t="s">
+        <v>653</v>
+      </c>
+      <c r="D46" t="s">
+        <v>666</v>
+      </c>
+      <c r="E46" t="s">
+        <v>667</v>
+      </c>
+      <c r="F46" t="s">
         <v>668</v>
       </c>
-      <c r="D46" t="s">
-        <v>681</v>
-      </c>
-      <c r="E46" t="s">
-        <v>682</v>
-      </c>
-      <c r="F46" t="s">
-        <v>683</v>
-      </c>
       <c r="G46" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="H46" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="J46" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="F47" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="K47" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="C48" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="G48" t="s">
+        <v>662</v>
+      </c>
+      <c r="K48" t="s">
         <v>677</v>
       </c>
-      <c r="K48" t="s">
-        <v>692</v>
-      </c>
       <c r="L48" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="G49" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="K49" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="G50" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="K50" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="L50" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="G51" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="K51" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
     </row>
     <row r="52" spans="7:11">
       <c r="G52" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="K52" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
     </row>
     <row r="53" spans="3:13">
       <c r="C53" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="G53" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="K53" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="L53" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="M53" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
     </row>
     <row r="54" spans="7:11">
       <c r="G54" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="K54" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
     </row>
     <row r="55" spans="3:11">
       <c r="C55" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="D55" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="G55" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="K55" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
     </row>
     <row r="56" spans="3:11">
       <c r="C56" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="G56" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="K56" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
     </row>
     <row r="57" spans="3:11">
       <c r="C57" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="G57" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="K57" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C58" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="G58" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="K58" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
     </row>
     <row r="59" spans="2:14">
       <c r="B59" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="C59" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="G59" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="K59" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="L59" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="M59" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="N59" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="G60" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="L60" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="M60" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="N60" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
     </row>
     <row r="61" spans="2:12">
       <c r="B61" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="G61" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="K61" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="L61" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B62" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="C62" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="D62" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="E62" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="F62" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="G62" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
     </row>
     <row r="63" spans="3:11">
       <c r="C63" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="D63" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="G63" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="K63" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="B64" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="C64" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="G64" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
     </row>
     <row r="65" spans="2:14">
       <c r="B65" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="C65" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="G65" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="K65" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="L65" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="M65" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="N65" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="C66" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="K66" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="C67" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="K68" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="K69" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
     </row>
     <row r="70" spans="3:11">
       <c r="C70" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="K70" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="C72" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="C73" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="C76" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2"/>
       <c r="C77" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -6815,354 +6648,354 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="B1" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="B4" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="16:19">
       <c r="P9" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="Q9" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="R9" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="S9" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
     </row>
     <row r="10" spans="11:19">
       <c r="K10" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="L10" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="M10" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="P10" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="Q10" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="S10" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="L11" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="M11" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
     </row>
     <row r="12" spans="12:14">
       <c r="L12" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="M12" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="N12" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
     </row>
     <row r="13" spans="13:15">
       <c r="M13" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="N13" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="O13" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="B15" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="L15" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="N15" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="B16" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="C16" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="N16" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="P16" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="K18" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="P21" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="Q21" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="G29" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
     </row>
     <row r="36" spans="7:9">
       <c r="G36" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="I36" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
     </row>
     <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
     </row>
     <row r="41" spans="7:9">
       <c r="G41" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="H41" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="I41" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="I44" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
     </row>
     <row r="48" spans="7:8">
       <c r="G48" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="H48" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
       <c r="B50" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="G50" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="H50" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="B53" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="G56" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="H56" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="D61" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -7185,12 +7018,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
     </row>
   </sheetData>
@@ -7892,105 +7725,25 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A3:L19"/>
+  <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <sheetData>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>254</v>
-      </c>
-      <c r="I3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>285</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B8" t="s">
         <v>286</v>
-      </c>
-      <c r="I4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>271</v>
-      </c>
-      <c r="I5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="12" spans="8:8">
-      <c r="H12" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="8:8">
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="6:12">
-      <c r="F19" t="s">
-        <v>297</v>
-      </c>
-      <c r="G19" t="s">
-        <v>249</v>
-      </c>
-      <c r="H19" t="s">
-        <v>298</v>
-      </c>
-      <c r="I19" t="s">
-        <v>299</v>
-      </c>
-      <c r="J19" t="s">
-        <v>289</v>
-      </c>
-      <c r="K19" t="s">
-        <v>300</v>
-      </c>
-      <c r="L19" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -8013,36 +7766,36 @@
   <sheetData>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="4:6">
       <c r="D9" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F9" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -8071,7 +7824,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="26" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -8086,7 +7839,7 @@
     </row>
     <row r="2" ht="51" spans="1:11">
       <c r="A2" s="27" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -8153,7 +7906,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="27" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -8194,7 +7947,7 @@
     </row>
     <row r="10" ht="51" spans="1:11">
       <c r="A10" s="27" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -8248,16 +8001,16 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="26" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -8277,7 +8030,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
@@ -8290,14 +8043,14 @@
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="26" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="K16" s="26"/>
     </row>
@@ -8309,7 +8062,7 @@
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -8318,19 +8071,19 @@
     </row>
     <row r="18" ht="27" spans="1:11">
       <c r="A18" s="26" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
@@ -8378,7 +8131,7 @@
     </row>
     <row r="22" ht="40.5" spans="1:11">
       <c r="A22" s="26" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -8419,20 +8172,20 @@
     </row>
     <row r="25" ht="54" spans="1:11">
       <c r="A25" s="26" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
@@ -8458,10 +8211,10 @@
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -8492,17 +8245,17 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
     </row>
     <row r="30" ht="54" spans="1:11">
       <c r="A30" s="28" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
@@ -8510,10 +8263,10 @@
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
       <c r="H30" s="26" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -8523,22 +8276,22 @@
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
       <c r="H31" s="26" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="I31" s="26"/>
       <c r="J31" s="26" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -8547,37 +8300,37 @@
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="J32" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" ht="85.5" spans="1:11">
       <c r="A33" s="29" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
@@ -8587,115 +8340,115 @@
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="K34" s="26"/>
     </row>
     <row r="35" ht="40.5" spans="4:10">
       <c r="D35" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="26" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="4:5">
       <c r="D36" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="E36" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="D40" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="E40" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="I41" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="4:5">
       <c r="D42" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="E42" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" ht="22" customHeight="1"/>
     <row r="51" ht="12" customHeight="1"/>
     <row r="52" ht="175.5" spans="2:3">
       <c r="B52" s="26" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C55" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -8721,52 +8474,52 @@
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C15" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -8792,40 +8545,40 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="F2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="G2" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="H2" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="6:7">
       <c r="F3" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="G3" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="G4" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
